--- a/jee_latest_st1.xlsx
+++ b/jee_latest_st1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="1713">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5631,6 +5631,21 @@
   </si>
   <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>Row1</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>Row3</t>
+  </si>
+  <si>
+    <t>&lt;input type="text&gt;&lt;/input&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit" value="login"&gt;</t>
   </si>
 </sst>
 </file>
@@ -7099,6 +7114,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7108,16 +7139,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7147,7 +7178,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7252,18 +7289,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7284,6 +7309,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7315,9 +7358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7327,8 +7367,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7387,57 +7478,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7465,50 +7505,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7549,43 +7553,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10535,10 +10550,10 @@
       <c r="K232" s="29"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="397" t="s">
+      <c r="O232" s="415" t="s">
         <v>1088</v>
       </c>
-      <c r="P232" s="398"/>
+      <c r="P232" s="416"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">
@@ -12514,10 +12529,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="399" t="s">
+      <c r="L35" s="417" t="s">
         <v>264</v>
       </c>
-      <c r="M35" s="399"/>
+      <c r="M35" s="417"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14451,10 +14466,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="400" t="s">
+      <c r="A155" s="418" t="s">
         <v>856</v>
       </c>
-      <c r="B155" s="400"/>
+      <c r="B155" s="418"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="83" t="s">
@@ -16822,18 +16837,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="401" t="s">
+      <c r="E6" s="426" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="351" t="s">
+      <c r="F6" s="368"/>
+      <c r="G6" s="367" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="352"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="367"/>
+      <c r="K6" s="367"/>
+      <c r="L6" s="368"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="24" t="s">
@@ -16846,7 +16861,7 @@
       <c r="A7" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="D7" s="409">
+      <c r="D7" s="423">
         <v>80</v>
       </c>
       <c r="E7" s="192"/>
@@ -16864,7 +16879,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="409"/>
+      <c r="D8" s="423"/>
       <c r="E8" s="42" t="s">
         <v>298</v>
       </c>
@@ -16899,7 +16914,7 @@
       <c r="B9" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="409"/>
+      <c r="D9" s="423"/>
       <c r="E9" s="193"/>
       <c r="F9" s="196"/>
       <c r="G9" s="127"/>
@@ -16923,7 +16938,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="409"/>
+      <c r="D10" s="423"/>
       <c r="E10" s="192"/>
       <c r="F10" s="195"/>
       <c r="G10" s="312"/>
@@ -16947,7 +16962,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="409"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="42" t="s">
         <v>302</v>
       </c>
@@ -16976,7 +16991,7 @@
       <c r="B12" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="409"/>
+      <c r="D12" s="423"/>
       <c r="E12" s="193"/>
       <c r="F12" s="196"/>
       <c r="G12" s="316"/>
@@ -16997,7 +17012,7 @@
       <c r="B13" t="s">
         <v>1439</v>
       </c>
-      <c r="D13" s="409"/>
+      <c r="D13" s="423"/>
       <c r="E13" s="192"/>
       <c r="F13" s="195"/>
       <c r="G13" s="318"/>
@@ -17013,7 +17028,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="409"/>
+      <c r="D14" s="423"/>
       <c r="E14" s="42" t="s">
         <v>307</v>
       </c>
@@ -17040,7 +17055,7 @@
       <c r="B15" t="s">
         <v>1440</v>
       </c>
-      <c r="D15" s="409"/>
+      <c r="D15" s="423"/>
       <c r="E15" s="193"/>
       <c r="F15" s="196"/>
       <c r="G15" s="322"/>
@@ -17059,7 +17074,7 @@
       <c r="B16" t="s">
         <v>1240</v>
       </c>
-      <c r="D16" s="409"/>
+      <c r="D16" s="423"/>
       <c r="E16" s="192"/>
       <c r="F16" s="195"/>
       <c r="G16" s="324"/>
@@ -17079,7 +17094,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="409"/>
+      <c r="D17" s="423"/>
       <c r="E17" s="42" t="s">
         <v>311</v>
       </c>
@@ -17107,7 +17122,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="409"/>
+      <c r="D18" s="423"/>
       <c r="E18" s="193"/>
       <c r="F18" s="196"/>
       <c r="G18" s="327"/>
@@ -17126,20 +17141,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="402" t="s">
+      <c r="E19" s="427" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="403"/>
-      <c r="G19" s="402" t="s">
+      <c r="F19" s="428"/>
+      <c r="G19" s="427" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="402" t="s">
+      <c r="H19" s="428"/>
+      <c r="I19" s="427" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="404"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="403"/>
+      <c r="J19" s="429"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="428"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -17204,12 +17219,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="411"/>
-      <c r="H24" s="411"/>
-      <c r="I24" s="411"/>
-      <c r="J24" s="411"/>
-      <c r="K24" s="411"/>
-      <c r="L24" s="411"/>
+      <c r="G24" s="425"/>
+      <c r="H24" s="425"/>
+      <c r="I24" s="425"/>
+      <c r="J24" s="425"/>
+      <c r="K24" s="425"/>
+      <c r="L24" s="425"/>
       <c r="O24" s="34" t="s">
         <v>70</v>
       </c>
@@ -17625,11 +17640,11 @@
       <c r="G47" s="189" t="s">
         <v>753</v>
       </c>
-      <c r="H47" s="397" t="s">
+      <c r="H47" s="415" t="s">
         <v>1216</v>
       </c>
-      <c r="I47" s="410"/>
-      <c r="J47" s="398"/>
+      <c r="I47" s="424"/>
+      <c r="J47" s="416"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -18235,16 +18250,16 @@
         <v>911</v>
       </c>
       <c r="F131" s="32"/>
-      <c r="G131" s="407" t="s">
+      <c r="G131" s="421" t="s">
         <v>904</v>
       </c>
-      <c r="H131" s="407"/>
-      <c r="I131" s="407"/>
-      <c r="J131" s="407"/>
-      <c r="K131" s="407"/>
-      <c r="L131" s="407"/>
-      <c r="M131" s="407"/>
-      <c r="N131" s="407"/>
+      <c r="H131" s="421"/>
+      <c r="I131" s="421"/>
+      <c r="J131" s="421"/>
+      <c r="K131" s="421"/>
+      <c r="L131" s="421"/>
+      <c r="M131" s="421"/>
+      <c r="N131" s="421"/>
       <c r="O131" s="32"/>
     </row>
     <row r="132" spans="2:15">
@@ -18381,29 +18396,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="32"/>
-      <c r="G141" s="408"/>
-      <c r="H141" s="408"/>
-      <c r="I141" s="408"/>
-      <c r="J141" s="408"/>
-      <c r="K141" s="408"/>
-      <c r="L141" s="408"/>
-      <c r="M141" s="408"/>
-      <c r="N141" s="408"/>
-      <c r="O141" s="408"/>
+      <c r="G141" s="422"/>
+      <c r="H141" s="422"/>
+      <c r="I141" s="422"/>
+      <c r="J141" s="422"/>
+      <c r="K141" s="422"/>
+      <c r="L141" s="422"/>
+      <c r="M141" s="422"/>
+      <c r="N141" s="422"/>
+      <c r="O141" s="422"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="408"/>
-      <c r="H142" s="408"/>
-      <c r="I142" s="408"/>
-      <c r="J142" s="408"/>
-      <c r="K142" s="408"/>
-      <c r="L142" s="408"/>
-      <c r="M142" s="408"/>
-      <c r="N142" s="408"/>
-      <c r="O142" s="408"/>
+      <c r="G142" s="422"/>
+      <c r="H142" s="422"/>
+      <c r="I142" s="422"/>
+      <c r="J142" s="422"/>
+      <c r="K142" s="422"/>
+      <c r="L142" s="422"/>
+      <c r="M142" s="422"/>
+      <c r="N142" s="422"/>
+      <c r="O142" s="422"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18447,7 +18462,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="405" t="s">
+      <c r="D158" s="419" t="s">
         <v>1182</v>
       </c>
       <c r="E158" s="58"/>
@@ -18460,7 +18475,7 @@
       <c r="L158" s="197"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="406"/>
+      <c r="D159" s="420"/>
       <c r="E159" s="262" t="s">
         <v>1180</v>
       </c>
@@ -18482,7 +18497,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="406"/>
+      <c r="D160" s="420"/>
       <c r="E160" s="194"/>
       <c r="F160" s="198"/>
       <c r="G160" s="194"/>
@@ -18493,7 +18508,7 @@
       <c r="L160" s="198"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="406"/>
+      <c r="D161" s="420"/>
       <c r="E161" s="264"/>
       <c r="F161" s="265"/>
       <c r="G161" s="264"/>
@@ -18504,7 +18519,7 @@
       <c r="L161" s="265"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="406"/>
+      <c r="D162" s="420"/>
       <c r="E162" s="266"/>
       <c r="F162" s="267"/>
       <c r="G162" s="266"/>
@@ -18518,7 +18533,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="406"/>
+      <c r="D163" s="420"/>
       <c r="E163" s="268"/>
       <c r="F163" s="269"/>
       <c r="G163" s="268"/>
@@ -18529,7 +18544,7 @@
       <c r="L163" s="269"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="406"/>
+      <c r="D164" s="420"/>
       <c r="E164" s="58"/>
       <c r="F164" s="197"/>
       <c r="G164" s="58"/>
@@ -18540,7 +18555,7 @@
       <c r="L164" s="197"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="406"/>
+      <c r="D165" s="420"/>
       <c r="E165" s="51"/>
       <c r="F165" s="261"/>
       <c r="G165" s="51"/>
@@ -18554,7 +18569,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="406"/>
+      <c r="D166" s="420"/>
       <c r="E166" s="194"/>
       <c r="F166" s="198"/>
       <c r="G166" s="194"/>
@@ -18565,7 +18580,7 @@
       <c r="L166" s="198"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="406"/>
+      <c r="D167" s="420"/>
       <c r="E167" s="58"/>
       <c r="F167" s="197"/>
       <c r="G167" s="52"/>
@@ -18576,7 +18591,7 @@
       <c r="L167" s="261"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="406"/>
+      <c r="D168" s="420"/>
       <c r="E168" s="51"/>
       <c r="F168" s="261"/>
       <c r="G168" s="52"/>
@@ -18590,7 +18605,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="406"/>
+      <c r="D169" s="420"/>
       <c r="E169" s="194"/>
       <c r="F169" s="198"/>
       <c r="G169" s="270"/>
@@ -19056,17 +19071,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19312,13 +19327,13 @@
       <c r="C20" s="104">
         <v>43908</v>
       </c>
-      <c r="D20" s="376" t="s">
+      <c r="D20" s="394" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
+      <c r="E20" s="394"/>
+      <c r="F20" s="394"/>
+      <c r="G20" s="394"/>
+      <c r="H20" s="394"/>
       <c r="I20" s="32" t="s">
         <v>347</v>
       </c>
@@ -19329,37 +19344,37 @@
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="422">
+      <c r="C21" s="431">
         <v>43909</v>
       </c>
-      <c r="D21" s="376"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="394"/>
+      <c r="G21" s="394"/>
+      <c r="H21" s="394"/>
       <c r="I21" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="J21" s="376"/>
-      <c r="K21" s="376"/>
-      <c r="L21" s="376" t="s">
+      <c r="J21" s="394"/>
+      <c r="K21" s="394"/>
+      <c r="L21" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
+      <c r="M21" s="394"/>
+      <c r="N21" s="394"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="422"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="356" t="s">
+      <c r="C22" s="431"/>
+      <c r="D22" s="394"/>
+      <c r="E22" s="394"/>
+      <c r="F22" s="394"/>
+      <c r="G22" s="394"/>
+      <c r="H22" s="394"/>
+      <c r="I22" s="430" t="s">
         <v>350</v>
       </c>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
+      <c r="J22" s="394"/>
+      <c r="K22" s="394"/>
       <c r="L22" s="105" t="s">
         <v>351</v>
       </c>
@@ -19367,31 +19382,31 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="422"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="376"/>
-      <c r="G23" s="376"/>
-      <c r="H23" s="376"/>
-      <c r="I23" s="356"/>
-      <c r="J23" s="376"/>
-      <c r="K23" s="376"/>
-      <c r="L23" s="376" t="s">
+      <c r="C23" s="431"/>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="394"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="430"/>
+      <c r="J23" s="394"/>
+      <c r="K23" s="394"/>
+      <c r="L23" s="394" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="376"/>
-      <c r="N23" s="376"/>
+      <c r="M23" s="394"/>
+      <c r="N23" s="394"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="422"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="356"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
+      <c r="C24" s="431"/>
+      <c r="D24" s="394"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="394"/>
+      <c r="G24" s="394"/>
+      <c r="H24" s="394"/>
+      <c r="I24" s="430"/>
+      <c r="J24" s="394"/>
+      <c r="K24" s="394"/>
       <c r="L24" s="106" t="s">
         <v>350</v>
       </c>
@@ -19402,13 +19417,13 @@
       <c r="C25" s="104">
         <v>43910</v>
       </c>
-      <c r="D25" s="376" t="s">
+      <c r="D25" s="394" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="376"/>
-      <c r="F25" s="376"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="376"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="394"/>
+      <c r="G25" s="394"/>
+      <c r="H25" s="394"/>
       <c r="I25" s="32" t="s">
         <v>354</v>
       </c>
@@ -19422,16 +19437,16 @@
       <c r="C26" s="104">
         <v>43911</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="413"/>
-      <c r="F26" s="413"/>
-      <c r="G26" s="413"/>
-      <c r="H26" s="414"/>
-      <c r="I26" s="419" t="s">
+      <c r="D26" s="432"/>
+      <c r="E26" s="433"/>
+      <c r="F26" s="433"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="434"/>
+      <c r="I26" s="439" t="s">
         <v>350</v>
       </c>
-      <c r="J26" s="412"/>
-      <c r="K26" s="414"/>
+      <c r="J26" s="432"/>
+      <c r="K26" s="434"/>
       <c r="L26" s="105" t="s">
         <v>351</v>
       </c>
@@ -19440,30 +19455,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="32"/>
-      <c r="D27" s="415"/>
-      <c r="E27" s="411"/>
-      <c r="F27" s="411"/>
-      <c r="G27" s="411"/>
-      <c r="H27" s="416"/>
-      <c r="I27" s="420"/>
-      <c r="J27" s="415"/>
-      <c r="K27" s="416"/>
-      <c r="L27" s="376" t="s">
+      <c r="D27" s="435"/>
+      <c r="E27" s="425"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="425"/>
+      <c r="H27" s="436"/>
+      <c r="I27" s="440"/>
+      <c r="J27" s="435"/>
+      <c r="K27" s="436"/>
+      <c r="L27" s="394" t="s">
         <v>355</v>
       </c>
-      <c r="M27" s="376"/>
-      <c r="N27" s="376"/>
+      <c r="M27" s="394"/>
+      <c r="N27" s="394"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="32"/>
-      <c r="D28" s="415"/>
-      <c r="E28" s="411"/>
-      <c r="F28" s="411"/>
-      <c r="G28" s="411"/>
-      <c r="H28" s="416"/>
-      <c r="I28" s="420"/>
-      <c r="J28" s="415"/>
-      <c r="K28" s="416"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="425"/>
+      <c r="F28" s="425"/>
+      <c r="G28" s="425"/>
+      <c r="H28" s="436"/>
+      <c r="I28" s="440"/>
+      <c r="J28" s="435"/>
+      <c r="K28" s="436"/>
       <c r="L28" s="106" t="s">
         <v>350</v>
       </c>
@@ -19472,14 +19487,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="32"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="399"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="421"/>
-      <c r="J29" s="417"/>
-      <c r="K29" s="418"/>
+      <c r="D29" s="437"/>
+      <c r="E29" s="417"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="417"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="441"/>
+      <c r="J29" s="437"/>
+      <c r="K29" s="438"/>
       <c r="L29" s="107" t="s">
         <v>356</v>
       </c>
@@ -19527,13 +19542,13 @@
       <c r="C33" s="104">
         <v>43908</v>
       </c>
-      <c r="D33" s="376" t="s">
+      <c r="D33" s="394" t="s">
         <v>346</v>
       </c>
-      <c r="E33" s="376"/>
-      <c r="F33" s="376"/>
-      <c r="G33" s="376"/>
-      <c r="H33" s="376"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="394"/>
+      <c r="G33" s="394"/>
+      <c r="H33" s="394"/>
       <c r="I33" s="32" t="s">
         <v>347</v>
       </c>
@@ -19544,33 +19559,33 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="422">
+      <c r="C34" s="431">
         <v>43909</v>
       </c>
-      <c r="D34" s="376"/>
-      <c r="E34" s="376"/>
-      <c r="F34" s="376"/>
-      <c r="G34" s="376"/>
-      <c r="H34" s="376"/>
-      <c r="I34" s="423"/>
-      <c r="J34" s="376"/>
-      <c r="K34" s="376"/>
-      <c r="L34" s="376" t="s">
+      <c r="D34" s="394"/>
+      <c r="E34" s="394"/>
+      <c r="F34" s="394"/>
+      <c r="G34" s="394"/>
+      <c r="H34" s="394"/>
+      <c r="I34" s="442"/>
+      <c r="J34" s="394"/>
+      <c r="K34" s="394"/>
+      <c r="L34" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="M34" s="376"/>
-      <c r="N34" s="376"/>
+      <c r="M34" s="394"/>
+      <c r="N34" s="394"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="422"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="376"/>
-      <c r="H35" s="376"/>
-      <c r="I35" s="424"/>
-      <c r="J35" s="376"/>
-      <c r="K35" s="376"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="394"/>
+      <c r="E35" s="394"/>
+      <c r="F35" s="394"/>
+      <c r="G35" s="394"/>
+      <c r="H35" s="394"/>
+      <c r="I35" s="443"/>
+      <c r="J35" s="394"/>
+      <c r="K35" s="394"/>
       <c r="L35" s="105" t="s">
         <v>351</v>
       </c>
@@ -19578,31 +19593,31 @@
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="422"/>
-      <c r="D36" s="376"/>
-      <c r="E36" s="376"/>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="376"/>
-      <c r="I36" s="424"/>
-      <c r="J36" s="376"/>
-      <c r="K36" s="376"/>
-      <c r="L36" s="376" t="s">
+      <c r="C36" s="431"/>
+      <c r="D36" s="394"/>
+      <c r="E36" s="394"/>
+      <c r="F36" s="394"/>
+      <c r="G36" s="394"/>
+      <c r="H36" s="394"/>
+      <c r="I36" s="443"/>
+      <c r="J36" s="394"/>
+      <c r="K36" s="394"/>
+      <c r="L36" s="394" t="s">
         <v>352</v>
       </c>
-      <c r="M36" s="376"/>
-      <c r="N36" s="376"/>
+      <c r="M36" s="394"/>
+      <c r="N36" s="394"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="422"/>
-      <c r="D37" s="376"/>
-      <c r="E37" s="376"/>
-      <c r="F37" s="376"/>
-      <c r="G37" s="376"/>
-      <c r="H37" s="376"/>
-      <c r="I37" s="425"/>
-      <c r="J37" s="376"/>
-      <c r="K37" s="376"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="394"/>
+      <c r="E37" s="394"/>
+      <c r="F37" s="394"/>
+      <c r="G37" s="394"/>
+      <c r="H37" s="394"/>
+      <c r="I37" s="444"/>
+      <c r="J37" s="394"/>
+      <c r="K37" s="394"/>
       <c r="L37" s="106" t="s">
         <v>357</v>
       </c>
@@ -19613,13 +19628,13 @@
       <c r="C38" s="104">
         <v>43910</v>
       </c>
-      <c r="D38" s="376" t="s">
+      <c r="D38" s="394" t="s">
         <v>353</v>
       </c>
-      <c r="E38" s="376"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="376"/>
-      <c r="H38" s="376"/>
+      <c r="E38" s="394"/>
+      <c r="F38" s="394"/>
+      <c r="G38" s="394"/>
+      <c r="H38" s="394"/>
       <c r="I38" s="32" t="s">
         <v>354</v>
       </c>
@@ -19633,14 +19648,14 @@
       <c r="C39" s="104">
         <v>43911</v>
       </c>
-      <c r="D39" s="412"/>
-      <c r="E39" s="413"/>
-      <c r="F39" s="413"/>
-      <c r="G39" s="413"/>
-      <c r="H39" s="414"/>
-      <c r="I39" s="419"/>
-      <c r="J39" s="412"/>
-      <c r="K39" s="414"/>
+      <c r="D39" s="432"/>
+      <c r="E39" s="433"/>
+      <c r="F39" s="433"/>
+      <c r="G39" s="433"/>
+      <c r="H39" s="434"/>
+      <c r="I39" s="439"/>
+      <c r="J39" s="432"/>
+      <c r="K39" s="434"/>
       <c r="L39" s="105" t="s">
         <v>351</v>
       </c>
@@ -19649,30 +19664,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="32"/>
-      <c r="D40" s="415"/>
-      <c r="E40" s="411"/>
-      <c r="F40" s="411"/>
-      <c r="G40" s="411"/>
-      <c r="H40" s="416"/>
-      <c r="I40" s="420"/>
-      <c r="J40" s="415"/>
-      <c r="K40" s="416"/>
-      <c r="L40" s="376" t="s">
+      <c r="D40" s="435"/>
+      <c r="E40" s="425"/>
+      <c r="F40" s="425"/>
+      <c r="G40" s="425"/>
+      <c r="H40" s="436"/>
+      <c r="I40" s="440"/>
+      <c r="J40" s="435"/>
+      <c r="K40" s="436"/>
+      <c r="L40" s="394" t="s">
         <v>355</v>
       </c>
-      <c r="M40" s="376"/>
-      <c r="N40" s="376"/>
+      <c r="M40" s="394"/>
+      <c r="N40" s="394"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="32"/>
-      <c r="D41" s="415"/>
-      <c r="E41" s="411"/>
-      <c r="F41" s="411"/>
-      <c r="G41" s="411"/>
-      <c r="H41" s="416"/>
-      <c r="I41" s="421"/>
-      <c r="J41" s="415"/>
-      <c r="K41" s="416"/>
+      <c r="D41" s="435"/>
+      <c r="E41" s="425"/>
+      <c r="F41" s="425"/>
+      <c r="G41" s="425"/>
+      <c r="H41" s="436"/>
+      <c r="I41" s="441"/>
+      <c r="J41" s="435"/>
+      <c r="K41" s="436"/>
       <c r="L41" s="106" t="s">
         <v>357</v>
       </c>
@@ -19681,16 +19696,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="32"/>
-      <c r="D42" s="417"/>
-      <c r="E42" s="399"/>
-      <c r="F42" s="399"/>
-      <c r="G42" s="399"/>
-      <c r="H42" s="418"/>
+      <c r="D42" s="437"/>
+      <c r="E42" s="417"/>
+      <c r="F42" s="417"/>
+      <c r="G42" s="417"/>
+      <c r="H42" s="438"/>
       <c r="I42" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="J42" s="417"/>
-      <c r="K42" s="418"/>
+      <c r="J42" s="437"/>
+      <c r="K42" s="438"/>
       <c r="L42" s="107" t="s">
         <v>356</v>
       </c>
@@ -20002,12 +20017,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20015,17 +20035,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20047,29 +20062,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="446" t="s">
+      <c r="B2" s="455" t="s">
         <v>939</v>
       </c>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446"/>
-      <c r="I2" s="446"/>
-      <c r="J2" s="446"/>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="446"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="446"/>
-      <c r="P2" s="446"/>
-      <c r="Q2" s="446"/>
-      <c r="R2" s="446"/>
-      <c r="S2" s="446"/>
-      <c r="T2" s="446"/>
-      <c r="U2" s="446"/>
-      <c r="V2" s="446"/>
+      <c r="C2" s="455"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="455"/>
+      <c r="M2" s="455"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="455"/>
+      <c r="P2" s="455"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="455"/>
+      <c r="S2" s="455"/>
+      <c r="T2" s="455"/>
+      <c r="U2" s="455"/>
+      <c r="V2" s="455"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20102,22 +20117,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="426" t="s">
+      <c r="G5" s="458" t="s">
         <v>408</v>
       </c>
-      <c r="H5" s="426"/>
-      <c r="I5" s="426" t="s">
+      <c r="H5" s="458"/>
+      <c r="I5" s="458" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="426"/>
-      <c r="K5" s="426"/>
-      <c r="L5" s="426"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="426"/>
-      <c r="O5" s="426" t="s">
+      <c r="J5" s="458"/>
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458" t="s">
         <v>410</v>
       </c>
-      <c r="P5" s="426"/>
+      <c r="P5" s="458"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20129,7 +20144,7 @@
       <c r="D6" s="123"/>
       <c r="E6" s="124"/>
       <c r="F6" s="126"/>
-      <c r="G6" s="427" t="s">
+      <c r="G6" s="463" t="s">
         <v>411</v>
       </c>
       <c r="H6" s="99"/>
@@ -20158,26 +20173,26 @@
       </c>
       <c r="E7" s="126"/>
       <c r="F7" s="126"/>
-      <c r="G7" s="428"/>
-      <c r="H7" s="430" t="s">
+      <c r="G7" s="464"/>
+      <c r="H7" s="466" t="s">
         <v>413</v>
       </c>
-      <c r="I7" s="375" t="s">
+      <c r="I7" s="393" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="434" t="s">
+      <c r="J7" s="469"/>
+      <c r="K7" s="470" t="s">
         <v>415</v>
       </c>
-      <c r="L7" s="435"/>
-      <c r="M7" s="375" t="s">
+      <c r="L7" s="471"/>
+      <c r="M7" s="393" t="s">
         <v>416</v>
       </c>
-      <c r="N7" s="433"/>
-      <c r="O7" s="440" t="s">
+      <c r="N7" s="469"/>
+      <c r="O7" s="476" t="s">
         <v>417</v>
       </c>
-      <c r="P7" s="441"/>
+      <c r="P7" s="477"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -20189,16 +20204,16 @@
       <c r="D8" s="127"/>
       <c r="E8" s="128"/>
       <c r="F8" s="126"/>
-      <c r="G8" s="428"/>
-      <c r="H8" s="431"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="355"/>
-      <c r="K8" s="436"/>
-      <c r="L8" s="437"/>
-      <c r="M8" s="354"/>
-      <c r="N8" s="355"/>
-      <c r="O8" s="442"/>
-      <c r="P8" s="443"/>
+      <c r="G8" s="464"/>
+      <c r="H8" s="467"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="384"/>
+      <c r="K8" s="472"/>
+      <c r="L8" s="473"/>
+      <c r="M8" s="382"/>
+      <c r="N8" s="384"/>
+      <c r="O8" s="478"/>
+      <c r="P8" s="479"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="32" t="s">
         <v>73</v>
@@ -20216,16 +20231,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="428"/>
-      <c r="H9" s="431"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="355"/>
-      <c r="K9" s="436"/>
-      <c r="L9" s="437"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="355"/>
-      <c r="O9" s="442"/>
-      <c r="P9" s="443"/>
+      <c r="G9" s="464"/>
+      <c r="H9" s="467"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="384"/>
+      <c r="K9" s="472"/>
+      <c r="L9" s="473"/>
+      <c r="M9" s="382"/>
+      <c r="N9" s="384"/>
+      <c r="O9" s="478"/>
+      <c r="P9" s="479"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20245,16 +20260,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="431"/>
-      <c r="I10" s="354"/>
-      <c r="J10" s="355"/>
-      <c r="K10" s="436"/>
-      <c r="L10" s="437"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="355"/>
-      <c r="O10" s="442"/>
-      <c r="P10" s="443"/>
+      <c r="G10" s="464"/>
+      <c r="H10" s="467"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="384"/>
+      <c r="K10" s="472"/>
+      <c r="L10" s="473"/>
+      <c r="M10" s="382"/>
+      <c r="N10" s="384"/>
+      <c r="O10" s="478"/>
+      <c r="P10" s="479"/>
       <c r="Q10" s="5" t="s">
         <v>78</v>
       </c>
@@ -20270,16 +20285,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="428"/>
-      <c r="H11" s="431"/>
-      <c r="I11" s="354"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="436"/>
-      <c r="L11" s="437"/>
-      <c r="M11" s="354"/>
-      <c r="N11" s="355"/>
-      <c r="O11" s="442"/>
-      <c r="P11" s="443"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="467"/>
+      <c r="I11" s="382"/>
+      <c r="J11" s="384"/>
+      <c r="K11" s="472"/>
+      <c r="L11" s="473"/>
+      <c r="M11" s="382"/>
+      <c r="N11" s="384"/>
+      <c r="O11" s="478"/>
+      <c r="P11" s="479"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20297,16 +20312,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="428"/>
-      <c r="H12" s="431"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="355"/>
-      <c r="K12" s="436"/>
-      <c r="L12" s="437"/>
-      <c r="M12" s="354"/>
-      <c r="N12" s="355"/>
-      <c r="O12" s="442"/>
-      <c r="P12" s="443"/>
+      <c r="G12" s="464"/>
+      <c r="H12" s="467"/>
+      <c r="I12" s="382"/>
+      <c r="J12" s="384"/>
+      <c r="K12" s="472"/>
+      <c r="L12" s="473"/>
+      <c r="M12" s="382"/>
+      <c r="N12" s="384"/>
+      <c r="O12" s="478"/>
+      <c r="P12" s="479"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20320,16 +20335,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="428"/>
-      <c r="H13" s="431"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="355"/>
-      <c r="K13" s="436"/>
-      <c r="L13" s="437"/>
-      <c r="M13" s="354"/>
-      <c r="N13" s="355"/>
-      <c r="O13" s="442"/>
-      <c r="P13" s="443"/>
+      <c r="G13" s="464"/>
+      <c r="H13" s="467"/>
+      <c r="I13" s="382"/>
+      <c r="J13" s="384"/>
+      <c r="K13" s="472"/>
+      <c r="L13" s="473"/>
+      <c r="M13" s="382"/>
+      <c r="N13" s="384"/>
+      <c r="O13" s="478"/>
+      <c r="P13" s="479"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -20341,16 +20356,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="428"/>
-      <c r="H14" s="431"/>
-      <c r="I14" s="354"/>
-      <c r="J14" s="355"/>
-      <c r="K14" s="436"/>
-      <c r="L14" s="437"/>
-      <c r="M14" s="354"/>
-      <c r="N14" s="355"/>
-      <c r="O14" s="442"/>
-      <c r="P14" s="443"/>
+      <c r="G14" s="464"/>
+      <c r="H14" s="467"/>
+      <c r="I14" s="382"/>
+      <c r="J14" s="384"/>
+      <c r="K14" s="472"/>
+      <c r="L14" s="473"/>
+      <c r="M14" s="382"/>
+      <c r="N14" s="384"/>
+      <c r="O14" s="478"/>
+      <c r="P14" s="479"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
@@ -20364,16 +20379,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="428"/>
-      <c r="H15" s="431"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="355"/>
-      <c r="K15" s="436"/>
-      <c r="L15" s="437"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="355"/>
-      <c r="O15" s="442"/>
-      <c r="P15" s="443"/>
+      <c r="G15" s="464"/>
+      <c r="H15" s="467"/>
+      <c r="I15" s="382"/>
+      <c r="J15" s="384"/>
+      <c r="K15" s="472"/>
+      <c r="L15" s="473"/>
+      <c r="M15" s="382"/>
+      <c r="N15" s="384"/>
+      <c r="O15" s="478"/>
+      <c r="P15" s="479"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20385,16 +20400,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="428"/>
-      <c r="H16" s="431"/>
-      <c r="I16" s="354"/>
-      <c r="J16" s="355"/>
-      <c r="K16" s="436"/>
-      <c r="L16" s="437"/>
-      <c r="M16" s="354"/>
-      <c r="N16" s="355"/>
-      <c r="O16" s="442"/>
-      <c r="P16" s="443"/>
+      <c r="G16" s="464"/>
+      <c r="H16" s="467"/>
+      <c r="I16" s="382"/>
+      <c r="J16" s="384"/>
+      <c r="K16" s="472"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="382"/>
+      <c r="N16" s="384"/>
+      <c r="O16" s="478"/>
+      <c r="P16" s="479"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20406,16 +20421,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="431"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="355"/>
-      <c r="K17" s="436"/>
-      <c r="L17" s="437"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="355"/>
-      <c r="O17" s="442"/>
-      <c r="P17" s="443"/>
+      <c r="G17" s="464"/>
+      <c r="H17" s="467"/>
+      <c r="I17" s="382"/>
+      <c r="J17" s="384"/>
+      <c r="K17" s="472"/>
+      <c r="L17" s="473"/>
+      <c r="M17" s="382"/>
+      <c r="N17" s="384"/>
+      <c r="O17" s="478"/>
+      <c r="P17" s="479"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20427,16 +20442,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="428"/>
-      <c r="H18" s="431"/>
-      <c r="I18" s="354"/>
-      <c r="J18" s="355"/>
-      <c r="K18" s="436"/>
-      <c r="L18" s="437"/>
-      <c r="M18" s="354"/>
-      <c r="N18" s="355"/>
-      <c r="O18" s="442"/>
-      <c r="P18" s="443"/>
+      <c r="G18" s="464"/>
+      <c r="H18" s="467"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="384"/>
+      <c r="K18" s="472"/>
+      <c r="L18" s="473"/>
+      <c r="M18" s="382"/>
+      <c r="N18" s="384"/>
+      <c r="O18" s="478"/>
+      <c r="P18" s="479"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20450,16 +20465,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="428"/>
-      <c r="H19" s="431"/>
-      <c r="I19" s="354"/>
-      <c r="J19" s="355"/>
-      <c r="K19" s="436"/>
-      <c r="L19" s="437"/>
-      <c r="M19" s="354"/>
-      <c r="N19" s="355"/>
-      <c r="O19" s="442"/>
-      <c r="P19" s="443"/>
+      <c r="G19" s="464"/>
+      <c r="H19" s="467"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="384"/>
+      <c r="K19" s="472"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="382"/>
+      <c r="N19" s="384"/>
+      <c r="O19" s="478"/>
+      <c r="P19" s="479"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20471,16 +20486,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="429"/>
-      <c r="H20" s="432"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="369"/>
-      <c r="K20" s="438"/>
-      <c r="L20" s="439"/>
-      <c r="M20" s="367"/>
-      <c r="N20" s="369"/>
-      <c r="O20" s="444"/>
-      <c r="P20" s="445"/>
+      <c r="G20" s="465"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="385"/>
+      <c r="J20" s="387"/>
+      <c r="K20" s="474"/>
+      <c r="L20" s="475"/>
+      <c r="M20" s="385"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="480"/>
+      <c r="P20" s="481"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20510,27 +20525,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="370" t="s">
+      <c r="D22" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="371"/>
+      <c r="E22" s="389"/>
       <c r="F22" s="220"/>
       <c r="G22" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="370" t="s">
+      <c r="H22" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="372"/>
-      <c r="J22" s="372"/>
-      <c r="K22" s="372"/>
-      <c r="L22" s="372"/>
-      <c r="M22" s="372"/>
-      <c r="N22" s="371"/>
-      <c r="O22" s="370" t="s">
+      <c r="I22" s="390"/>
+      <c r="J22" s="390"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="390"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="389"/>
+      <c r="O22" s="388" t="s">
         <v>418</v>
       </c>
-      <c r="P22" s="371"/>
+      <c r="P22" s="389"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20561,59 +20576,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="446" t="s">
+      <c r="B25" s="455" t="s">
         <v>938</v>
       </c>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="446"/>
-      <c r="F25" s="446"/>
-      <c r="G25" s="446"/>
-      <c r="H25" s="446"/>
-      <c r="I25" s="446"/>
-      <c r="J25" s="446"/>
-      <c r="K25" s="446"/>
-      <c r="L25" s="446"/>
-      <c r="M25" s="446"/>
-      <c r="N25" s="446"/>
-      <c r="O25" s="446"/>
-      <c r="P25" s="446"/>
-      <c r="Q25" s="446"/>
-      <c r="R25" s="446"/>
-      <c r="S25" s="446"/>
-      <c r="T25" s="446"/>
-      <c r="U25" s="446"/>
-      <c r="V25" s="446"/>
+      <c r="C25" s="455"/>
+      <c r="D25" s="455"/>
+      <c r="E25" s="455"/>
+      <c r="F25" s="455"/>
+      <c r="G25" s="455"/>
+      <c r="H25" s="455"/>
+      <c r="I25" s="455"/>
+      <c r="J25" s="455"/>
+      <c r="K25" s="455"/>
+      <c r="L25" s="455"/>
+      <c r="M25" s="455"/>
+      <c r="N25" s="455"/>
+      <c r="O25" s="455"/>
+      <c r="P25" s="455"/>
+      <c r="Q25" s="455"/>
+      <c r="R25" s="455"/>
+      <c r="S25" s="455"/>
+      <c r="T25" s="455"/>
+      <c r="U25" s="455"/>
+      <c r="V25" s="455"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="447" t="s">
+      <c r="C26" s="456" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="447"/>
-      <c r="E26" s="447"/>
-      <c r="F26" s="447"/>
-      <c r="G26" s="447"/>
-      <c r="H26" s="447"/>
-      <c r="I26" s="447"/>
-      <c r="J26" s="447"/>
-      <c r="K26" s="447"/>
-      <c r="L26" s="447"/>
-      <c r="M26" s="447"/>
+      <c r="D26" s="456"/>
+      <c r="E26" s="456"/>
+      <c r="F26" s="456"/>
+      <c r="G26" s="456"/>
+      <c r="H26" s="456"/>
+      <c r="I26" s="456"/>
+      <c r="J26" s="456"/>
+      <c r="K26" s="456"/>
+      <c r="L26" s="456"/>
+      <c r="M26" s="456"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="401" t="s">
+      <c r="E27" s="426" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="351"/>
-      <c r="G27" s="351"/>
-      <c r="H27" s="360"/>
-      <c r="I27" s="360"/>
-      <c r="J27" s="360"/>
-      <c r="K27" s="360"/>
-      <c r="L27" s="360"/>
-      <c r="M27" s="361"/>
+      <c r="F27" s="367"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="376"/>
+      <c r="I27" s="376"/>
+      <c r="J27" s="376"/>
+      <c r="K27" s="376"/>
+      <c r="L27" s="376"/>
+      <c r="M27" s="377"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20646,11 +20661,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="448" t="s">
+      <c r="O29" s="457" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="448"/>
-      <c r="Q29" s="448"/>
+      <c r="P29" s="457"/>
+      <c r="Q29" s="457"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20909,15 +20924,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="456"/>
-      <c r="F42" s="457"/>
-      <c r="G42" s="457"/>
-      <c r="H42" s="457"/>
-      <c r="I42" s="457"/>
-      <c r="J42" s="457"/>
-      <c r="K42" s="457"/>
-      <c r="L42" s="457"/>
-      <c r="M42" s="458"/>
+      <c r="E42" s="445"/>
+      <c r="F42" s="446"/>
+      <c r="G42" s="446"/>
+      <c r="H42" s="446"/>
+      <c r="I42" s="446"/>
+      <c r="J42" s="446"/>
+      <c r="K42" s="446"/>
+      <c r="L42" s="446"/>
+      <c r="M42" s="447"/>
       <c r="N42" s="34" t="s">
         <v>462</v>
       </c>
@@ -20936,83 +20951,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="370" t="s">
+      <c r="C44" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="371"/>
-      <c r="E44" s="370" t="s">
+      <c r="D44" s="389"/>
+      <c r="E44" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="372"/>
-      <c r="G44" s="371"/>
-      <c r="H44" s="370" t="s">
+      <c r="F44" s="390"/>
+      <c r="G44" s="389"/>
+      <c r="H44" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="372"/>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="371"/>
+      <c r="I44" s="390"/>
+      <c r="J44" s="390"/>
+      <c r="K44" s="390"/>
+      <c r="L44" s="390"/>
+      <c r="M44" s="389"/>
       <c r="Q44" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="446" t="s">
+      <c r="B47" s="455" t="s">
         <v>940</v>
       </c>
-      <c r="C47" s="446"/>
-      <c r="D47" s="446"/>
-      <c r="E47" s="446"/>
-      <c r="F47" s="446"/>
-      <c r="G47" s="446"/>
-      <c r="H47" s="446"/>
-      <c r="I47" s="446"/>
-      <c r="J47" s="446"/>
-      <c r="K47" s="446"/>
-      <c r="L47" s="446"/>
-      <c r="M47" s="446"/>
-      <c r="N47" s="446"/>
-      <c r="O47" s="446"/>
-      <c r="P47" s="446"/>
-      <c r="Q47" s="446"/>
-      <c r="R47" s="446"/>
-      <c r="S47" s="446"/>
-      <c r="T47" s="446"/>
-      <c r="U47" s="446"/>
-      <c r="V47" s="446"/>
+      <c r="C47" s="455"/>
+      <c r="D47" s="455"/>
+      <c r="E47" s="455"/>
+      <c r="F47" s="455"/>
+      <c r="G47" s="455"/>
+      <c r="H47" s="455"/>
+      <c r="I47" s="455"/>
+      <c r="J47" s="455"/>
+      <c r="K47" s="455"/>
+      <c r="L47" s="455"/>
+      <c r="M47" s="455"/>
+      <c r="N47" s="455"/>
+      <c r="O47" s="455"/>
+      <c r="P47" s="455"/>
+      <c r="Q47" s="455"/>
+      <c r="R47" s="455"/>
+      <c r="S47" s="455"/>
+      <c r="T47" s="455"/>
+      <c r="U47" s="455"/>
+      <c r="V47" s="455"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="447" t="s">
+      <c r="C48" s="456" t="s">
         <v>457</v>
       </c>
-      <c r="D48" s="447"/>
-      <c r="E48" s="447"/>
-      <c r="F48" s="447"/>
-      <c r="G48" s="447"/>
-      <c r="H48" s="447"/>
-      <c r="I48" s="447"/>
-      <c r="J48" s="447"/>
-      <c r="K48" s="447"/>
-      <c r="L48" s="447"/>
-      <c r="M48" s="447"/>
+      <c r="D48" s="456"/>
+      <c r="E48" s="456"/>
+      <c r="F48" s="456"/>
+      <c r="G48" s="456"/>
+      <c r="H48" s="456"/>
+      <c r="I48" s="456"/>
+      <c r="J48" s="456"/>
+      <c r="K48" s="456"/>
+      <c r="L48" s="456"/>
+      <c r="M48" s="456"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="401" t="s">
+      <c r="E49" s="426" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="351"/>
-      <c r="G49" s="351"/>
-      <c r="H49" s="360"/>
-      <c r="I49" s="360"/>
-      <c r="J49" s="360"/>
-      <c r="K49" s="360"/>
-      <c r="L49" s="360"/>
-      <c r="M49" s="361"/>
+      <c r="F49" s="367"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="376"/>
+      <c r="I49" s="376"/>
+      <c r="J49" s="376"/>
+      <c r="K49" s="376"/>
+      <c r="L49" s="376"/>
+      <c r="M49" s="377"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
       <c r="U49" s="16"/>
@@ -21030,16 +21045,16 @@
       </c>
       <c r="F50" s="110"/>
       <c r="G50" s="200"/>
-      <c r="H50" s="449" t="s">
+      <c r="H50" s="459" t="s">
         <v>943</v>
       </c>
-      <c r="I50" s="450"/>
-      <c r="J50" s="451"/>
-      <c r="K50" s="449" t="s">
+      <c r="I50" s="460"/>
+      <c r="J50" s="461"/>
+      <c r="K50" s="459" t="s">
         <v>944</v>
       </c>
-      <c r="L50" s="450"/>
-      <c r="M50" s="451"/>
+      <c r="L50" s="460"/>
+      <c r="M50" s="461"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="W50" t="s">
@@ -21053,7 +21068,7 @@
         <v>958</v>
       </c>
       <c r="F51" s="241"/>
-      <c r="G51" s="455" t="s">
+      <c r="G51" s="462" t="s">
         <v>966</v>
       </c>
       <c r="H51" s="452"/>
@@ -21062,11 +21077,11 @@
       <c r="K51" s="452"/>
       <c r="L51" s="453"/>
       <c r="M51" s="454"/>
-      <c r="O51" s="448" t="s">
+      <c r="O51" s="457" t="s">
         <v>70</v>
       </c>
-      <c r="P51" s="448"/>
-      <c r="Q51" s="448"/>
+      <c r="P51" s="457"/>
+      <c r="Q51" s="457"/>
       <c r="S51" s="228"/>
       <c r="T51" s="228"/>
       <c r="W51" s="34" t="s">
@@ -21080,7 +21095,7 @@
         <v>959</v>
       </c>
       <c r="F52" s="242"/>
-      <c r="G52" s="455"/>
+      <c r="G52" s="462"/>
       <c r="H52" s="452"/>
       <c r="I52" s="453"/>
       <c r="J52" s="454"/>
@@ -21097,7 +21112,7 @@
         <v>960</v>
       </c>
       <c r="F53" s="243"/>
-      <c r="G53" s="455"/>
+      <c r="G53" s="462"/>
       <c r="H53" s="452"/>
       <c r="I53" s="453"/>
       <c r="J53" s="454"/>
@@ -21142,7 +21157,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="229"/>
       <c r="F54" s="244"/>
-      <c r="G54" s="461" t="s">
+      <c r="G54" s="450" t="s">
         <v>970</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -21189,11 +21204,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="459" t="s">
+      <c r="E55" s="448" t="s">
         <v>971</v>
       </c>
-      <c r="F55" s="460"/>
-      <c r="G55" s="462"/>
+      <c r="F55" s="449"/>
+      <c r="G55" s="451"/>
       <c r="H55" s="129" t="s">
         <v>962</v>
       </c>
@@ -21237,9 +21252,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="459"/>
-      <c r="F56" s="460"/>
-      <c r="G56" s="462"/>
+      <c r="E56" s="448"/>
+      <c r="F56" s="449"/>
+      <c r="G56" s="451"/>
       <c r="H56" s="129" t="s">
         <v>963</v>
       </c>
@@ -21269,9 +21284,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="459"/>
-      <c r="F57" s="460"/>
-      <c r="G57" s="462"/>
+      <c r="E57" s="448"/>
+      <c r="F57" s="449"/>
+      <c r="G57" s="451"/>
       <c r="H57" s="4" t="s">
         <v>975</v>
       </c>
@@ -21301,9 +21316,9 @@
         <v>83</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="459"/>
-      <c r="F58" s="460"/>
-      <c r="G58" s="462"/>
+      <c r="E58" s="448"/>
+      <c r="F58" s="449"/>
+      <c r="G58" s="451"/>
       <c r="H58" s="233" t="s">
         <v>961</v>
       </c>
@@ -21328,9 +21343,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="459"/>
-      <c r="F59" s="460"/>
-      <c r="G59" s="462"/>
+      <c r="E59" s="448"/>
+      <c r="F59" s="449"/>
+      <c r="G59" s="451"/>
       <c r="H59" s="233" t="s">
         <v>439</v>
       </c>
@@ -21355,9 +21370,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="459"/>
-      <c r="F60" s="460"/>
-      <c r="G60" s="462"/>
+      <c r="E60" s="448"/>
+      <c r="F60" s="449"/>
+      <c r="G60" s="451"/>
       <c r="H60" s="235"/>
       <c r="I60" s="236" t="s">
         <v>977</v>
@@ -21377,9 +21392,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="459"/>
-      <c r="F61" s="460"/>
-      <c r="G61" s="462"/>
+      <c r="E61" s="448"/>
+      <c r="F61" s="449"/>
+      <c r="G61" s="451"/>
       <c r="H61" s="235"/>
       <c r="I61" s="236" t="s">
         <v>978</v>
@@ -21399,7 +21414,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="224"/>
       <c r="F62" s="240"/>
-      <c r="G62" s="462"/>
+      <c r="G62" s="451"/>
       <c r="H62" s="237"/>
       <c r="I62" s="239" t="s">
         <v>979</v>
@@ -21441,15 +21456,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="456"/>
-      <c r="F64" s="457"/>
-      <c r="G64" s="457"/>
-      <c r="H64" s="457"/>
-      <c r="I64" s="457"/>
-      <c r="J64" s="457"/>
-      <c r="K64" s="457"/>
-      <c r="L64" s="457"/>
-      <c r="M64" s="458"/>
+      <c r="E64" s="445"/>
+      <c r="F64" s="446"/>
+      <c r="G64" s="446"/>
+      <c r="H64" s="446"/>
+      <c r="I64" s="446"/>
+      <c r="J64" s="446"/>
+      <c r="K64" s="446"/>
+      <c r="L64" s="446"/>
+      <c r="M64" s="447"/>
       <c r="N64" s="34" t="s">
         <v>462</v>
       </c>
@@ -21478,23 +21493,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="370" t="s">
+      <c r="C66" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="371"/>
-      <c r="E66" s="370" t="s">
+      <c r="D66" s="389"/>
+      <c r="E66" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="372"/>
-      <c r="G66" s="371"/>
-      <c r="H66" s="370" t="s">
+      <c r="F66" s="390"/>
+      <c r="G66" s="389"/>
+      <c r="H66" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="I66" s="372"/>
-      <c r="J66" s="372"/>
-      <c r="K66" s="372"/>
-      <c r="L66" s="372"/>
-      <c r="M66" s="371"/>
+      <c r="I66" s="390"/>
+      <c r="J66" s="390"/>
+      <c r="K66" s="390"/>
+      <c r="L66" s="390"/>
+      <c r="M66" s="389"/>
       <c r="Q66" t="s">
         <v>941</v>
       </c>
@@ -21515,23 +21530,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="376" t="s">
+      <c r="C68" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376" t="s">
+      <c r="D68" s="394"/>
+      <c r="E68" s="394" t="s">
         <v>1226</v>
       </c>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376" t="s">
+      <c r="F68" s="394"/>
+      <c r="G68" s="394"/>
+      <c r="H68" s="394" t="s">
         <v>1242</v>
       </c>
-      <c r="I68" s="376"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="376"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="376"/>
+      <c r="I68" s="394"/>
+      <c r="J68" s="394"/>
+      <c r="K68" s="394"/>
+      <c r="L68" s="394"/>
+      <c r="M68" s="394"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="2" t="s">
@@ -22328,30 +22343,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22368,6 +22359,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22401,12 +22416,12 @@
       <c r="A1" t="s">
         <v>1465</v>
       </c>
-      <c r="H1" s="463" t="s">
+      <c r="H1" s="482" t="s">
         <v>1466</v>
       </c>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
       <c r="M1" s="34" t="s">
         <v>1467</v>
       </c>
@@ -22424,10 +22439,10 @@
       <c r="A2" t="s">
         <v>1470</v>
       </c>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="463"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
+      <c r="K2" s="482"/>
       <c r="M2" t="s">
         <v>986</v>
       </c>
@@ -22445,10 +22460,10 @@
       <c r="A3" t="s">
         <v>1472</v>
       </c>
-      <c r="H3" s="463"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="463"/>
-      <c r="K3" s="463"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="482"/>
       <c r="M3" t="s">
         <v>987</v>
       </c>
@@ -22466,10 +22481,10 @@
       <c r="A4" t="s">
         <v>1530</v>
       </c>
-      <c r="H4" s="463"/>
-      <c r="I4" s="463"/>
-      <c r="J4" s="463"/>
-      <c r="K4" s="463"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
       <c r="M4" t="s">
         <v>1252</v>
       </c>
@@ -22487,10 +22502,10 @@
       <c r="B5" t="s">
         <v>1529</v>
       </c>
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="463"/>
+      <c r="H5" s="482"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="482"/>
+      <c r="K5" s="482"/>
       <c r="Q5" t="s">
         <v>1471</v>
       </c>
@@ -22502,10 +22517,10 @@
       <c r="A6" t="s">
         <v>1531</v>
       </c>
-      <c r="H6" s="463"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="463"/>
+      <c r="H6" s="482"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="482"/>
+      <c r="K6" s="482"/>
       <c r="Q6" t="s">
         <v>1473</v>
       </c>
@@ -22514,10 +22529,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="H7" s="463"/>
-      <c r="I7" s="463"/>
-      <c r="J7" s="463"/>
-      <c r="K7" s="463"/>
+      <c r="H7" s="482"/>
+      <c r="I7" s="482"/>
+      <c r="J7" s="482"/>
+      <c r="K7" s="482"/>
       <c r="Q7" t="s">
         <v>1474</v>
       </c>
@@ -22526,12 +22541,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="463" t="s">
+      <c r="H9" s="482" t="s">
         <v>1475</v>
       </c>
-      <c r="I9" s="463"/>
-      <c r="J9" s="463"/>
-      <c r="K9" s="463"/>
+      <c r="I9" s="482"/>
+      <c r="J9" s="482"/>
+      <c r="K9" s="482"/>
       <c r="M9" t="s">
         <v>1476</v>
       </c>
@@ -22540,10 +22555,10 @@
       <c r="A10" t="s">
         <v>1477</v>
       </c>
-      <c r="H10" s="463"/>
-      <c r="I10" s="463"/>
-      <c r="J10" s="463"/>
-      <c r="K10" s="463"/>
+      <c r="H10" s="482"/>
+      <c r="I10" s="482"/>
+      <c r="J10" s="482"/>
+      <c r="K10" s="482"/>
       <c r="M10" t="s">
         <v>1478</v>
       </c>
@@ -22552,10 +22567,10 @@
       <c r="A11" t="s">
         <v>1479</v>
       </c>
-      <c r="H11" s="463"/>
-      <c r="I11" s="463"/>
-      <c r="J11" s="463"/>
-      <c r="K11" s="463"/>
+      <c r="H11" s="482"/>
+      <c r="I11" s="482"/>
+      <c r="J11" s="482"/>
+      <c r="K11" s="482"/>
       <c r="M11" t="s">
         <v>1480</v>
       </c>
@@ -22564,19 +22579,19 @@
       <c r="A12" t="s">
         <v>1481</v>
       </c>
-      <c r="H12" s="463"/>
-      <c r="I12" s="463"/>
-      <c r="J12" s="463"/>
-      <c r="K12" s="463"/>
+      <c r="H12" s="482"/>
+      <c r="I12" s="482"/>
+      <c r="J12" s="482"/>
+      <c r="K12" s="482"/>
       <c r="M12" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="H13" s="463"/>
-      <c r="I13" s="463"/>
-      <c r="J13" s="463"/>
-      <c r="K13" s="463"/>
+      <c r="H13" s="482"/>
+      <c r="I13" s="482"/>
+      <c r="J13" s="482"/>
+      <c r="K13" s="482"/>
       <c r="M13" t="s">
         <v>1483</v>
       </c>
@@ -22593,11 +22608,11 @@
       <c r="A16" t="s">
         <v>1486</v>
       </c>
-      <c r="I16" s="463" t="s">
+      <c r="I16" s="482" t="s">
         <v>1487</v>
       </c>
-      <c r="J16" s="463"/>
-      <c r="K16" s="463"/>
+      <c r="J16" s="482"/>
+      <c r="K16" s="482"/>
       <c r="M16" t="s">
         <v>1488</v>
       </c>
@@ -22609,9 +22624,9 @@
       <c r="A17" t="s">
         <v>1489</v>
       </c>
-      <c r="I17" s="463"/>
-      <c r="J17" s="463"/>
-      <c r="K17" s="463"/>
+      <c r="I17" s="482"/>
+      <c r="J17" s="482"/>
+      <c r="K17" s="482"/>
       <c r="M17" t="s">
         <v>1490</v>
       </c>
@@ -22623,9 +22638,9 @@
       <c r="A18" t="s">
         <v>1491</v>
       </c>
-      <c r="I18" s="463"/>
-      <c r="J18" s="463"/>
-      <c r="K18" s="463"/>
+      <c r="I18" s="482"/>
+      <c r="J18" s="482"/>
+      <c r="K18" s="482"/>
       <c r="M18" t="s">
         <v>1492</v>
       </c>
@@ -22634,24 +22649,24 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="463"/>
-      <c r="J19" s="463"/>
-      <c r="K19" s="463"/>
+      <c r="I19" s="482"/>
+      <c r="J19" s="482"/>
+      <c r="K19" s="482"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="I20" s="463"/>
-      <c r="J20" s="463"/>
-      <c r="K20" s="463"/>
+      <c r="I20" s="482"/>
+      <c r="J20" s="482"/>
+      <c r="K20" s="482"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>1493</v>
       </c>
-      <c r="I22" s="463" t="s">
+      <c r="I22" s="482" t="s">
         <v>1494</v>
       </c>
-      <c r="J22" s="463"/>
-      <c r="K22" s="463"/>
+      <c r="J22" s="482"/>
+      <c r="K22" s="482"/>
       <c r="N22" s="34" t="s">
         <v>1495</v>
       </c>
@@ -22663,9 +22678,9 @@
       <c r="A23" t="s">
         <v>1496</v>
       </c>
-      <c r="I23" s="463"/>
-      <c r="J23" s="463"/>
-      <c r="K23" s="463"/>
+      <c r="I23" s="482"/>
+      <c r="J23" s="482"/>
+      <c r="K23" s="482"/>
       <c r="M23">
         <v>0</v>
       </c>
@@ -22677,9 +22692,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="463"/>
-      <c r="J24" s="463"/>
-      <c r="K24" s="463"/>
+      <c r="I24" s="482"/>
+      <c r="J24" s="482"/>
+      <c r="K24" s="482"/>
       <c r="M24">
         <v>1</v>
       </c>
@@ -22691,9 +22706,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="463"/>
-      <c r="J25" s="463"/>
-      <c r="K25" s="463"/>
+      <c r="I25" s="482"/>
+      <c r="J25" s="482"/>
+      <c r="K25" s="482"/>
       <c r="M25">
         <v>2</v>
       </c>
@@ -22705,9 +22720,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="463"/>
-      <c r="J26" s="463"/>
-      <c r="K26" s="463"/>
+      <c r="I26" s="482"/>
+      <c r="J26" s="482"/>
+      <c r="K26" s="482"/>
       <c r="M26">
         <v>3</v>
       </c>
@@ -22716,9 +22731,9 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="I27" s="463"/>
-      <c r="J27" s="463"/>
-      <c r="K27" s="463"/>
+      <c r="I27" s="482"/>
+      <c r="J27" s="482"/>
+      <c r="K27" s="482"/>
       <c r="M27">
         <v>4</v>
       </c>
@@ -23331,12 +23346,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="464" t="s">
+      <c r="B1" s="483" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="464"/>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
       <c r="I1" s="34" t="s">
         <v>441</v>
       </c>
@@ -23511,7 +23526,7 @@
       <c r="B12" t="s">
         <v>1580</v>
       </c>
-      <c r="D12" s="465" t="s">
+      <c r="D12" s="484" t="s">
         <v>1586</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -23523,7 +23538,7 @@
       <c r="B13" t="s">
         <v>1581</v>
       </c>
-      <c r="D13" s="465"/>
+      <c r="D13" s="484"/>
       <c r="J13" t="s">
         <v>451</v>
       </c>
@@ -23532,7 +23547,7 @@
       <c r="B14" t="s">
         <v>1582</v>
       </c>
-      <c r="D14" s="465"/>
+      <c r="D14" s="484"/>
       <c r="I14" t="s">
         <v>127</v>
       </c>
@@ -23541,7 +23556,7 @@
       <c r="B15" s="14" t="s">
         <v>1583</v>
       </c>
-      <c r="D15" s="465"/>
+      <c r="D15" s="484"/>
       <c r="J15" t="s">
         <v>440</v>
       </c>
@@ -23550,7 +23565,7 @@
       <c r="B16" t="s">
         <v>1584</v>
       </c>
-      <c r="D16" s="465"/>
+      <c r="D16" s="484"/>
       <c r="J16" t="s">
         <v>463</v>
       </c>
@@ -23593,7 +23608,7 @@
       <c r="B20" t="s">
         <v>1580</v>
       </c>
-      <c r="D20" s="465" t="s">
+      <c r="D20" s="484" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23601,13 +23616,13 @@
       <c r="B21" t="s">
         <v>1581</v>
       </c>
-      <c r="D21" s="465"/>
+      <c r="D21" s="484"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="D22" s="465"/>
+      <c r="D22" s="484"/>
       <c r="I22" t="s">
         <v>1596</v>
       </c>
@@ -23616,13 +23631,13 @@
       <c r="B23" s="14" t="s">
         <v>1593</v>
       </c>
-      <c r="D23" s="465"/>
+      <c r="D23" s="484"/>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>1594</v>
       </c>
-      <c r="D24" s="465"/>
+      <c r="D24" s="484"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" t="s">
@@ -23730,32 +23745,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="447" t="s">
+      <c r="C2" s="456" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="447"/>
-      <c r="E2" s="447"/>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="447"/>
-      <c r="I2" s="447"/>
-      <c r="J2" s="447"/>
-      <c r="K2" s="447"/>
-      <c r="L2" s="447"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
+      <c r="K2" s="456"/>
+      <c r="L2" s="456"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="401" t="s">
+      <c r="E3" s="426" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="361"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="377"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -23786,11 +23801,11 @@
         <v>476</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="448" t="s">
+      <c r="N5" s="457" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="448"/>
-      <c r="P5" s="448"/>
+      <c r="O5" s="457"/>
+      <c r="P5" s="457"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24035,16 +24050,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="456" t="s">
+      <c r="E17" s="445" t="s">
         <v>461</v>
       </c>
-      <c r="F17" s="457"/>
-      <c r="G17" s="457"/>
-      <c r="H17" s="457"/>
-      <c r="I17" s="457"/>
-      <c r="J17" s="457"/>
-      <c r="K17" s="457"/>
-      <c r="L17" s="458"/>
+      <c r="F17" s="446"/>
+      <c r="G17" s="446"/>
+      <c r="H17" s="446"/>
+      <c r="I17" s="446"/>
+      <c r="J17" s="446"/>
+      <c r="K17" s="446"/>
+      <c r="L17" s="447"/>
       <c r="M17" s="34" t="s">
         <v>462</v>
       </c>
@@ -24062,40 +24077,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="370" t="s">
+      <c r="C19" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="371"/>
-      <c r="E19" s="370" t="s">
+      <c r="D19" s="389"/>
+      <c r="E19" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="371"/>
-      <c r="G19" s="370" t="s">
+      <c r="F19" s="389"/>
+      <c r="G19" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="372"/>
-      <c r="I19" s="372"/>
-      <c r="J19" s="372"/>
-      <c r="K19" s="372"/>
-      <c r="L19" s="371"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="390"/>
+      <c r="L19" s="389"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="466" t="s">
+      <c r="E21" s="485" t="s">
         <v>1255</v>
       </c>
-      <c r="F21" s="467"/>
+      <c r="F21" s="486"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="468"/>
-      <c r="F22" s="469"/>
+      <c r="E22" s="487"/>
+      <c r="F22" s="488"/>
       <c r="J22" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="468"/>
-      <c r="F23" s="469"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="488"/>
       <c r="H23" t="s">
         <v>1267</v>
       </c>
@@ -24107,8 +24122,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="470"/>
-      <c r="F24" s="471"/>
+      <c r="E24" s="489"/>
+      <c r="F24" s="490"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26281,22 +26296,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="458" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426" t="s">
+      <c r="F3" s="458"/>
+      <c r="G3" s="458" t="s">
         <v>409</v>
       </c>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426"/>
-      <c r="L3" s="426"/>
-      <c r="M3" s="426" t="s">
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="426"/>
+      <c r="N3" s="458"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26307,7 +26322,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="123"/>
       <c r="D4" s="124"/>
-      <c r="E4" s="427" t="s">
+      <c r="E4" s="463" t="s">
         <v>411</v>
       </c>
       <c r="F4" s="119"/>
@@ -26335,22 +26350,22 @@
         <v>72</v>
       </c>
       <c r="D5" s="126"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="386" t="s">
+      <c r="E5" s="464"/>
+      <c r="F5" s="404" t="s">
         <v>504</v>
       </c>
-      <c r="G5" s="387"/>
-      <c r="H5" s="388"/>
-      <c r="I5" s="501" t="s">
+      <c r="G5" s="405"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="491" t="s">
         <v>505</v>
       </c>
-      <c r="J5" s="502"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="435"/>
-      <c r="M5" s="501" t="s">
+      <c r="J5" s="492"/>
+      <c r="K5" s="492"/>
+      <c r="L5" s="471"/>
+      <c r="M5" s="491" t="s">
         <v>506</v>
       </c>
-      <c r="N5" s="435"/>
+      <c r="N5" s="471"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26361,16 +26376,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="127"/>
       <c r="D6" s="128"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="389"/>
-      <c r="G6" s="390"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="436"/>
-      <c r="J6" s="503"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="437"/>
-      <c r="M6" s="436"/>
-      <c r="N6" s="437"/>
+      <c r="E6" s="464"/>
+      <c r="F6" s="407"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
+      <c r="I6" s="472"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="473"/>
+      <c r="M6" s="472"/>
+      <c r="N6" s="473"/>
       <c r="O6" s="5"/>
       <c r="P6" s="32" t="s">
         <v>73</v>
@@ -26387,16 +26402,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="389"/>
-      <c r="G7" s="390"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="436"/>
-      <c r="J7" s="503"/>
-      <c r="K7" s="503"/>
-      <c r="L7" s="437"/>
-      <c r="M7" s="436"/>
-      <c r="N7" s="437"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="407"/>
+      <c r="G7" s="408"/>
+      <c r="H7" s="409"/>
+      <c r="I7" s="472"/>
+      <c r="J7" s="369"/>
+      <c r="K7" s="369"/>
+      <c r="L7" s="473"/>
+      <c r="M7" s="472"/>
+      <c r="N7" s="473"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26415,16 +26430,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="428"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="390"/>
-      <c r="H8" s="391"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="503"/>
-      <c r="K8" s="503"/>
-      <c r="L8" s="437"/>
-      <c r="M8" s="436"/>
-      <c r="N8" s="437"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="407"/>
+      <c r="G8" s="408"/>
+      <c r="H8" s="409"/>
+      <c r="I8" s="472"/>
+      <c r="J8" s="369"/>
+      <c r="K8" s="369"/>
+      <c r="L8" s="473"/>
+      <c r="M8" s="472"/>
+      <c r="N8" s="473"/>
       <c r="O8" s="5" t="s">
         <v>78</v>
       </c>
@@ -26445,16 +26460,16 @@
         <v>81</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="428"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="390"/>
-      <c r="H9" s="391"/>
-      <c r="I9" s="436"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="437"/>
-      <c r="M9" s="436"/>
-      <c r="N9" s="437"/>
+      <c r="E9" s="464"/>
+      <c r="F9" s="407"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="409"/>
+      <c r="I9" s="472"/>
+      <c r="J9" s="369"/>
+      <c r="K9" s="369"/>
+      <c r="L9" s="473"/>
+      <c r="M9" s="472"/>
+      <c r="N9" s="473"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26471,16 +26486,16 @@
         <v>427</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="428"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="390"/>
-      <c r="H10" s="391"/>
-      <c r="I10" s="436"/>
-      <c r="J10" s="503"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="437"/>
-      <c r="M10" s="436"/>
-      <c r="N10" s="437"/>
+      <c r="E10" s="464"/>
+      <c r="F10" s="407"/>
+      <c r="G10" s="408"/>
+      <c r="H10" s="409"/>
+      <c r="I10" s="472"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="473"/>
+      <c r="M10" s="472"/>
+      <c r="N10" s="473"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26493,16 +26508,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="428"/>
-      <c r="F11" s="389"/>
-      <c r="G11" s="390"/>
-      <c r="H11" s="391"/>
-      <c r="I11" s="436"/>
-      <c r="J11" s="503"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="437"/>
-      <c r="M11" s="436"/>
-      <c r="N11" s="437"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="407"/>
+      <c r="G11" s="408"/>
+      <c r="H11" s="409"/>
+      <c r="I11" s="472"/>
+      <c r="J11" s="369"/>
+      <c r="K11" s="369"/>
+      <c r="L11" s="473"/>
+      <c r="M11" s="472"/>
+      <c r="N11" s="473"/>
       <c r="O11" s="5"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
@@ -26513,16 +26528,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="428"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="390"/>
-      <c r="H12" s="391"/>
-      <c r="I12" s="436"/>
-      <c r="J12" s="503"/>
-      <c r="K12" s="503"/>
-      <c r="L12" s="437"/>
-      <c r="M12" s="436"/>
-      <c r="N12" s="437"/>
+      <c r="E12" s="464"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="409"/>
+      <c r="I12" s="472"/>
+      <c r="J12" s="369"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="473"/>
+      <c r="M12" s="472"/>
+      <c r="N12" s="473"/>
       <c r="O12" s="5"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -26535,16 +26550,16 @@
         <v>83</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="428"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="390"/>
-      <c r="H13" s="391"/>
-      <c r="I13" s="436"/>
-      <c r="J13" s="503"/>
-      <c r="K13" s="503"/>
-      <c r="L13" s="437"/>
-      <c r="M13" s="436"/>
-      <c r="N13" s="437"/>
+      <c r="E13" s="464"/>
+      <c r="F13" s="407"/>
+      <c r="G13" s="408"/>
+      <c r="H13" s="409"/>
+      <c r="I13" s="472"/>
+      <c r="J13" s="369"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="473"/>
+      <c r="M13" s="472"/>
+      <c r="N13" s="473"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26555,16 +26570,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="428"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="391"/>
-      <c r="I14" s="436"/>
-      <c r="J14" s="503"/>
-      <c r="K14" s="503"/>
-      <c r="L14" s="437"/>
-      <c r="M14" s="436"/>
-      <c r="N14" s="437"/>
+      <c r="E14" s="464"/>
+      <c r="F14" s="407"/>
+      <c r="G14" s="408"/>
+      <c r="H14" s="409"/>
+      <c r="I14" s="472"/>
+      <c r="J14" s="369"/>
+      <c r="K14" s="369"/>
+      <c r="L14" s="473"/>
+      <c r="M14" s="472"/>
+      <c r="N14" s="473"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26575,16 +26590,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="428"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="390"/>
-      <c r="H15" s="391"/>
-      <c r="I15" s="436"/>
-      <c r="J15" s="503"/>
-      <c r="K15" s="503"/>
-      <c r="L15" s="437"/>
-      <c r="M15" s="436"/>
-      <c r="N15" s="437"/>
+      <c r="E15" s="464"/>
+      <c r="F15" s="407"/>
+      <c r="G15" s="408"/>
+      <c r="H15" s="409"/>
+      <c r="I15" s="472"/>
+      <c r="J15" s="369"/>
+      <c r="K15" s="369"/>
+      <c r="L15" s="473"/>
+      <c r="M15" s="472"/>
+      <c r="N15" s="473"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26595,16 +26610,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="428"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="390"/>
-      <c r="H16" s="391"/>
-      <c r="I16" s="436"/>
-      <c r="J16" s="503"/>
-      <c r="K16" s="503"/>
-      <c r="L16" s="437"/>
-      <c r="M16" s="436"/>
-      <c r="N16" s="437"/>
+      <c r="E16" s="464"/>
+      <c r="F16" s="407"/>
+      <c r="G16" s="408"/>
+      <c r="H16" s="409"/>
+      <c r="I16" s="472"/>
+      <c r="J16" s="369"/>
+      <c r="K16" s="369"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="472"/>
+      <c r="N16" s="473"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26617,16 +26632,16 @@
         <v>84</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="391"/>
-      <c r="I17" s="436"/>
-      <c r="J17" s="503"/>
-      <c r="K17" s="503"/>
-      <c r="L17" s="437"/>
-      <c r="M17" s="436"/>
-      <c r="N17" s="437"/>
+      <c r="E17" s="464"/>
+      <c r="F17" s="407"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="472"/>
+      <c r="J17" s="369"/>
+      <c r="K17" s="369"/>
+      <c r="L17" s="473"/>
+      <c r="M17" s="472"/>
+      <c r="N17" s="473"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26637,16 +26652,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="429"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="393"/>
-      <c r="H18" s="394"/>
-      <c r="I18" s="438"/>
-      <c r="J18" s="504"/>
-      <c r="K18" s="504"/>
-      <c r="L18" s="439"/>
-      <c r="M18" s="438"/>
-      <c r="N18" s="439"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="410"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="412"/>
+      <c r="I18" s="474"/>
+      <c r="J18" s="493"/>
+      <c r="K18" s="493"/>
+      <c r="L18" s="475"/>
+      <c r="M18" s="474"/>
+      <c r="N18" s="475"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26675,26 +26690,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="370" t="s">
+      <c r="C20" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="371"/>
+      <c r="D20" s="389"/>
       <c r="E20" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="370" t="s">
+      <c r="F20" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="372"/>
-      <c r="H20" s="372"/>
-      <c r="I20" s="372"/>
-      <c r="J20" s="372"/>
-      <c r="K20" s="372"/>
-      <c r="L20" s="371"/>
-      <c r="M20" s="370" t="s">
+      <c r="G20" s="390"/>
+      <c r="H20" s="390"/>
+      <c r="I20" s="390"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="389"/>
+      <c r="M20" s="388" t="s">
         <v>418</v>
       </c>
-      <c r="N20" s="371"/>
+      <c r="N20" s="389"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26722,39 +26737,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="448" t="s">
+      <c r="B24" s="457" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="448"/>
-      <c r="D24" s="447"/>
-      <c r="E24" s="447"/>
-      <c r="F24" s="447"/>
-      <c r="G24" s="447"/>
-      <c r="H24" s="447"/>
-      <c r="I24" s="447"/>
-      <c r="J24" s="447"/>
-      <c r="K24" s="447"/>
-      <c r="M24" s="472" t="s">
+      <c r="C24" s="457"/>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
+      <c r="G24" s="456"/>
+      <c r="H24" s="456"/>
+      <c r="I24" s="456"/>
+      <c r="J24" s="456"/>
+      <c r="K24" s="456"/>
+      <c r="M24" s="511" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="472"/>
-      <c r="O24" s="472"/>
+      <c r="N24" s="511"/>
+      <c r="O24" s="511"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="473" t="s">
+      <c r="B25" s="512" t="s">
         <v>784</v>
       </c>
-      <c r="C25" s="414"/>
-      <c r="D25" s="360" t="s">
+      <c r="C25" s="434"/>
+      <c r="D25" s="376" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="360"/>
-      <c r="F25" s="360"/>
-      <c r="G25" s="360"/>
-      <c r="H25" s="360"/>
-      <c r="I25" s="360"/>
-      <c r="J25" s="360"/>
-      <c r="K25" s="361"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="376"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="376"/>
+      <c r="I25" s="376"/>
+      <c r="J25" s="376"/>
+      <c r="K25" s="377"/>
       <c r="M25" s="32" t="s">
         <v>73</v>
       </c>
@@ -26766,22 +26781,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="415"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="413" t="s">
+      <c r="B26" s="435"/>
+      <c r="C26" s="436"/>
+      <c r="D26" s="433" t="s">
         <v>777</v>
       </c>
-      <c r="E26" s="414"/>
-      <c r="F26" s="499" t="s">
+      <c r="E26" s="434"/>
+      <c r="F26" s="506" t="s">
         <v>777</v>
       </c>
-      <c r="G26" s="360"/>
-      <c r="H26" s="361"/>
-      <c r="I26" s="359" t="s">
+      <c r="G26" s="376"/>
+      <c r="H26" s="377"/>
+      <c r="I26" s="375" t="s">
         <v>781</v>
       </c>
-      <c r="J26" s="360"/>
-      <c r="K26" s="361"/>
+      <c r="J26" s="376"/>
+      <c r="K26" s="377"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26796,22 +26811,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="415"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="411" t="s">
+      <c r="B27" s="435"/>
+      <c r="C27" s="436"/>
+      <c r="D27" s="425" t="s">
         <v>782</v>
       </c>
-      <c r="E27" s="416"/>
-      <c r="F27" s="415" t="s">
+      <c r="E27" s="436"/>
+      <c r="F27" s="435" t="s">
         <v>778</v>
       </c>
-      <c r="G27" s="411"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="483" t="s">
+      <c r="G27" s="425"/>
+      <c r="H27" s="507"/>
+      <c r="I27" s="510" t="s">
         <v>782</v>
       </c>
-      <c r="J27" s="411"/>
-      <c r="K27" s="353"/>
+      <c r="J27" s="425"/>
+      <c r="K27" s="507"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26826,22 +26841,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="415"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="411" t="s">
+      <c r="B28" s="435"/>
+      <c r="C28" s="436"/>
+      <c r="D28" s="425" t="s">
         <v>779</v>
       </c>
-      <c r="E28" s="416"/>
-      <c r="F28" s="415" t="s">
+      <c r="E28" s="436"/>
+      <c r="F28" s="435" t="s">
         <v>779</v>
       </c>
-      <c r="G28" s="411"/>
-      <c r="H28" s="353"/>
-      <c r="I28" s="483" t="s">
+      <c r="G28" s="425"/>
+      <c r="H28" s="507"/>
+      <c r="I28" s="510" t="s">
         <v>779</v>
       </c>
-      <c r="J28" s="411"/>
-      <c r="K28" s="353"/>
+      <c r="J28" s="425"/>
+      <c r="K28" s="507"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26850,22 +26865,22 @@
       <c r="O28" s="32"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="417"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="411" t="s">
+      <c r="B29" s="437"/>
+      <c r="C29" s="438"/>
+      <c r="D29" s="425" t="s">
         <v>780</v>
       </c>
-      <c r="E29" s="416"/>
-      <c r="F29" s="500" t="s">
+      <c r="E29" s="436"/>
+      <c r="F29" s="508" t="s">
         <v>780</v>
       </c>
-      <c r="G29" s="485"/>
-      <c r="H29" s="486"/>
-      <c r="I29" s="484" t="s">
+      <c r="G29" s="371"/>
+      <c r="H29" s="509"/>
+      <c r="I29" s="522" t="s">
         <v>780</v>
       </c>
-      <c r="J29" s="485"/>
-      <c r="K29" s="486"/>
+      <c r="J29" s="371"/>
+      <c r="K29" s="509"/>
       <c r="L29" s="22" t="s">
         <v>2</v>
       </c>
@@ -26874,149 +26889,149 @@
       <c r="O29" s="32"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="362" t="s">
+      <c r="B30" s="378" t="s">
         <v>783</v>
       </c>
-      <c r="C30" s="364"/>
-      <c r="D30" s="487" t="s">
+      <c r="C30" s="380"/>
+      <c r="D30" s="494" t="s">
         <v>458</v>
       </c>
-      <c r="E30" s="488"/>
-      <c r="F30" s="492" t="s">
+      <c r="E30" s="495"/>
+      <c r="F30" s="499" t="s">
         <v>459</v>
       </c>
-      <c r="G30" s="493"/>
-      <c r="H30" s="488"/>
-      <c r="I30" s="492" t="s">
+      <c r="G30" s="500"/>
+      <c r="H30" s="495"/>
+      <c r="I30" s="499" t="s">
         <v>460</v>
       </c>
-      <c r="J30" s="493"/>
-      <c r="K30" s="496"/>
+      <c r="J30" s="500"/>
+      <c r="K30" s="503"/>
       <c r="L30" s="5"/>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="354"/>
-      <c r="C31" s="366"/>
-      <c r="D31" s="489"/>
+      <c r="B31" s="382"/>
+      <c r="C31" s="383"/>
+      <c r="D31" s="496"/>
       <c r="E31" s="454"/>
       <c r="F31" s="452"/>
       <c r="G31" s="453"/>
       <c r="H31" s="454"/>
       <c r="I31" s="452"/>
       <c r="J31" s="453"/>
-      <c r="K31" s="497"/>
+      <c r="K31" s="504"/>
       <c r="L31" s="5"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="354"/>
-      <c r="C32" s="366"/>
-      <c r="D32" s="489"/>
+      <c r="B32" s="382"/>
+      <c r="C32" s="383"/>
+      <c r="D32" s="496"/>
       <c r="E32" s="454"/>
       <c r="F32" s="452"/>
       <c r="G32" s="453"/>
       <c r="H32" s="454"/>
       <c r="I32" s="452"/>
       <c r="J32" s="453"/>
-      <c r="K32" s="497"/>
+      <c r="K32" s="504"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="354"/>
-      <c r="C33" s="366"/>
-      <c r="D33" s="490"/>
-      <c r="E33" s="491"/>
-      <c r="F33" s="494"/>
-      <c r="G33" s="495"/>
-      <c r="H33" s="491"/>
-      <c r="I33" s="494"/>
-      <c r="J33" s="495"/>
-      <c r="K33" s="498"/>
+      <c r="B33" s="382"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="497"/>
+      <c r="E33" s="498"/>
+      <c r="F33" s="501"/>
+      <c r="G33" s="502"/>
+      <c r="H33" s="498"/>
+      <c r="I33" s="501"/>
+      <c r="J33" s="502"/>
+      <c r="K33" s="505"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="354"/>
-      <c r="C34" s="355"/>
-      <c r="D34" s="474" t="s">
+      <c r="B34" s="382"/>
+      <c r="C34" s="384"/>
+      <c r="D34" s="513" t="s">
         <v>770</v>
       </c>
-      <c r="E34" s="475"/>
-      <c r="F34" s="474" t="s">
+      <c r="E34" s="514"/>
+      <c r="F34" s="513" t="s">
         <v>480</v>
       </c>
-      <c r="G34" s="480"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="474" t="s">
+      <c r="G34" s="519"/>
+      <c r="H34" s="514"/>
+      <c r="I34" s="513" t="s">
         <v>785</v>
       </c>
-      <c r="J34" s="480"/>
-      <c r="K34" s="475"/>
+      <c r="J34" s="519"/>
+      <c r="K34" s="514"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="354"/>
-      <c r="C35" s="355"/>
-      <c r="D35" s="476"/>
-      <c r="E35" s="477"/>
-      <c r="F35" s="476"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="477"/>
-      <c r="I35" s="476"/>
-      <c r="J35" s="481"/>
-      <c r="K35" s="477"/>
+      <c r="B35" s="382"/>
+      <c r="C35" s="384"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="516"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="520"/>
+      <c r="H35" s="516"/>
+      <c r="I35" s="515"/>
+      <c r="J35" s="520"/>
+      <c r="K35" s="516"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="354"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="476"/>
-      <c r="E36" s="477"/>
-      <c r="F36" s="476"/>
-      <c r="G36" s="481"/>
-      <c r="H36" s="477"/>
-      <c r="I36" s="476"/>
-      <c r="J36" s="481"/>
-      <c r="K36" s="477"/>
+      <c r="B36" s="382"/>
+      <c r="C36" s="384"/>
+      <c r="D36" s="515"/>
+      <c r="E36" s="516"/>
+      <c r="F36" s="515"/>
+      <c r="G36" s="520"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="515"/>
+      <c r="J36" s="520"/>
+      <c r="K36" s="516"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="354"/>
-      <c r="C37" s="355"/>
-      <c r="D37" s="476"/>
-      <c r="E37" s="477"/>
-      <c r="F37" s="476"/>
-      <c r="G37" s="481"/>
-      <c r="H37" s="477"/>
-      <c r="I37" s="476"/>
-      <c r="J37" s="481"/>
-      <c r="K37" s="477"/>
+      <c r="B37" s="382"/>
+      <c r="C37" s="384"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="516"/>
+      <c r="F37" s="515"/>
+      <c r="G37" s="520"/>
+      <c r="H37" s="516"/>
+      <c r="I37" s="515"/>
+      <c r="J37" s="520"/>
+      <c r="K37" s="516"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="354"/>
-      <c r="C38" s="355"/>
-      <c r="D38" s="478"/>
-      <c r="E38" s="479"/>
-      <c r="F38" s="478"/>
-      <c r="G38" s="482"/>
-      <c r="H38" s="479"/>
-      <c r="I38" s="478"/>
-      <c r="J38" s="482"/>
-      <c r="K38" s="479"/>
+      <c r="B38" s="382"/>
+      <c r="C38" s="384"/>
+      <c r="D38" s="517"/>
+      <c r="E38" s="518"/>
+      <c r="F38" s="517"/>
+      <c r="G38" s="521"/>
+      <c r="H38" s="518"/>
+      <c r="I38" s="517"/>
+      <c r="J38" s="521"/>
+      <c r="K38" s="518"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="367"/>
-      <c r="C39" s="369"/>
-      <c r="D39" s="456" t="s">
+      <c r="B39" s="385"/>
+      <c r="C39" s="387"/>
+      <c r="D39" s="445" t="s">
         <v>461</v>
       </c>
-      <c r="E39" s="457"/>
-      <c r="F39" s="457"/>
-      <c r="G39" s="457"/>
-      <c r="H39" s="457"/>
-      <c r="I39" s="457"/>
-      <c r="J39" s="457"/>
-      <c r="K39" s="458"/>
+      <c r="E39" s="446"/>
+      <c r="F39" s="446"/>
+      <c r="G39" s="446"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="446"/>
+      <c r="J39" s="446"/>
+      <c r="K39" s="447"/>
       <c r="L39" s="34" t="s">
         <v>462</v>
       </c>
@@ -27034,35 +27049,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="370" t="s">
+      <c r="B41" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="371"/>
-      <c r="D41" s="370" t="s">
+      <c r="C41" s="389"/>
+      <c r="D41" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="371"/>
-      <c r="F41" s="370" t="s">
+      <c r="E41" s="389"/>
+      <c r="F41" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="372"/>
-      <c r="H41" s="372"/>
-      <c r="I41" s="372"/>
-      <c r="J41" s="372"/>
-      <c r="K41" s="371"/>
+      <c r="G41" s="390"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="390"/>
+      <c r="J41" s="390"/>
+      <c r="K41" s="389"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -27079,17 +27095,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27632,13 +27647,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="350" t="s">
+      <c r="A5" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="352"/>
+      <c r="B5" s="367"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="368"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>46</v>
@@ -28363,8 +28378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28374,299 +28389,428 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C2" s="505">
+      <c r="C2" s="350">
         <v>0.1</v>
       </c>
-      <c r="D2" s="505">
+      <c r="D2" s="350">
         <v>0.2</v>
       </c>
-      <c r="E2" s="505">
+      <c r="E2" s="350">
         <v>0.3</v>
       </c>
-      <c r="F2" s="505">
+      <c r="F2" s="350">
         <v>0.4</v>
       </c>
-      <c r="G2" s="505">
+      <c r="G2" s="350">
         <v>0.5</v>
       </c>
-      <c r="H2" s="505">
+      <c r="H2" s="350">
         <v>0.6</v>
       </c>
-      <c r="I2" s="505">
+      <c r="I2" s="350">
         <v>0.7</v>
       </c>
-      <c r="J2" s="505">
+      <c r="J2" s="350">
         <v>0.8</v>
       </c>
-      <c r="K2" s="505">
+      <c r="K2" s="350">
         <v>0.9</v>
       </c>
-      <c r="L2" s="505">
+      <c r="L2" s="350">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="369" t="s">
         <v>1706</v>
       </c>
-      <c r="B3" s="505">
+      <c r="B3" s="350">
         <v>0.1</v>
       </c>
-      <c r="C3" s="508"/>
-      <c r="D3" s="509"/>
-      <c r="E3" s="509"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="509"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="509"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="353"/>
       <c r="M3" s="22" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="503"/>
-      <c r="B4" s="505">
+      <c r="A4" s="369"/>
+      <c r="B4" s="350">
         <v>0.2</v>
       </c>
-      <c r="C4" s="514"/>
-      <c r="D4" s="517"/>
-      <c r="E4" s="517"/>
-      <c r="F4" s="517"/>
-      <c r="G4" s="517"/>
-      <c r="H4" s="517"/>
-      <c r="I4" s="517"/>
-      <c r="J4" s="517"/>
-      <c r="K4" s="517"/>
-      <c r="L4" s="520"/>
-      <c r="M4" s="503" t="s">
+      <c r="C4" s="357"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="360"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="360"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="369" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="503"/>
-      <c r="B5" s="505">
+      <c r="A5" s="369"/>
+      <c r="B5" s="350">
         <v>0.3</v>
       </c>
-      <c r="C5" s="515"/>
-      <c r="D5" s="518"/>
-      <c r="E5" s="518"/>
-      <c r="F5" s="518"/>
-      <c r="G5" s="518"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="518"/>
-      <c r="J5" s="518"/>
-      <c r="K5" s="518"/>
-      <c r="L5" s="521"/>
-      <c r="M5" s="503"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
+      <c r="G5" s="361"/>
+      <c r="H5" s="361"/>
+      <c r="I5" s="361"/>
+      <c r="J5" s="361"/>
+      <c r="K5" s="361"/>
+      <c r="L5" s="364"/>
+      <c r="M5" s="369"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="503"/>
-      <c r="B6" s="505">
+      <c r="A6" s="369"/>
+      <c r="B6" s="350">
         <v>0.4</v>
       </c>
-      <c r="C6" s="515" t="s">
+      <c r="C6" s="358" t="s">
         <v>1707</v>
       </c>
-      <c r="D6" s="518"/>
-      <c r="E6" s="518"/>
-      <c r="F6" s="518" t="s">
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361" t="s">
         <v>788</v>
       </c>
-      <c r="G6" s="518"/>
-      <c r="H6" s="518"/>
-      <c r="I6" s="518"/>
-      <c r="J6" s="518"/>
-      <c r="K6" s="518"/>
-      <c r="L6" s="521"/>
-      <c r="M6" s="503"/>
+      <c r="G6" s="361"/>
+      <c r="H6" s="361"/>
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="369"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="503"/>
-      <c r="B7" s="505">
+      <c r="A7" s="369"/>
+      <c r="B7" s="350">
         <v>0.5</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="518"/>
-      <c r="E7" s="518"/>
-      <c r="F7" s="518"/>
-      <c r="G7" s="518"/>
-      <c r="H7" s="518"/>
-      <c r="I7" s="518"/>
-      <c r="J7" s="518"/>
-      <c r="K7" s="518"/>
-      <c r="L7" s="521"/>
-      <c r="M7" s="503"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="361"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="I7" s="361"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="364"/>
+      <c r="M7" s="369"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="503"/>
-      <c r="B8" s="505">
+      <c r="A8" s="369"/>
+      <c r="B8" s="350">
         <v>0.6</v>
       </c>
-      <c r="C8" s="515"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="518"/>
-      <c r="F8" s="518"/>
-      <c r="G8" s="518"/>
-      <c r="H8" s="518"/>
-      <c r="I8" s="518"/>
-      <c r="J8" s="518"/>
-      <c r="K8" s="518"/>
-      <c r="L8" s="521"/>
-      <c r="M8" s="503"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="361"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="361"/>
+      <c r="L8" s="364"/>
+      <c r="M8" s="369"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="503"/>
-      <c r="B9" s="505">
+      <c r="A9" s="369"/>
+      <c r="B9" s="350">
         <v>0.7</v>
       </c>
-      <c r="C9" s="515"/>
-      <c r="D9" s="518"/>
-      <c r="E9" s="518"/>
-      <c r="F9" s="518"/>
-      <c r="G9" s="518"/>
-      <c r="H9" s="518"/>
-      <c r="I9" s="518"/>
-      <c r="J9" s="518"/>
-      <c r="K9" s="518"/>
-      <c r="L9" s="521"/>
-      <c r="M9" s="503"/>
+      <c r="C9" s="358"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="361"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="361"/>
+      <c r="J9" s="361"/>
+      <c r="K9" s="361"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="369"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="503"/>
-      <c r="B10" s="505">
+      <c r="A10" s="369"/>
+      <c r="B10" s="350">
         <v>0.8</v>
       </c>
-      <c r="C10" s="515"/>
-      <c r="D10" s="518"/>
-      <c r="E10" s="518"/>
-      <c r="F10" s="518"/>
-      <c r="G10" s="518"/>
-      <c r="H10" s="518"/>
-      <c r="I10" s="518"/>
-      <c r="J10" s="518"/>
-      <c r="K10" s="518"/>
-      <c r="L10" s="521"/>
-      <c r="M10" s="503"/>
+      <c r="C10" s="358"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="361"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="361"/>
+      <c r="L10" s="364"/>
+      <c r="M10" s="369"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="503"/>
-      <c r="B11" s="505">
+      <c r="A11" s="369"/>
+      <c r="B11" s="350">
         <v>0.9</v>
       </c>
-      <c r="C11" s="516"/>
-      <c r="D11" s="519"/>
-      <c r="E11" s="519"/>
-      <c r="F11" s="519"/>
-      <c r="G11" s="519"/>
-      <c r="H11" s="519"/>
-      <c r="I11" s="519"/>
-      <c r="J11" s="519"/>
-      <c r="K11" s="519"/>
-      <c r="L11" s="522"/>
-      <c r="M11" s="503"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="362"/>
+      <c r="E11" s="362"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="365"/>
+      <c r="M11" s="369"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A12" s="503"/>
-      <c r="B12" s="505">
+      <c r="A12" s="369"/>
+      <c r="B12" s="350">
         <v>1</v>
       </c>
-      <c r="C12" s="511"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
-      <c r="K12" s="512"/>
-      <c r="L12" s="513"/>
+      <c r="C12" s="354"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="355"/>
+      <c r="F12" s="355"/>
+      <c r="G12" s="355"/>
+      <c r="H12" s="355"/>
+      <c r="I12" s="355"/>
+      <c r="J12" s="355"/>
+      <c r="K12" s="355"/>
+      <c r="L12" s="356"/>
       <c r="M12" s="22" t="s">
         <v>787</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="22" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D16" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C17" s="22" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E17" s="274"/>
+      <c r="I17" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C18" s="22" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="274"/>
+      <c r="I18" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C19" s="22" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E19" s="274" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="H20" s="22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="I21" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="I22" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="H23" s="22" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="H24" s="22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="I25" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="I26" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="H27" s="22" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="G28" s="22" t="s">
+        <v>985</v>
+      </c>
+    </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="503"/>
+      <c r="B153" s="369"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="503"/>
+      <c r="B154" s="369"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="503"/>
+      <c r="B155" s="369"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="503"/>
+      <c r="B156" s="369"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="503"/>
+      <c r="B157" s="369"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="503"/>
+      <c r="B158" s="369"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="503"/>
+      <c r="B159" s="369"/>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="503"/>
+      <c r="B160" s="369"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="503"/>
+      <c r="B161" s="369"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="C166" s="506"/>
+      <c r="C166" s="372"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="C167" s="503"/>
+      <c r="C167" s="369"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="C168" s="503"/>
+      <c r="C168" s="369"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="C169" s="503"/>
+      <c r="C169" s="369"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="C170" s="503"/>
+      <c r="C170" s="369"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="C171" s="503"/>
+      <c r="C171" s="369"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="C172" s="503"/>
+      <c r="C172" s="369"/>
     </row>
     <row r="201" spans="13:13">
-      <c r="M201" s="503"/>
+      <c r="M201" s="369"/>
     </row>
     <row r="202" spans="13:13">
-      <c r="M202" s="503"/>
+      <c r="M202" s="369"/>
     </row>
     <row r="203" spans="13:13">
-      <c r="M203" s="503"/>
+      <c r="M203" s="369"/>
     </row>
     <row r="204" spans="13:13">
-      <c r="M204" s="503"/>
+      <c r="M204" s="369"/>
     </row>
     <row r="205" spans="13:13">
-      <c r="M205" s="503"/>
+      <c r="M205" s="369"/>
     </row>
     <row r="206" spans="13:13">
-      <c r="M206" s="503"/>
+      <c r="M206" s="369"/>
     </row>
     <row r="207" spans="13:13">
-      <c r="M207" s="503"/>
+      <c r="M207" s="369"/>
     </row>
     <row r="208" spans="13:13">
-      <c r="M208" s="503"/>
+      <c r="M208" s="369"/>
     </row>
     <row r="209" spans="2:13">
-      <c r="M209" s="503"/>
+      <c r="M209" s="369"/>
     </row>
     <row r="218" spans="2:13">
-      <c r="B218" s="507"/>
+      <c r="B218" s="370"/>
     </row>
     <row r="219" spans="2:13">
-      <c r="B219" s="485"/>
+      <c r="B219" s="371"/>
     </row>
     <row r="230" spans="3:12">
       <c r="C230" s="335"/>
@@ -28825,14 +28969,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="359" t="s">
+      <c r="K4" s="375" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="360"/>
-      <c r="M4" s="360"/>
-      <c r="N4" s="360"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="361"/>
+      <c r="L4" s="376"/>
+      <c r="M4" s="376"/>
+      <c r="N4" s="376"/>
+      <c r="O4" s="376"/>
+      <c r="P4" s="377"/>
       <c r="Q4" s="103" t="s">
         <v>172</v>
       </c>
@@ -28961,10 +29105,10 @@
       <c r="L8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="373" t="s">
+      <c r="M8" s="391" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="374"/>
+      <c r="N8" s="392"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -29006,8 +29150,8 @@
       <c r="L9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="392"/>
       <c r="O9" s="5" t="s">
         <v>78</v>
       </c>
@@ -29043,8 +29187,8 @@
       <c r="L10" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="M10" s="374"/>
-      <c r="N10" s="374"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="392"/>
       <c r="O10" s="5"/>
       <c r="P10" s="201" t="s">
         <v>289</v>
@@ -29058,13 +29202,13 @@
       <c r="T10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="362" t="s">
+      <c r="A11" s="378" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="363"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="364"/>
-      <c r="E11" s="365"/>
+      <c r="B11" s="379"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="380"/>
+      <c r="E11" s="381"/>
       <c r="F11" t="s">
         <v>1343</v>
       </c>
@@ -29073,8 +29217,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
+      <c r="M11" s="392"/>
+      <c r="N11" s="392"/>
       <c r="O11" s="5"/>
       <c r="P11" s="201" t="s">
         <v>290</v>
@@ -29085,11 +29229,11 @@
       <c r="T11" s="32"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="354"/>
-      <c r="B12" s="366"/>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="355"/>
+      <c r="A12" s="382"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="384"/>
       <c r="F12" t="s">
         <v>807</v>
       </c>
@@ -29098,8 +29242,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
+      <c r="M12" s="392"/>
+      <c r="N12" s="392"/>
       <c r="O12" s="5"/>
       <c r="P12" s="201" t="s">
         <v>1167</v>
@@ -29109,11 +29253,11 @@
       <c r="T12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="354"/>
-      <c r="B13" s="366"/>
-      <c r="C13" s="366"/>
-      <c r="D13" s="366"/>
-      <c r="E13" s="355"/>
+      <c r="A13" s="382"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="384"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>83</v>
@@ -29121,8 +29265,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
+      <c r="M13" s="392"/>
+      <c r="N13" s="392"/>
       <c r="O13" s="24"/>
       <c r="P13" s="202"/>
       <c r="Q13">
@@ -29133,11 +29277,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="367"/>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="369"/>
+      <c r="A14" s="385"/>
+      <c r="B14" s="386"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="387"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -29275,20 +29419,20 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="370" t="s">
+      <c r="I20" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="371"/>
-      <c r="K20" s="370" t="s">
+      <c r="J20" s="389"/>
+      <c r="K20" s="388" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="371"/>
-      <c r="M20" s="370" t="s">
+      <c r="L20" s="389"/>
+      <c r="M20" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="372"/>
-      <c r="O20" s="372"/>
-      <c r="P20" s="371"/>
+      <c r="N20" s="390"/>
+      <c r="O20" s="390"/>
+      <c r="P20" s="389"/>
       <c r="S20" t="s">
         <v>172</v>
       </c>
@@ -30165,33 +30309,33 @@
         <v>1330</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="375" t="s">
+      <c r="I124" s="393" t="s">
         <v>548</v>
       </c>
-      <c r="J124" s="376" t="s">
+      <c r="J124" s="394" t="s">
         <v>72</v>
       </c>
-      <c r="K124" s="376"/>
-      <c r="L124" s="376"/>
-      <c r="M124" s="376"/>
+      <c r="K124" s="394"/>
+      <c r="L124" s="394"/>
+      <c r="M124" s="394"/>
       <c r="N124" s="6"/>
     </row>
     <row r="125" spans="1:14">
       <c r="H125" s="4"/>
-      <c r="I125" s="354"/>
-      <c r="J125" s="376"/>
-      <c r="K125" s="376"/>
-      <c r="L125" s="376"/>
-      <c r="M125" s="376"/>
+      <c r="I125" s="382"/>
+      <c r="J125" s="394"/>
+      <c r="K125" s="394"/>
+      <c r="L125" s="394"/>
+      <c r="M125" s="394"/>
       <c r="N125" s="6"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" thickBot="1">
       <c r="H126" s="4"/>
-      <c r="I126" s="354"/>
-      <c r="J126" s="376"/>
-      <c r="K126" s="376"/>
-      <c r="L126" s="376"/>
-      <c r="M126" s="376"/>
+      <c r="I126" s="382"/>
+      <c r="J126" s="394"/>
+      <c r="K126" s="394"/>
+      <c r="L126" s="394"/>
+      <c r="M126" s="394"/>
       <c r="N126" s="6"/>
     </row>
     <row r="127" spans="1:14">
@@ -30201,13 +30345,13 @@
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="354"/>
-      <c r="J127" s="376" t="s">
+      <c r="I127" s="382"/>
+      <c r="J127" s="394" t="s">
         <v>1331</v>
       </c>
-      <c r="K127" s="376"/>
-      <c r="L127" s="376"/>
-      <c r="M127" s="376"/>
+      <c r="K127" s="394"/>
+      <c r="L127" s="394"/>
+      <c r="M127" s="394"/>
       <c r="N127" s="6"/>
     </row>
     <row r="128" spans="1:14">
@@ -30219,11 +30363,11 @@
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="354"/>
-      <c r="J128" s="376"/>
-      <c r="K128" s="376"/>
-      <c r="L128" s="376"/>
-      <c r="M128" s="376"/>
+      <c r="I128" s="382"/>
+      <c r="J128" s="394"/>
+      <c r="K128" s="394"/>
+      <c r="L128" s="394"/>
+      <c r="M128" s="394"/>
       <c r="N128" s="6"/>
     </row>
     <row r="129" spans="1:14">
@@ -30236,11 +30380,11 @@
         <v>61</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="354"/>
-      <c r="J129" s="376"/>
-      <c r="K129" s="376"/>
-      <c r="L129" s="376"/>
-      <c r="M129" s="376"/>
+      <c r="I129" s="382"/>
+      <c r="J129" s="394"/>
+      <c r="K129" s="394"/>
+      <c r="L129" s="394"/>
+      <c r="M129" s="394"/>
       <c r="N129" s="6"/>
     </row>
     <row r="130" spans="1:14">
@@ -30259,13 +30403,13 @@
       <c r="H130" s="29">
         <v>80</v>
       </c>
-      <c r="I130" s="354"/>
-      <c r="J130" s="376" t="s">
+      <c r="I130" s="382"/>
+      <c r="J130" s="394" t="s">
         <v>1332</v>
       </c>
-      <c r="K130" s="376"/>
-      <c r="L130" s="376"/>
-      <c r="M130" s="376"/>
+      <c r="K130" s="394"/>
+      <c r="L130" s="394"/>
+      <c r="M130" s="394"/>
       <c r="N130" s="6"/>
     </row>
     <row r="131" spans="1:14">
@@ -30282,11 +30426,11 @@
         <v>1334</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="354"/>
-      <c r="J131" s="376"/>
-      <c r="K131" s="376"/>
-      <c r="L131" s="376"/>
-      <c r="M131" s="376"/>
+      <c r="I131" s="382"/>
+      <c r="J131" s="394"/>
+      <c r="K131" s="394"/>
+      <c r="L131" s="394"/>
+      <c r="M131" s="394"/>
       <c r="N131" s="6"/>
     </row>
     <row r="132" spans="1:14">
@@ -30304,11 +30448,11 @@
         <v>404</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="354"/>
-      <c r="J132" s="376"/>
-      <c r="K132" s="376"/>
-      <c r="L132" s="376"/>
-      <c r="M132" s="376"/>
+      <c r="I132" s="382"/>
+      <c r="J132" s="394"/>
+      <c r="K132" s="394"/>
+      <c r="L132" s="394"/>
+      <c r="M132" s="394"/>
       <c r="N132" s="6"/>
     </row>
     <row r="133" spans="1:14">
@@ -30321,13 +30465,13 @@
         <v>1347</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="354"/>
-      <c r="J133" s="377" t="s">
+      <c r="I133" s="382"/>
+      <c r="J133" s="395" t="s">
         <v>1333</v>
       </c>
-      <c r="K133" s="378"/>
-      <c r="L133" s="378"/>
-      <c r="M133" s="379"/>
+      <c r="K133" s="396"/>
+      <c r="L133" s="396"/>
+      <c r="M133" s="397"/>
       <c r="N133" s="6"/>
     </row>
     <row r="134" spans="1:14">
@@ -30342,11 +30486,11 @@
         <v>1296</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="354"/>
-      <c r="J134" s="380"/>
-      <c r="K134" s="381"/>
-      <c r="L134" s="381"/>
-      <c r="M134" s="382"/>
+      <c r="I134" s="382"/>
+      <c r="J134" s="398"/>
+      <c r="K134" s="399"/>
+      <c r="L134" s="399"/>
+      <c r="M134" s="400"/>
       <c r="N134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" thickBot="1">
@@ -30358,29 +30502,29 @@
       <c r="D135" s="10"/>
       <c r="E135" s="9"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="354"/>
-      <c r="J135" s="380"/>
-      <c r="K135" s="381"/>
-      <c r="L135" s="381"/>
-      <c r="M135" s="382"/>
+      <c r="I135" s="382"/>
+      <c r="J135" s="398"/>
+      <c r="K135" s="399"/>
+      <c r="L135" s="399"/>
+      <c r="M135" s="400"/>
       <c r="N135" s="6"/>
     </row>
     <row r="136" spans="1:14">
       <c r="H136" s="4"/>
-      <c r="I136" s="354"/>
-      <c r="J136" s="380"/>
-      <c r="K136" s="381"/>
-      <c r="L136" s="381"/>
-      <c r="M136" s="382"/>
+      <c r="I136" s="382"/>
+      <c r="J136" s="398"/>
+      <c r="K136" s="399"/>
+      <c r="L136" s="399"/>
+      <c r="M136" s="400"/>
       <c r="N136" s="6"/>
     </row>
     <row r="137" spans="1:14">
       <c r="H137" s="4"/>
-      <c r="I137" s="354"/>
-      <c r="J137" s="380"/>
-      <c r="K137" s="381"/>
-      <c r="L137" s="381"/>
-      <c r="M137" s="382"/>
+      <c r="I137" s="382"/>
+      <c r="J137" s="398"/>
+      <c r="K137" s="399"/>
+      <c r="L137" s="399"/>
+      <c r="M137" s="400"/>
       <c r="N137" s="6"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" thickBot="1">
@@ -30388,11 +30532,11 @@
         <v>1344</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="367"/>
-      <c r="J138" s="383"/>
-      <c r="K138" s="384"/>
-      <c r="L138" s="384"/>
-      <c r="M138" s="385"/>
+      <c r="I138" s="385"/>
+      <c r="J138" s="401"/>
+      <c r="K138" s="402"/>
+      <c r="L138" s="402"/>
+      <c r="M138" s="403"/>
       <c r="N138" s="6"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" thickBot="1">
@@ -31187,7 +31331,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="357" t="s">
+      <c r="M224" s="373" t="s">
         <v>638</v>
       </c>
       <c r="N224" s="278" t="s">
@@ -31211,7 +31355,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="357"/>
+      <c r="M225" s="373"/>
       <c r="N225" s="278" t="s">
         <v>255</v>
       </c>
@@ -31229,7 +31373,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="357"/>
+      <c r="M226" s="373"/>
       <c r="N226" s="278"/>
     </row>
     <row r="227" spans="1:14">
@@ -31242,7 +31386,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="358"/>
+      <c r="M227" s="374"/>
       <c r="N227" s="279"/>
     </row>
     <row r="228" spans="1:14">
@@ -31477,7 +31621,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
-      <c r="M244" s="357" t="s">
+      <c r="M244" s="373" t="s">
         <v>638</v>
       </c>
       <c r="N244" s="278" t="s">
@@ -31501,7 +31645,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
-      <c r="M245" s="357"/>
+      <c r="M245" s="373"/>
       <c r="N245" s="278" t="s">
         <v>255</v>
       </c>
@@ -31519,7 +31663,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
-      <c r="M246" s="357"/>
+      <c r="M246" s="373"/>
       <c r="N246" s="278"/>
     </row>
     <row r="247" spans="1:14">
@@ -31532,7 +31676,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
-      <c r="M247" s="358"/>
+      <c r="M247" s="374"/>
       <c r="N247" s="279"/>
     </row>
     <row r="248" spans="1:14">
@@ -32121,13 +32265,13 @@
         <v>72</v>
       </c>
       <c r="J3" s="136"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
-      <c r="Q3" s="396"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
+      <c r="N3" s="413"/>
+      <c r="O3" s="413"/>
+      <c r="P3" s="413"/>
+      <c r="Q3" s="414"/>
       <c r="T3" s="34" t="s">
         <v>70</v>
       </c>
@@ -32395,13 +32539,13 @@
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="386" t="s">
+      <c r="A12" s="404" t="s">
         <v>537</v>
       </c>
-      <c r="B12" s="387"/>
-      <c r="C12" s="387"/>
-      <c r="D12" s="387"/>
-      <c r="E12" s="388"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
       <c r="F12" t="s">
         <v>550</v>
       </c>
@@ -32424,11 +32568,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="389"/>
-      <c r="B13" s="390"/>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="391"/>
+      <c r="A13" s="407"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="409"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -32449,11 +32593,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="389"/>
-      <c r="B14" s="390"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="391"/>
+      <c r="A14" s="407"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="408"/>
+      <c r="D14" s="408"/>
+      <c r="E14" s="409"/>
       <c r="F14" t="s">
         <v>547</v>
       </c>
@@ -32476,11 +32620,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="392"/>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="394"/>
+      <c r="A15" s="410"/>
+      <c r="B15" s="411"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="412"/>
       <c r="F15" s="22"/>
       <c r="H15" s="162"/>
       <c r="I15" s="4" t="s">
@@ -32538,17 +32682,17 @@
       <c r="F17" s="159"/>
       <c r="G17" s="117"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="360" t="s">
+      <c r="I17" s="376" t="s">
         <v>1040</v>
       </c>
-      <c r="J17" s="360"/>
-      <c r="K17" s="360"/>
-      <c r="L17" s="360"/>
-      <c r="M17" s="360"/>
-      <c r="N17" s="360"/>
-      <c r="O17" s="360"/>
-      <c r="P17" s="360"/>
-      <c r="Q17" s="360"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
+      <c r="P17" s="376"/>
+      <c r="Q17" s="376"/>
       <c r="S17" t="s">
         <v>249</v>
       </c>

--- a/jee_latest_st1.xlsx
+++ b/jee_latest_st1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1660">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5428,9 +5428,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>****</t>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; john/john1! &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
@@ -5447,6 +5444,45 @@
   </si>
   <si>
     <t>FULL STACK JEE DEVELOPER</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>move mouse</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Event listener</t>
+  </si>
+  <si>
+    <t>HTML - JAVASCRIPT interaction</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; AJAX &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>billions of userid</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>return false</t>
   </si>
 </sst>
 </file>
@@ -6873,6 +6909,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6948,11 +6993,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6999,6 +7044,18 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7020,23 +7077,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7068,6 +7110,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7077,59 +7122,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7147,6 +7144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7188,6 +7188,57 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7215,14 +7266,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7263,69 +7350,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10275,10 +10311,10 @@
       <c r="K232" s="29"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="388" t="s">
+      <c r="O232" s="393" t="s">
         <v>1071</v>
       </c>
-      <c r="P232" s="389"/>
+      <c r="P232" s="394"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">
@@ -12254,10 +12290,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="390" t="s">
+      <c r="L35" s="395" t="s">
         <v>264</v>
       </c>
-      <c r="M35" s="390"/>
+      <c r="M35" s="395"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14191,10 +14227,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="391" t="s">
+      <c r="A155" s="396" t="s">
         <v>843</v>
       </c>
-      <c r="B155" s="391"/>
+      <c r="B155" s="396"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="83" t="s">
@@ -16562,18 +16598,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="399" t="s">
+      <c r="E6" s="397" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="351" t="s">
+      <c r="F6" s="357"/>
+      <c r="G6" s="356" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="352"/>
+      <c r="H6" s="356"/>
+      <c r="I6" s="356"/>
+      <c r="J6" s="356"/>
+      <c r="K6" s="356"/>
+      <c r="L6" s="357"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="24" t="s">
@@ -16586,7 +16622,7 @@
       <c r="A7" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="D7" s="396">
+      <c r="D7" s="405">
         <v>80</v>
       </c>
       <c r="E7" s="189"/>
@@ -16604,7 +16640,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="396"/>
+      <c r="D8" s="405"/>
       <c r="E8" s="42" t="s">
         <v>298</v>
       </c>
@@ -16639,7 +16675,7 @@
       <c r="B9" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="396"/>
+      <c r="D9" s="405"/>
       <c r="E9" s="190"/>
       <c r="F9" s="193"/>
       <c r="G9" s="127"/>
@@ -16663,7 +16699,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="396"/>
+      <c r="D10" s="405"/>
       <c r="E10" s="189"/>
       <c r="F10" s="192"/>
       <c r="G10" s="300"/>
@@ -16687,7 +16723,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="396"/>
+      <c r="D11" s="405"/>
       <c r="E11" s="42" t="s">
         <v>302</v>
       </c>
@@ -16716,7 +16752,7 @@
       <c r="B12" s="173" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="396"/>
+      <c r="D12" s="405"/>
       <c r="E12" s="190"/>
       <c r="F12" s="193"/>
       <c r="G12" s="304"/>
@@ -16737,7 +16773,7 @@
       <c r="B13" t="s">
         <v>1341</v>
       </c>
-      <c r="D13" s="396"/>
+      <c r="D13" s="405"/>
       <c r="E13" s="189"/>
       <c r="F13" s="192"/>
       <c r="G13" s="306"/>
@@ -16753,7 +16789,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="396"/>
+      <c r="D14" s="405"/>
       <c r="E14" s="42" t="s">
         <v>307</v>
       </c>
@@ -16780,7 +16816,7 @@
       <c r="B15" t="s">
         <v>1342</v>
       </c>
-      <c r="D15" s="396"/>
+      <c r="D15" s="405"/>
       <c r="E15" s="190"/>
       <c r="F15" s="193"/>
       <c r="G15" s="310"/>
@@ -16799,7 +16835,7 @@
       <c r="B16" t="s">
         <v>1223</v>
       </c>
-      <c r="D16" s="396"/>
+      <c r="D16" s="405"/>
       <c r="E16" s="189"/>
       <c r="F16" s="192"/>
       <c r="G16" s="312"/>
@@ -16819,7 +16855,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="396"/>
+      <c r="D17" s="405"/>
       <c r="E17" s="42" t="s">
         <v>311</v>
       </c>
@@ -16847,7 +16883,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="396"/>
+      <c r="D18" s="405"/>
       <c r="E18" s="190"/>
       <c r="F18" s="193"/>
       <c r="G18" s="315"/>
@@ -16866,20 +16902,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="400" t="s">
+      <c r="E19" s="398" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="401"/>
-      <c r="G19" s="400" t="s">
+      <c r="F19" s="399"/>
+      <c r="G19" s="398" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="401"/>
-      <c r="I19" s="400" t="s">
+      <c r="H19" s="399"/>
+      <c r="I19" s="398" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="402"/>
-      <c r="K19" s="402"/>
-      <c r="L19" s="401"/>
+      <c r="J19" s="400"/>
+      <c r="K19" s="400"/>
+      <c r="L19" s="399"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16944,12 +16980,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="398"/>
-      <c r="H24" s="398"/>
-      <c r="I24" s="398"/>
-      <c r="J24" s="398"/>
-      <c r="K24" s="398"/>
-      <c r="L24" s="398"/>
+      <c r="G24" s="407"/>
+      <c r="H24" s="407"/>
+      <c r="I24" s="407"/>
+      <c r="J24" s="407"/>
+      <c r="K24" s="407"/>
+      <c r="L24" s="407"/>
       <c r="O24" s="34" t="s">
         <v>70</v>
       </c>
@@ -17365,11 +17401,11 @@
       <c r="G47" s="186" t="s">
         <v>751</v>
       </c>
-      <c r="H47" s="388" t="s">
+      <c r="H47" s="393" t="s">
         <v>1199</v>
       </c>
-      <c r="I47" s="397"/>
-      <c r="J47" s="389"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="394"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17975,16 +18011,16 @@
         <v>898</v>
       </c>
       <c r="F131" s="32"/>
-      <c r="G131" s="394" t="s">
+      <c r="G131" s="403" t="s">
         <v>891</v>
       </c>
-      <c r="H131" s="394"/>
-      <c r="I131" s="394"/>
-      <c r="J131" s="394"/>
-      <c r="K131" s="394"/>
-      <c r="L131" s="394"/>
-      <c r="M131" s="394"/>
-      <c r="N131" s="394"/>
+      <c r="H131" s="403"/>
+      <c r="I131" s="403"/>
+      <c r="J131" s="403"/>
+      <c r="K131" s="403"/>
+      <c r="L131" s="403"/>
+      <c r="M131" s="403"/>
+      <c r="N131" s="403"/>
       <c r="O131" s="32"/>
     </row>
     <row r="132" spans="2:15">
@@ -18121,29 +18157,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="32"/>
-      <c r="G141" s="395"/>
-      <c r="H141" s="395"/>
-      <c r="I141" s="395"/>
-      <c r="J141" s="395"/>
-      <c r="K141" s="395"/>
-      <c r="L141" s="395"/>
-      <c r="M141" s="395"/>
-      <c r="N141" s="395"/>
-      <c r="O141" s="395"/>
+      <c r="G141" s="404"/>
+      <c r="H141" s="404"/>
+      <c r="I141" s="404"/>
+      <c r="J141" s="404"/>
+      <c r="K141" s="404"/>
+      <c r="L141" s="404"/>
+      <c r="M141" s="404"/>
+      <c r="N141" s="404"/>
+      <c r="O141" s="404"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="395"/>
-      <c r="H142" s="395"/>
-      <c r="I142" s="395"/>
-      <c r="J142" s="395"/>
-      <c r="K142" s="395"/>
-      <c r="L142" s="395"/>
-      <c r="M142" s="395"/>
-      <c r="N142" s="395"/>
-      <c r="O142" s="395"/>
+      <c r="G142" s="404"/>
+      <c r="H142" s="404"/>
+      <c r="I142" s="404"/>
+      <c r="J142" s="404"/>
+      <c r="K142" s="404"/>
+      <c r="L142" s="404"/>
+      <c r="M142" s="404"/>
+      <c r="N142" s="404"/>
+      <c r="O142" s="404"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18187,7 +18223,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="392" t="s">
+      <c r="D158" s="401" t="s">
         <v>1165</v>
       </c>
       <c r="E158" s="58"/>
@@ -18200,7 +18236,7 @@
       <c r="L158" s="194"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="393"/>
+      <c r="D159" s="402"/>
       <c r="E159" s="258" t="s">
         <v>1163</v>
       </c>
@@ -18222,7 +18258,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="393"/>
+      <c r="D160" s="402"/>
       <c r="E160" s="191"/>
       <c r="F160" s="195"/>
       <c r="G160" s="191"/>
@@ -18233,7 +18269,7 @@
       <c r="L160" s="195"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="393"/>
+      <c r="D161" s="402"/>
       <c r="E161" s="260"/>
       <c r="F161" s="261"/>
       <c r="G161" s="260"/>
@@ -18244,7 +18280,7 @@
       <c r="L161" s="261"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="393"/>
+      <c r="D162" s="402"/>
       <c r="E162" s="262"/>
       <c r="F162" s="263"/>
       <c r="G162" s="262"/>
@@ -18258,7 +18294,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="393"/>
+      <c r="D163" s="402"/>
       <c r="E163" s="264"/>
       <c r="F163" s="265"/>
       <c r="G163" s="264"/>
@@ -18269,7 +18305,7 @@
       <c r="L163" s="265"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="393"/>
+      <c r="D164" s="402"/>
       <c r="E164" s="58"/>
       <c r="F164" s="194"/>
       <c r="G164" s="58"/>
@@ -18280,7 +18316,7 @@
       <c r="L164" s="194"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="393"/>
+      <c r="D165" s="402"/>
       <c r="E165" s="51"/>
       <c r="F165" s="257"/>
       <c r="G165" s="51"/>
@@ -18294,7 +18330,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="393"/>
+      <c r="D166" s="402"/>
       <c r="E166" s="191"/>
       <c r="F166" s="195"/>
       <c r="G166" s="191"/>
@@ -18305,7 +18341,7 @@
       <c r="L166" s="195"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="393"/>
+      <c r="D167" s="402"/>
       <c r="E167" s="58"/>
       <c r="F167" s="194"/>
       <c r="G167" s="52"/>
@@ -18316,7 +18352,7 @@
       <c r="L167" s="257"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="393"/>
+      <c r="D168" s="402"/>
       <c r="E168" s="51"/>
       <c r="F168" s="257"/>
       <c r="G168" s="52"/>
@@ -18330,7 +18366,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="393"/>
+      <c r="D169" s="402"/>
       <c r="E169" s="191"/>
       <c r="F169" s="195"/>
       <c r="G169" s="266"/>
@@ -18796,17 +18832,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19052,13 +19088,13 @@
       <c r="C20" s="104">
         <v>43908</v>
       </c>
-      <c r="D20" s="376" t="s">
+      <c r="D20" s="408" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
+      <c r="E20" s="408"/>
+      <c r="F20" s="408"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="408"/>
       <c r="I20" s="32" t="s">
         <v>347</v>
       </c>
@@ -19069,37 +19105,37 @@
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="404">
+      <c r="C21" s="419">
         <v>43909</v>
       </c>
-      <c r="D21" s="376"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="408"/>
+      <c r="G21" s="408"/>
+      <c r="H21" s="408"/>
       <c r="I21" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="J21" s="376"/>
-      <c r="K21" s="376"/>
-      <c r="L21" s="376" t="s">
+      <c r="J21" s="408"/>
+      <c r="K21" s="408"/>
+      <c r="L21" s="408" t="s">
         <v>349</v>
       </c>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
+      <c r="M21" s="408"/>
+      <c r="N21" s="408"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="404"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="403" t="s">
+      <c r="C22" s="419"/>
+      <c r="D22" s="408"/>
+      <c r="E22" s="408"/>
+      <c r="F22" s="408"/>
+      <c r="G22" s="408"/>
+      <c r="H22" s="408"/>
+      <c r="I22" s="423" t="s">
         <v>350</v>
       </c>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
+      <c r="J22" s="408"/>
+      <c r="K22" s="408"/>
       <c r="L22" s="105" t="s">
         <v>351</v>
       </c>
@@ -19107,31 +19143,31 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="404"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="376"/>
-      <c r="G23" s="376"/>
-      <c r="H23" s="376"/>
-      <c r="I23" s="403"/>
-      <c r="J23" s="376"/>
-      <c r="K23" s="376"/>
-      <c r="L23" s="376" t="s">
+      <c r="C23" s="419"/>
+      <c r="D23" s="408"/>
+      <c r="E23" s="408"/>
+      <c r="F23" s="408"/>
+      <c r="G23" s="408"/>
+      <c r="H23" s="408"/>
+      <c r="I23" s="423"/>
+      <c r="J23" s="408"/>
+      <c r="K23" s="408"/>
+      <c r="L23" s="408" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="376"/>
-      <c r="N23" s="376"/>
+      <c r="M23" s="408"/>
+      <c r="N23" s="408"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="404"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="403"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
+      <c r="C24" s="419"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
+      <c r="F24" s="408"/>
+      <c r="G24" s="408"/>
+      <c r="H24" s="408"/>
+      <c r="I24" s="423"/>
+      <c r="J24" s="408"/>
+      <c r="K24" s="408"/>
       <c r="L24" s="106" t="s">
         <v>350</v>
       </c>
@@ -19142,13 +19178,13 @@
       <c r="C25" s="104">
         <v>43910</v>
       </c>
-      <c r="D25" s="376" t="s">
+      <c r="D25" s="408" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="376"/>
-      <c r="F25" s="376"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="376"/>
+      <c r="E25" s="408"/>
+      <c r="F25" s="408"/>
+      <c r="G25" s="408"/>
+      <c r="H25" s="408"/>
       <c r="I25" s="32" t="s">
         <v>354</v>
       </c>
@@ -19162,16 +19198,16 @@
       <c r="C26" s="104">
         <v>43911</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="406"/>
-      <c r="F26" s="406"/>
-      <c r="G26" s="406"/>
-      <c r="H26" s="407"/>
-      <c r="I26" s="412" t="s">
+      <c r="D26" s="409"/>
+      <c r="E26" s="410"/>
+      <c r="F26" s="410"/>
+      <c r="G26" s="410"/>
+      <c r="H26" s="411"/>
+      <c r="I26" s="416" t="s">
         <v>350</v>
       </c>
-      <c r="J26" s="405"/>
-      <c r="K26" s="407"/>
+      <c r="J26" s="409"/>
+      <c r="K26" s="411"/>
       <c r="L26" s="105" t="s">
         <v>351</v>
       </c>
@@ -19180,30 +19216,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="32"/>
-      <c r="D27" s="408"/>
-      <c r="E27" s="398"/>
-      <c r="F27" s="398"/>
-      <c r="G27" s="398"/>
-      <c r="H27" s="409"/>
-      <c r="I27" s="413"/>
-      <c r="J27" s="408"/>
-      <c r="K27" s="409"/>
-      <c r="L27" s="376" t="s">
+      <c r="D27" s="412"/>
+      <c r="E27" s="407"/>
+      <c r="F27" s="407"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="413"/>
+      <c r="I27" s="417"/>
+      <c r="J27" s="412"/>
+      <c r="K27" s="413"/>
+      <c r="L27" s="408" t="s">
         <v>355</v>
       </c>
-      <c r="M27" s="376"/>
-      <c r="N27" s="376"/>
+      <c r="M27" s="408"/>
+      <c r="N27" s="408"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="32"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="398"/>
-      <c r="F28" s="398"/>
-      <c r="G28" s="398"/>
-      <c r="H28" s="409"/>
-      <c r="I28" s="413"/>
-      <c r="J28" s="408"/>
-      <c r="K28" s="409"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="407"/>
+      <c r="F28" s="407"/>
+      <c r="G28" s="407"/>
+      <c r="H28" s="413"/>
+      <c r="I28" s="417"/>
+      <c r="J28" s="412"/>
+      <c r="K28" s="413"/>
       <c r="L28" s="106" t="s">
         <v>350</v>
       </c>
@@ -19212,14 +19248,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="32"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="390"/>
-      <c r="F29" s="390"/>
-      <c r="G29" s="390"/>
-      <c r="H29" s="411"/>
-      <c r="I29" s="414"/>
-      <c r="J29" s="410"/>
-      <c r="K29" s="411"/>
+      <c r="D29" s="414"/>
+      <c r="E29" s="395"/>
+      <c r="F29" s="395"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="415"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="414"/>
+      <c r="K29" s="415"/>
       <c r="L29" s="107" t="s">
         <v>356</v>
       </c>
@@ -19267,13 +19303,13 @@
       <c r="C33" s="104">
         <v>43908</v>
       </c>
-      <c r="D33" s="376" t="s">
+      <c r="D33" s="408" t="s">
         <v>346</v>
       </c>
-      <c r="E33" s="376"/>
-      <c r="F33" s="376"/>
-      <c r="G33" s="376"/>
-      <c r="H33" s="376"/>
+      <c r="E33" s="408"/>
+      <c r="F33" s="408"/>
+      <c r="G33" s="408"/>
+      <c r="H33" s="408"/>
       <c r="I33" s="32" t="s">
         <v>347</v>
       </c>
@@ -19284,33 +19320,33 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="404">
+      <c r="C34" s="419">
         <v>43909</v>
       </c>
-      <c r="D34" s="376"/>
-      <c r="E34" s="376"/>
-      <c r="F34" s="376"/>
-      <c r="G34" s="376"/>
-      <c r="H34" s="376"/>
-      <c r="I34" s="415"/>
-      <c r="J34" s="376"/>
-      <c r="K34" s="376"/>
-      <c r="L34" s="376" t="s">
+      <c r="D34" s="408"/>
+      <c r="E34" s="408"/>
+      <c r="F34" s="408"/>
+      <c r="G34" s="408"/>
+      <c r="H34" s="408"/>
+      <c r="I34" s="420"/>
+      <c r="J34" s="408"/>
+      <c r="K34" s="408"/>
+      <c r="L34" s="408" t="s">
         <v>349</v>
       </c>
-      <c r="M34" s="376"/>
-      <c r="N34" s="376"/>
+      <c r="M34" s="408"/>
+      <c r="N34" s="408"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="404"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="376"/>
-      <c r="H35" s="376"/>
-      <c r="I35" s="416"/>
-      <c r="J35" s="376"/>
-      <c r="K35" s="376"/>
+      <c r="C35" s="419"/>
+      <c r="D35" s="408"/>
+      <c r="E35" s="408"/>
+      <c r="F35" s="408"/>
+      <c r="G35" s="408"/>
+      <c r="H35" s="408"/>
+      <c r="I35" s="421"/>
+      <c r="J35" s="408"/>
+      <c r="K35" s="408"/>
       <c r="L35" s="105" t="s">
         <v>351</v>
       </c>
@@ -19318,31 +19354,31 @@
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="404"/>
-      <c r="D36" s="376"/>
-      <c r="E36" s="376"/>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="376"/>
-      <c r="I36" s="416"/>
-      <c r="J36" s="376"/>
-      <c r="K36" s="376"/>
-      <c r="L36" s="376" t="s">
+      <c r="C36" s="419"/>
+      <c r="D36" s="408"/>
+      <c r="E36" s="408"/>
+      <c r="F36" s="408"/>
+      <c r="G36" s="408"/>
+      <c r="H36" s="408"/>
+      <c r="I36" s="421"/>
+      <c r="J36" s="408"/>
+      <c r="K36" s="408"/>
+      <c r="L36" s="408" t="s">
         <v>352</v>
       </c>
-      <c r="M36" s="376"/>
-      <c r="N36" s="376"/>
+      <c r="M36" s="408"/>
+      <c r="N36" s="408"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="404"/>
-      <c r="D37" s="376"/>
-      <c r="E37" s="376"/>
-      <c r="F37" s="376"/>
-      <c r="G37" s="376"/>
-      <c r="H37" s="376"/>
-      <c r="I37" s="417"/>
-      <c r="J37" s="376"/>
-      <c r="K37" s="376"/>
+      <c r="C37" s="419"/>
+      <c r="D37" s="408"/>
+      <c r="E37" s="408"/>
+      <c r="F37" s="408"/>
+      <c r="G37" s="408"/>
+      <c r="H37" s="408"/>
+      <c r="I37" s="422"/>
+      <c r="J37" s="408"/>
+      <c r="K37" s="408"/>
       <c r="L37" s="106" t="s">
         <v>357</v>
       </c>
@@ -19353,13 +19389,13 @@
       <c r="C38" s="104">
         <v>43910</v>
       </c>
-      <c r="D38" s="376" t="s">
+      <c r="D38" s="408" t="s">
         <v>353</v>
       </c>
-      <c r="E38" s="376"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="376"/>
-      <c r="H38" s="376"/>
+      <c r="E38" s="408"/>
+      <c r="F38" s="408"/>
+      <c r="G38" s="408"/>
+      <c r="H38" s="408"/>
       <c r="I38" s="32" t="s">
         <v>354</v>
       </c>
@@ -19373,14 +19409,14 @@
       <c r="C39" s="104">
         <v>43911</v>
       </c>
-      <c r="D39" s="405"/>
-      <c r="E39" s="406"/>
-      <c r="F39" s="406"/>
-      <c r="G39" s="406"/>
-      <c r="H39" s="407"/>
-      <c r="I39" s="412"/>
-      <c r="J39" s="405"/>
-      <c r="K39" s="407"/>
+      <c r="D39" s="409"/>
+      <c r="E39" s="410"/>
+      <c r="F39" s="410"/>
+      <c r="G39" s="410"/>
+      <c r="H39" s="411"/>
+      <c r="I39" s="416"/>
+      <c r="J39" s="409"/>
+      <c r="K39" s="411"/>
       <c r="L39" s="105" t="s">
         <v>351</v>
       </c>
@@ -19389,30 +19425,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="32"/>
-      <c r="D40" s="408"/>
-      <c r="E40" s="398"/>
-      <c r="F40" s="398"/>
-      <c r="G40" s="398"/>
-      <c r="H40" s="409"/>
-      <c r="I40" s="413"/>
-      <c r="J40" s="408"/>
-      <c r="K40" s="409"/>
-      <c r="L40" s="376" t="s">
+      <c r="D40" s="412"/>
+      <c r="E40" s="407"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="407"/>
+      <c r="H40" s="413"/>
+      <c r="I40" s="417"/>
+      <c r="J40" s="412"/>
+      <c r="K40" s="413"/>
+      <c r="L40" s="408" t="s">
         <v>355</v>
       </c>
-      <c r="M40" s="376"/>
-      <c r="N40" s="376"/>
+      <c r="M40" s="408"/>
+      <c r="N40" s="408"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="32"/>
-      <c r="D41" s="408"/>
-      <c r="E41" s="398"/>
-      <c r="F41" s="398"/>
-      <c r="G41" s="398"/>
-      <c r="H41" s="409"/>
-      <c r="I41" s="414"/>
-      <c r="J41" s="408"/>
-      <c r="K41" s="409"/>
+      <c r="D41" s="412"/>
+      <c r="E41" s="407"/>
+      <c r="F41" s="407"/>
+      <c r="G41" s="407"/>
+      <c r="H41" s="413"/>
+      <c r="I41" s="418"/>
+      <c r="J41" s="412"/>
+      <c r="K41" s="413"/>
       <c r="L41" s="106" t="s">
         <v>357</v>
       </c>
@@ -19421,16 +19457,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="32"/>
-      <c r="D42" s="410"/>
-      <c r="E42" s="390"/>
-      <c r="F42" s="390"/>
-      <c r="G42" s="390"/>
-      <c r="H42" s="411"/>
+      <c r="D42" s="414"/>
+      <c r="E42" s="395"/>
+      <c r="F42" s="395"/>
+      <c r="G42" s="395"/>
+      <c r="H42" s="415"/>
       <c r="I42" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="J42" s="410"/>
-      <c r="K42" s="411"/>
+      <c r="J42" s="414"/>
+      <c r="K42" s="415"/>
       <c r="L42" s="107" t="s">
         <v>356</v>
       </c>
@@ -19742,17 +19778,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -19760,12 +19791,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19787,29 +19823,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="428" t="s">
+      <c r="B2" s="445" t="s">
         <v>926</v>
       </c>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="428"/>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="428"/>
-      <c r="I2" s="428"/>
-      <c r="J2" s="428"/>
-      <c r="K2" s="428"/>
-      <c r="L2" s="428"/>
-      <c r="M2" s="428"/>
-      <c r="N2" s="428"/>
-      <c r="O2" s="428"/>
-      <c r="P2" s="428"/>
-      <c r="Q2" s="428"/>
-      <c r="R2" s="428"/>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="428"/>
-      <c r="V2" s="428"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="445"/>
+      <c r="O2" s="445"/>
+      <c r="P2" s="445"/>
+      <c r="Q2" s="445"/>
+      <c r="R2" s="445"/>
+      <c r="S2" s="445"/>
+      <c r="T2" s="445"/>
+      <c r="U2" s="445"/>
+      <c r="V2" s="445"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -19842,22 +19878,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="431" t="s">
+      <c r="G5" s="424" t="s">
         <v>408</v>
       </c>
-      <c r="H5" s="431"/>
-      <c r="I5" s="431" t="s">
+      <c r="H5" s="424"/>
+      <c r="I5" s="424" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="431"/>
-      <c r="K5" s="431"/>
-      <c r="L5" s="431"/>
-      <c r="M5" s="431"/>
-      <c r="N5" s="431"/>
-      <c r="O5" s="431" t="s">
+      <c r="J5" s="424"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="424"/>
+      <c r="M5" s="424"/>
+      <c r="N5" s="424"/>
+      <c r="O5" s="424" t="s">
         <v>410</v>
       </c>
-      <c r="P5" s="431"/>
+      <c r="P5" s="424"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19869,7 +19905,7 @@
       <c r="D6" s="123"/>
       <c r="E6" s="124"/>
       <c r="F6" s="126"/>
-      <c r="G6" s="436" t="s">
+      <c r="G6" s="425" t="s">
         <v>411</v>
       </c>
       <c r="H6" s="99"/>
@@ -19898,26 +19934,26 @@
       </c>
       <c r="E7" s="126"/>
       <c r="F7" s="126"/>
-      <c r="G7" s="437"/>
-      <c r="H7" s="439" t="s">
+      <c r="G7" s="426"/>
+      <c r="H7" s="428" t="s">
         <v>413</v>
       </c>
-      <c r="I7" s="375" t="s">
+      <c r="I7" s="431" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="442"/>
-      <c r="K7" s="443" t="s">
+      <c r="J7" s="432"/>
+      <c r="K7" s="433" t="s">
         <v>415</v>
       </c>
-      <c r="L7" s="444"/>
-      <c r="M7" s="375" t="s">
+      <c r="L7" s="434"/>
+      <c r="M7" s="431" t="s">
         <v>416</v>
       </c>
-      <c r="N7" s="442"/>
-      <c r="O7" s="449" t="s">
+      <c r="N7" s="432"/>
+      <c r="O7" s="439" t="s">
         <v>417</v>
       </c>
-      <c r="P7" s="450"/>
+      <c r="P7" s="440"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19929,16 +19965,16 @@
       <c r="D8" s="127"/>
       <c r="E8" s="128"/>
       <c r="F8" s="126"/>
-      <c r="G8" s="437"/>
-      <c r="H8" s="440"/>
-      <c r="I8" s="364"/>
-      <c r="J8" s="366"/>
-      <c r="K8" s="445"/>
-      <c r="L8" s="446"/>
-      <c r="M8" s="364"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="452"/>
+      <c r="G8" s="426"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="369"/>
+      <c r="J8" s="371"/>
+      <c r="K8" s="435"/>
+      <c r="L8" s="436"/>
+      <c r="M8" s="369"/>
+      <c r="N8" s="371"/>
+      <c r="O8" s="441"/>
+      <c r="P8" s="442"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="32" t="s">
         <v>73</v>
@@ -19956,16 +19992,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="437"/>
-      <c r="H9" s="440"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="366"/>
-      <c r="K9" s="445"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="364"/>
-      <c r="N9" s="366"/>
-      <c r="O9" s="451"/>
-      <c r="P9" s="452"/>
+      <c r="G9" s="426"/>
+      <c r="H9" s="429"/>
+      <c r="I9" s="369"/>
+      <c r="J9" s="371"/>
+      <c r="K9" s="435"/>
+      <c r="L9" s="436"/>
+      <c r="M9" s="369"/>
+      <c r="N9" s="371"/>
+      <c r="O9" s="441"/>
+      <c r="P9" s="442"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19985,16 +20021,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="437"/>
-      <c r="H10" s="440"/>
-      <c r="I10" s="364"/>
-      <c r="J10" s="366"/>
-      <c r="K10" s="445"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="364"/>
-      <c r="N10" s="366"/>
-      <c r="O10" s="451"/>
-      <c r="P10" s="452"/>
+      <c r="G10" s="426"/>
+      <c r="H10" s="429"/>
+      <c r="I10" s="369"/>
+      <c r="J10" s="371"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="436"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="371"/>
+      <c r="O10" s="441"/>
+      <c r="P10" s="442"/>
       <c r="Q10" s="5" t="s">
         <v>78</v>
       </c>
@@ -20010,16 +20046,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="437"/>
-      <c r="H11" s="440"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="366"/>
-      <c r="K11" s="445"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="366"/>
-      <c r="O11" s="451"/>
-      <c r="P11" s="452"/>
+      <c r="G11" s="426"/>
+      <c r="H11" s="429"/>
+      <c r="I11" s="369"/>
+      <c r="J11" s="371"/>
+      <c r="K11" s="435"/>
+      <c r="L11" s="436"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="441"/>
+      <c r="P11" s="442"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20037,16 +20073,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="437"/>
-      <c r="H12" s="440"/>
-      <c r="I12" s="364"/>
-      <c r="J12" s="366"/>
-      <c r="K12" s="445"/>
-      <c r="L12" s="446"/>
-      <c r="M12" s="364"/>
-      <c r="N12" s="366"/>
-      <c r="O12" s="451"/>
-      <c r="P12" s="452"/>
+      <c r="G12" s="426"/>
+      <c r="H12" s="429"/>
+      <c r="I12" s="369"/>
+      <c r="J12" s="371"/>
+      <c r="K12" s="435"/>
+      <c r="L12" s="436"/>
+      <c r="M12" s="369"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="441"/>
+      <c r="P12" s="442"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20060,16 +20096,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="437"/>
-      <c r="H13" s="440"/>
-      <c r="I13" s="364"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="445"/>
-      <c r="L13" s="446"/>
-      <c r="M13" s="364"/>
-      <c r="N13" s="366"/>
-      <c r="O13" s="451"/>
-      <c r="P13" s="452"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="369"/>
+      <c r="J13" s="371"/>
+      <c r="K13" s="435"/>
+      <c r="L13" s="436"/>
+      <c r="M13" s="369"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="441"/>
+      <c r="P13" s="442"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -20081,16 +20117,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="437"/>
-      <c r="H14" s="440"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="445"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="364"/>
-      <c r="N14" s="366"/>
-      <c r="O14" s="451"/>
-      <c r="P14" s="452"/>
+      <c r="G14" s="426"/>
+      <c r="H14" s="429"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="435"/>
+      <c r="L14" s="436"/>
+      <c r="M14" s="369"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="441"/>
+      <c r="P14" s="442"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
@@ -20104,16 +20140,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="437"/>
-      <c r="H15" s="440"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="366"/>
-      <c r="K15" s="445"/>
-      <c r="L15" s="446"/>
-      <c r="M15" s="364"/>
-      <c r="N15" s="366"/>
-      <c r="O15" s="451"/>
-      <c r="P15" s="452"/>
+      <c r="G15" s="426"/>
+      <c r="H15" s="429"/>
+      <c r="I15" s="369"/>
+      <c r="J15" s="371"/>
+      <c r="K15" s="435"/>
+      <c r="L15" s="436"/>
+      <c r="M15" s="369"/>
+      <c r="N15" s="371"/>
+      <c r="O15" s="441"/>
+      <c r="P15" s="442"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20125,16 +20161,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="437"/>
-      <c r="H16" s="440"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="366"/>
-      <c r="K16" s="445"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="364"/>
-      <c r="N16" s="366"/>
-      <c r="O16" s="451"/>
-      <c r="P16" s="452"/>
+      <c r="G16" s="426"/>
+      <c r="H16" s="429"/>
+      <c r="I16" s="369"/>
+      <c r="J16" s="371"/>
+      <c r="K16" s="435"/>
+      <c r="L16" s="436"/>
+      <c r="M16" s="369"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="441"/>
+      <c r="P16" s="442"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20146,16 +20182,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="437"/>
-      <c r="H17" s="440"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="366"/>
-      <c r="K17" s="445"/>
-      <c r="L17" s="446"/>
-      <c r="M17" s="364"/>
-      <c r="N17" s="366"/>
-      <c r="O17" s="451"/>
-      <c r="P17" s="452"/>
+      <c r="G17" s="426"/>
+      <c r="H17" s="429"/>
+      <c r="I17" s="369"/>
+      <c r="J17" s="371"/>
+      <c r="K17" s="435"/>
+      <c r="L17" s="436"/>
+      <c r="M17" s="369"/>
+      <c r="N17" s="371"/>
+      <c r="O17" s="441"/>
+      <c r="P17" s="442"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20167,16 +20203,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="437"/>
-      <c r="H18" s="440"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="366"/>
-      <c r="K18" s="445"/>
-      <c r="L18" s="446"/>
-      <c r="M18" s="364"/>
-      <c r="N18" s="366"/>
-      <c r="O18" s="451"/>
-      <c r="P18" s="452"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="429"/>
+      <c r="I18" s="369"/>
+      <c r="J18" s="371"/>
+      <c r="K18" s="435"/>
+      <c r="L18" s="436"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="371"/>
+      <c r="O18" s="441"/>
+      <c r="P18" s="442"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20190,16 +20226,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="440"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="366"/>
-      <c r="K19" s="445"/>
-      <c r="L19" s="446"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="366"/>
-      <c r="O19" s="451"/>
-      <c r="P19" s="452"/>
+      <c r="G19" s="426"/>
+      <c r="H19" s="429"/>
+      <c r="I19" s="369"/>
+      <c r="J19" s="371"/>
+      <c r="K19" s="435"/>
+      <c r="L19" s="436"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="371"/>
+      <c r="O19" s="441"/>
+      <c r="P19" s="442"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20211,16 +20247,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="438"/>
-      <c r="H20" s="441"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="369"/>
-      <c r="K20" s="447"/>
-      <c r="L20" s="448"/>
-      <c r="M20" s="367"/>
-      <c r="N20" s="369"/>
-      <c r="O20" s="453"/>
-      <c r="P20" s="454"/>
+      <c r="G20" s="427"/>
+      <c r="H20" s="430"/>
+      <c r="I20" s="372"/>
+      <c r="J20" s="374"/>
+      <c r="K20" s="437"/>
+      <c r="L20" s="438"/>
+      <c r="M20" s="372"/>
+      <c r="N20" s="374"/>
+      <c r="O20" s="443"/>
+      <c r="P20" s="444"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20250,27 +20286,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="370" t="s">
+      <c r="D22" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="371"/>
+      <c r="E22" s="376"/>
       <c r="F22" s="217"/>
       <c r="G22" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="370" t="s">
+      <c r="H22" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="372"/>
-      <c r="J22" s="372"/>
-      <c r="K22" s="372"/>
-      <c r="L22" s="372"/>
-      <c r="M22" s="372"/>
-      <c r="N22" s="371"/>
-      <c r="O22" s="370" t="s">
+      <c r="I22" s="377"/>
+      <c r="J22" s="377"/>
+      <c r="K22" s="377"/>
+      <c r="L22" s="377"/>
+      <c r="M22" s="377"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="375" t="s">
         <v>418</v>
       </c>
-      <c r="P22" s="371"/>
+      <c r="P22" s="376"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20301,59 +20337,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="428" t="s">
+      <c r="B25" s="445" t="s">
         <v>925</v>
       </c>
-      <c r="C25" s="428"/>
-      <c r="D25" s="428"/>
-      <c r="E25" s="428"/>
-      <c r="F25" s="428"/>
-      <c r="G25" s="428"/>
-      <c r="H25" s="428"/>
-      <c r="I25" s="428"/>
-      <c r="J25" s="428"/>
-      <c r="K25" s="428"/>
-      <c r="L25" s="428"/>
-      <c r="M25" s="428"/>
-      <c r="N25" s="428"/>
-      <c r="O25" s="428"/>
-      <c r="P25" s="428"/>
-      <c r="Q25" s="428"/>
-      <c r="R25" s="428"/>
-      <c r="S25" s="428"/>
-      <c r="T25" s="428"/>
-      <c r="U25" s="428"/>
-      <c r="V25" s="428"/>
+      <c r="C25" s="445"/>
+      <c r="D25" s="445"/>
+      <c r="E25" s="445"/>
+      <c r="F25" s="445"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="445"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="445"/>
+      <c r="K25" s="445"/>
+      <c r="L25" s="445"/>
+      <c r="M25" s="445"/>
+      <c r="N25" s="445"/>
+      <c r="O25" s="445"/>
+      <c r="P25" s="445"/>
+      <c r="Q25" s="445"/>
+      <c r="R25" s="445"/>
+      <c r="S25" s="445"/>
+      <c r="T25" s="445"/>
+      <c r="U25" s="445"/>
+      <c r="V25" s="445"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="429" t="s">
+      <c r="C26" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="429"/>
-      <c r="E26" s="429"/>
-      <c r="F26" s="429"/>
-      <c r="G26" s="429"/>
-      <c r="H26" s="429"/>
-      <c r="I26" s="429"/>
-      <c r="J26" s="429"/>
-      <c r="K26" s="429"/>
-      <c r="L26" s="429"/>
-      <c r="M26" s="429"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="446"/>
+      <c r="F26" s="446"/>
+      <c r="G26" s="446"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="446"/>
+      <c r="K26" s="446"/>
+      <c r="L26" s="446"/>
+      <c r="M26" s="446"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="399" t="s">
+      <c r="E27" s="397" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="351"/>
-      <c r="G27" s="351"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="358"/>
-      <c r="M27" s="359"/>
+      <c r="F27" s="356"/>
+      <c r="G27" s="356"/>
+      <c r="H27" s="363"/>
+      <c r="I27" s="363"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="363"/>
+      <c r="L27" s="363"/>
+      <c r="M27" s="364"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20386,11 +20422,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="430" t="s">
+      <c r="O29" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="430"/>
-      <c r="Q29" s="430"/>
+      <c r="P29" s="447"/>
+      <c r="Q29" s="447"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20435,21 +20471,21 @@
         <v>81</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="425" t="s">
+      <c r="E32" s="451" t="s">
         <v>929</v>
       </c>
-      <c r="F32" s="426"/>
-      <c r="G32" s="427"/>
-      <c r="H32" s="425" t="s">
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
+      <c r="H32" s="451" t="s">
         <v>930</v>
       </c>
-      <c r="I32" s="426"/>
-      <c r="J32" s="427"/>
-      <c r="K32" s="425" t="s">
+      <c r="I32" s="452"/>
+      <c r="J32" s="453"/>
+      <c r="K32" s="451" t="s">
         <v>931</v>
       </c>
-      <c r="L32" s="426"/>
-      <c r="M32" s="427"/>
+      <c r="L32" s="452"/>
+      <c r="M32" s="453"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20466,15 +20502,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="425"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="425"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="425"/>
-      <c r="L33" s="426"/>
-      <c r="M33" s="427"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
+      <c r="H33" s="451"/>
+      <c r="I33" s="452"/>
+      <c r="J33" s="453"/>
+      <c r="K33" s="451"/>
+      <c r="L33" s="452"/>
+      <c r="M33" s="453"/>
       <c r="N33" s="5" t="s">
         <v>78</v>
       </c>
@@ -20491,15 +20527,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="425"/>
-      <c r="F34" s="426"/>
-      <c r="G34" s="427"/>
-      <c r="H34" s="425"/>
-      <c r="I34" s="426"/>
-      <c r="J34" s="427"/>
-      <c r="K34" s="425"/>
-      <c r="L34" s="426"/>
-      <c r="M34" s="427"/>
+      <c r="E34" s="451"/>
+      <c r="F34" s="452"/>
+      <c r="G34" s="453"/>
+      <c r="H34" s="451"/>
+      <c r="I34" s="452"/>
+      <c r="J34" s="453"/>
+      <c r="K34" s="451"/>
+      <c r="L34" s="452"/>
+      <c r="M34" s="453"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20510,15 +20546,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="425"/>
-      <c r="F35" s="426"/>
-      <c r="G35" s="427"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="426"/>
-      <c r="J35" s="427"/>
-      <c r="K35" s="425"/>
-      <c r="L35" s="426"/>
-      <c r="M35" s="427"/>
+      <c r="E35" s="451"/>
+      <c r="F35" s="452"/>
+      <c r="G35" s="453"/>
+      <c r="H35" s="451"/>
+      <c r="I35" s="452"/>
+      <c r="J35" s="453"/>
+      <c r="K35" s="451"/>
+      <c r="L35" s="452"/>
+      <c r="M35" s="453"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -20649,15 +20685,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="418"/>
-      <c r="F42" s="419"/>
-      <c r="G42" s="419"/>
-      <c r="H42" s="419"/>
-      <c r="I42" s="419"/>
-      <c r="J42" s="419"/>
-      <c r="K42" s="419"/>
-      <c r="L42" s="419"/>
-      <c r="M42" s="420"/>
+      <c r="E42" s="455"/>
+      <c r="F42" s="456"/>
+      <c r="G42" s="456"/>
+      <c r="H42" s="456"/>
+      <c r="I42" s="456"/>
+      <c r="J42" s="456"/>
+      <c r="K42" s="456"/>
+      <c r="L42" s="456"/>
+      <c r="M42" s="457"/>
       <c r="N42" s="34" t="s">
         <v>462</v>
       </c>
@@ -20676,83 +20712,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="370" t="s">
+      <c r="C44" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="371"/>
-      <c r="E44" s="370" t="s">
+      <c r="D44" s="376"/>
+      <c r="E44" s="375" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="372"/>
-      <c r="G44" s="371"/>
-      <c r="H44" s="370" t="s">
+      <c r="F44" s="377"/>
+      <c r="G44" s="376"/>
+      <c r="H44" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="372"/>
-      <c r="J44" s="372"/>
-      <c r="K44" s="372"/>
-      <c r="L44" s="372"/>
-      <c r="M44" s="371"/>
+      <c r="I44" s="377"/>
+      <c r="J44" s="377"/>
+      <c r="K44" s="377"/>
+      <c r="L44" s="377"/>
+      <c r="M44" s="376"/>
       <c r="Q44" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="428" t="s">
+      <c r="B47" s="445" t="s">
         <v>927</v>
       </c>
-      <c r="C47" s="428"/>
-      <c r="D47" s="428"/>
-      <c r="E47" s="428"/>
-      <c r="F47" s="428"/>
-      <c r="G47" s="428"/>
-      <c r="H47" s="428"/>
-      <c r="I47" s="428"/>
-      <c r="J47" s="428"/>
-      <c r="K47" s="428"/>
-      <c r="L47" s="428"/>
-      <c r="M47" s="428"/>
-      <c r="N47" s="428"/>
-      <c r="O47" s="428"/>
-      <c r="P47" s="428"/>
-      <c r="Q47" s="428"/>
-      <c r="R47" s="428"/>
-      <c r="S47" s="428"/>
-      <c r="T47" s="428"/>
-      <c r="U47" s="428"/>
-      <c r="V47" s="428"/>
+      <c r="C47" s="445"/>
+      <c r="D47" s="445"/>
+      <c r="E47" s="445"/>
+      <c r="F47" s="445"/>
+      <c r="G47" s="445"/>
+      <c r="H47" s="445"/>
+      <c r="I47" s="445"/>
+      <c r="J47" s="445"/>
+      <c r="K47" s="445"/>
+      <c r="L47" s="445"/>
+      <c r="M47" s="445"/>
+      <c r="N47" s="445"/>
+      <c r="O47" s="445"/>
+      <c r="P47" s="445"/>
+      <c r="Q47" s="445"/>
+      <c r="R47" s="445"/>
+      <c r="S47" s="445"/>
+      <c r="T47" s="445"/>
+      <c r="U47" s="445"/>
+      <c r="V47" s="445"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="429" t="s">
+      <c r="C48" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="D48" s="429"/>
-      <c r="E48" s="429"/>
-      <c r="F48" s="429"/>
-      <c r="G48" s="429"/>
-      <c r="H48" s="429"/>
-      <c r="I48" s="429"/>
-      <c r="J48" s="429"/>
-      <c r="K48" s="429"/>
-      <c r="L48" s="429"/>
-      <c r="M48" s="429"/>
+      <c r="D48" s="446"/>
+      <c r="E48" s="446"/>
+      <c r="F48" s="446"/>
+      <c r="G48" s="446"/>
+      <c r="H48" s="446"/>
+      <c r="I48" s="446"/>
+      <c r="J48" s="446"/>
+      <c r="K48" s="446"/>
+      <c r="L48" s="446"/>
+      <c r="M48" s="446"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="399" t="s">
+      <c r="E49" s="397" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="351"/>
-      <c r="G49" s="351"/>
-      <c r="H49" s="358"/>
-      <c r="I49" s="358"/>
-      <c r="J49" s="358"/>
-      <c r="K49" s="358"/>
-      <c r="L49" s="358"/>
-      <c r="M49" s="359"/>
+      <c r="F49" s="356"/>
+      <c r="G49" s="356"/>
+      <c r="H49" s="363"/>
+      <c r="I49" s="363"/>
+      <c r="J49" s="363"/>
+      <c r="K49" s="363"/>
+      <c r="L49" s="363"/>
+      <c r="M49" s="364"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
       <c r="U49" s="16"/>
@@ -20770,16 +20806,16 @@
       </c>
       <c r="F50" s="110"/>
       <c r="G50" s="197"/>
-      <c r="H50" s="432" t="s">
+      <c r="H50" s="448" t="s">
         <v>930</v>
       </c>
-      <c r="I50" s="433"/>
-      <c r="J50" s="434"/>
-      <c r="K50" s="432" t="s">
+      <c r="I50" s="449"/>
+      <c r="J50" s="450"/>
+      <c r="K50" s="448" t="s">
         <v>931</v>
       </c>
-      <c r="L50" s="433"/>
-      <c r="M50" s="434"/>
+      <c r="L50" s="449"/>
+      <c r="M50" s="450"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="W50" t="s">
@@ -20793,20 +20829,20 @@
         <v>945</v>
       </c>
       <c r="F51" s="238"/>
-      <c r="G51" s="435" t="s">
+      <c r="G51" s="454" t="s">
         <v>953</v>
       </c>
-      <c r="H51" s="425"/>
-      <c r="I51" s="426"/>
-      <c r="J51" s="427"/>
-      <c r="K51" s="425"/>
-      <c r="L51" s="426"/>
-      <c r="M51" s="427"/>
-      <c r="O51" s="430" t="s">
+      <c r="H51" s="451"/>
+      <c r="I51" s="452"/>
+      <c r="J51" s="453"/>
+      <c r="K51" s="451"/>
+      <c r="L51" s="452"/>
+      <c r="M51" s="453"/>
+      <c r="O51" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="P51" s="430"/>
-      <c r="Q51" s="430"/>
+      <c r="P51" s="447"/>
+      <c r="Q51" s="447"/>
       <c r="S51" s="225"/>
       <c r="T51" s="225"/>
       <c r="W51" s="34" t="s">
@@ -20820,13 +20856,13 @@
         <v>946</v>
       </c>
       <c r="F52" s="239"/>
-      <c r="G52" s="435"/>
-      <c r="H52" s="425"/>
-      <c r="I52" s="426"/>
-      <c r="J52" s="427"/>
-      <c r="K52" s="425"/>
-      <c r="L52" s="426"/>
-      <c r="M52" s="427"/>
+      <c r="G52" s="454"/>
+      <c r="H52" s="451"/>
+      <c r="I52" s="452"/>
+      <c r="J52" s="453"/>
+      <c r="K52" s="451"/>
+      <c r="L52" s="452"/>
+      <c r="M52" s="453"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
     </row>
@@ -20837,13 +20873,13 @@
         <v>947</v>
       </c>
       <c r="F53" s="240"/>
-      <c r="G53" s="435"/>
-      <c r="H53" s="425"/>
-      <c r="I53" s="426"/>
-      <c r="J53" s="427"/>
-      <c r="K53" s="425"/>
-      <c r="L53" s="426"/>
-      <c r="M53" s="427"/>
+      <c r="G53" s="454"/>
+      <c r="H53" s="451"/>
+      <c r="I53" s="452"/>
+      <c r="J53" s="453"/>
+      <c r="K53" s="451"/>
+      <c r="L53" s="452"/>
+      <c r="M53" s="453"/>
       <c r="N53" s="5"/>
       <c r="O53" s="32" t="s">
         <v>73</v>
@@ -20882,7 +20918,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="226"/>
       <c r="F54" s="241"/>
-      <c r="G54" s="423" t="s">
+      <c r="G54" s="460" t="s">
         <v>957</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20929,11 +20965,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="421" t="s">
+      <c r="E55" s="458" t="s">
         <v>958</v>
       </c>
-      <c r="F55" s="422"/>
-      <c r="G55" s="424"/>
+      <c r="F55" s="459"/>
+      <c r="G55" s="461"/>
       <c r="H55" s="129" t="s">
         <v>949</v>
       </c>
@@ -20977,9 +21013,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="421"/>
-      <c r="F56" s="422"/>
-      <c r="G56" s="424"/>
+      <c r="E56" s="458"/>
+      <c r="F56" s="459"/>
+      <c r="G56" s="461"/>
       <c r="H56" s="129" t="s">
         <v>950</v>
       </c>
@@ -21009,9 +21045,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="421"/>
-      <c r="F57" s="422"/>
-      <c r="G57" s="424"/>
+      <c r="E57" s="458"/>
+      <c r="F57" s="459"/>
+      <c r="G57" s="461"/>
       <c r="H57" s="4" t="s">
         <v>962</v>
       </c>
@@ -21041,9 +21077,9 @@
         <v>83</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="421"/>
-      <c r="F58" s="422"/>
-      <c r="G58" s="424"/>
+      <c r="E58" s="458"/>
+      <c r="F58" s="459"/>
+      <c r="G58" s="461"/>
       <c r="H58" s="230" t="s">
         <v>948</v>
       </c>
@@ -21068,9 +21104,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="421"/>
-      <c r="F59" s="422"/>
-      <c r="G59" s="424"/>
+      <c r="E59" s="458"/>
+      <c r="F59" s="459"/>
+      <c r="G59" s="461"/>
       <c r="H59" s="230" t="s">
         <v>439</v>
       </c>
@@ -21095,9 +21131,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="421"/>
-      <c r="F60" s="422"/>
-      <c r="G60" s="424"/>
+      <c r="E60" s="458"/>
+      <c r="F60" s="459"/>
+      <c r="G60" s="461"/>
       <c r="H60" s="232"/>
       <c r="I60" s="233" t="s">
         <v>964</v>
@@ -21117,9 +21153,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="421"/>
-      <c r="F61" s="422"/>
-      <c r="G61" s="424"/>
+      <c r="E61" s="458"/>
+      <c r="F61" s="459"/>
+      <c r="G61" s="461"/>
       <c r="H61" s="232"/>
       <c r="I61" s="233" t="s">
         <v>965</v>
@@ -21139,7 +21175,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="221"/>
       <c r="F62" s="237"/>
-      <c r="G62" s="424"/>
+      <c r="G62" s="461"/>
       <c r="H62" s="234"/>
       <c r="I62" s="236" t="s">
         <v>966</v>
@@ -21181,15 +21217,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="418"/>
-      <c r="F64" s="419"/>
-      <c r="G64" s="419"/>
-      <c r="H64" s="419"/>
-      <c r="I64" s="419"/>
-      <c r="J64" s="419"/>
-      <c r="K64" s="419"/>
-      <c r="L64" s="419"/>
-      <c r="M64" s="420"/>
+      <c r="E64" s="455"/>
+      <c r="F64" s="456"/>
+      <c r="G64" s="456"/>
+      <c r="H64" s="456"/>
+      <c r="I64" s="456"/>
+      <c r="J64" s="456"/>
+      <c r="K64" s="456"/>
+      <c r="L64" s="456"/>
+      <c r="M64" s="457"/>
       <c r="N64" s="34" t="s">
         <v>462</v>
       </c>
@@ -21218,23 +21254,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="370" t="s">
+      <c r="C66" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="371"/>
-      <c r="E66" s="370" t="s">
+      <c r="D66" s="376"/>
+      <c r="E66" s="375" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="372"/>
-      <c r="G66" s="371"/>
-      <c r="H66" s="370" t="s">
+      <c r="F66" s="377"/>
+      <c r="G66" s="376"/>
+      <c r="H66" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="I66" s="372"/>
-      <c r="J66" s="372"/>
-      <c r="K66" s="372"/>
-      <c r="L66" s="372"/>
-      <c r="M66" s="371"/>
+      <c r="I66" s="377"/>
+      <c r="J66" s="377"/>
+      <c r="K66" s="377"/>
+      <c r="L66" s="377"/>
+      <c r="M66" s="376"/>
       <c r="Q66" t="s">
         <v>928</v>
       </c>
@@ -21255,23 +21291,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="376" t="s">
+      <c r="C68" s="408" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="376"/>
-      <c r="E68" s="376" t="s">
+      <c r="D68" s="408"/>
+      <c r="E68" s="408" t="s">
         <v>1209</v>
       </c>
-      <c r="F68" s="376"/>
-      <c r="G68" s="376"/>
-      <c r="H68" s="376" t="s">
+      <c r="F68" s="408"/>
+      <c r="G68" s="408"/>
+      <c r="H68" s="408" t="s">
         <v>1225</v>
       </c>
-      <c r="I68" s="376"/>
-      <c r="J68" s="376"/>
-      <c r="K68" s="376"/>
-      <c r="L68" s="376"/>
-      <c r="M68" s="376"/>
+      <c r="I68" s="408"/>
+      <c r="J68" s="408"/>
+      <c r="K68" s="408"/>
+      <c r="L68" s="408"/>
+      <c r="M68" s="408"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="2" t="s">
@@ -22068,6 +22104,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22084,30 +22144,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22141,12 +22177,12 @@
       <c r="A1" t="s">
         <v>1367</v>
       </c>
-      <c r="H1" s="455" t="s">
+      <c r="H1" s="462" t="s">
         <v>1368</v>
       </c>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
       <c r="M1" s="34" t="s">
         <v>1369</v>
       </c>
@@ -22164,10 +22200,10 @@
       <c r="A2" t="s">
         <v>1372</v>
       </c>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="462"/>
+      <c r="J2" s="462"/>
+      <c r="K2" s="462"/>
       <c r="M2" t="s">
         <v>973</v>
       </c>
@@ -22185,10 +22221,10 @@
       <c r="A3" t="s">
         <v>1374</v>
       </c>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
+      <c r="H3" s="462"/>
+      <c r="I3" s="462"/>
+      <c r="J3" s="462"/>
+      <c r="K3" s="462"/>
       <c r="M3" t="s">
         <v>974</v>
       </c>
@@ -22206,10 +22242,10 @@
       <c r="A4" t="s">
         <v>1432</v>
       </c>
-      <c r="H4" s="455"/>
-      <c r="I4" s="455"/>
-      <c r="J4" s="455"/>
-      <c r="K4" s="455"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="462"/>
+      <c r="K4" s="462"/>
       <c r="M4" t="s">
         <v>1235</v>
       </c>
@@ -22227,10 +22263,10 @@
       <c r="B5" t="s">
         <v>1431</v>
       </c>
-      <c r="H5" s="455"/>
-      <c r="I5" s="455"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="455"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="462"/>
+      <c r="K5" s="462"/>
       <c r="Q5" t="s">
         <v>1373</v>
       </c>
@@ -22242,10 +22278,10 @@
       <c r="A6" t="s">
         <v>1433</v>
       </c>
-      <c r="H6" s="455"/>
-      <c r="I6" s="455"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="455"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="462"/>
+      <c r="K6" s="462"/>
       <c r="Q6" t="s">
         <v>1375</v>
       </c>
@@ -22254,10 +22290,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="H7" s="455"/>
-      <c r="I7" s="455"/>
-      <c r="J7" s="455"/>
-      <c r="K7" s="455"/>
+      <c r="H7" s="462"/>
+      <c r="I7" s="462"/>
+      <c r="J7" s="462"/>
+      <c r="K7" s="462"/>
       <c r="Q7" t="s">
         <v>1376</v>
       </c>
@@ -22266,12 +22302,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="455" t="s">
+      <c r="H9" s="462" t="s">
         <v>1377</v>
       </c>
-      <c r="I9" s="455"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="455"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="462"/>
       <c r="M9" t="s">
         <v>1378</v>
       </c>
@@ -22280,10 +22316,10 @@
       <c r="A10" t="s">
         <v>1379</v>
       </c>
-      <c r="H10" s="455"/>
-      <c r="I10" s="455"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="455"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="462"/>
       <c r="M10" t="s">
         <v>1380</v>
       </c>
@@ -22292,10 +22328,10 @@
       <c r="A11" t="s">
         <v>1381</v>
       </c>
-      <c r="H11" s="455"/>
-      <c r="I11" s="455"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="455"/>
+      <c r="H11" s="462"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="462"/>
       <c r="M11" t="s">
         <v>1382</v>
       </c>
@@ -22304,19 +22340,19 @@
       <c r="A12" t="s">
         <v>1383</v>
       </c>
-      <c r="H12" s="455"/>
-      <c r="I12" s="455"/>
-      <c r="J12" s="455"/>
-      <c r="K12" s="455"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="462"/>
+      <c r="J12" s="462"/>
+      <c r="K12" s="462"/>
       <c r="M12" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="H13" s="455"/>
-      <c r="I13" s="455"/>
-      <c r="J13" s="455"/>
-      <c r="K13" s="455"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="462"/>
+      <c r="J13" s="462"/>
+      <c r="K13" s="462"/>
       <c r="M13" t="s">
         <v>1385</v>
       </c>
@@ -22333,11 +22369,11 @@
       <c r="A16" t="s">
         <v>1388</v>
       </c>
-      <c r="I16" s="455" t="s">
+      <c r="I16" s="462" t="s">
         <v>1389</v>
       </c>
-      <c r="J16" s="455"/>
-      <c r="K16" s="455"/>
+      <c r="J16" s="462"/>
+      <c r="K16" s="462"/>
       <c r="M16" t="s">
         <v>1390</v>
       </c>
@@ -22349,9 +22385,9 @@
       <c r="A17" t="s">
         <v>1391</v>
       </c>
-      <c r="I17" s="455"/>
-      <c r="J17" s="455"/>
-      <c r="K17" s="455"/>
+      <c r="I17" s="462"/>
+      <c r="J17" s="462"/>
+      <c r="K17" s="462"/>
       <c r="M17" t="s">
         <v>1392</v>
       </c>
@@ -22363,9 +22399,9 @@
       <c r="A18" t="s">
         <v>1393</v>
       </c>
-      <c r="I18" s="455"/>
-      <c r="J18" s="455"/>
-      <c r="K18" s="455"/>
+      <c r="I18" s="462"/>
+      <c r="J18" s="462"/>
+      <c r="K18" s="462"/>
       <c r="M18" t="s">
         <v>1394</v>
       </c>
@@ -22374,24 +22410,24 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="455"/>
-      <c r="J19" s="455"/>
-      <c r="K19" s="455"/>
+      <c r="I19" s="462"/>
+      <c r="J19" s="462"/>
+      <c r="K19" s="462"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="I20" s="455"/>
-      <c r="J20" s="455"/>
-      <c r="K20" s="455"/>
+      <c r="I20" s="462"/>
+      <c r="J20" s="462"/>
+      <c r="K20" s="462"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>1395</v>
       </c>
-      <c r="I22" s="455" t="s">
+      <c r="I22" s="462" t="s">
         <v>1396</v>
       </c>
-      <c r="J22" s="455"/>
-      <c r="K22" s="455"/>
+      <c r="J22" s="462"/>
+      <c r="K22" s="462"/>
       <c r="N22" s="34" t="s">
         <v>1397</v>
       </c>
@@ -22403,9 +22439,9 @@
       <c r="A23" t="s">
         <v>1398</v>
       </c>
-      <c r="I23" s="455"/>
-      <c r="J23" s="455"/>
-      <c r="K23" s="455"/>
+      <c r="I23" s="462"/>
+      <c r="J23" s="462"/>
+      <c r="K23" s="462"/>
       <c r="M23">
         <v>0</v>
       </c>
@@ -22417,9 +22453,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="455"/>
-      <c r="J24" s="455"/>
-      <c r="K24" s="455"/>
+      <c r="I24" s="462"/>
+      <c r="J24" s="462"/>
+      <c r="K24" s="462"/>
       <c r="M24">
         <v>1</v>
       </c>
@@ -22431,9 +22467,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="455"/>
-      <c r="J25" s="455"/>
-      <c r="K25" s="455"/>
+      <c r="I25" s="462"/>
+      <c r="J25" s="462"/>
+      <c r="K25" s="462"/>
       <c r="M25">
         <v>2</v>
       </c>
@@ -22445,9 +22481,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="455"/>
-      <c r="J26" s="455"/>
-      <c r="K26" s="455"/>
+      <c r="I26" s="462"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="462"/>
       <c r="M26">
         <v>3</v>
       </c>
@@ -22456,9 +22492,9 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="I27" s="455"/>
-      <c r="J27" s="455"/>
-      <c r="K27" s="455"/>
+      <c r="I27" s="462"/>
+      <c r="J27" s="462"/>
+      <c r="K27" s="462"/>
       <c r="M27">
         <v>4</v>
       </c>
@@ -23071,12 +23107,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="456" t="s">
+      <c r="B1" s="463" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
       <c r="I1" s="34" t="s">
         <v>441</v>
       </c>
@@ -23251,7 +23287,7 @@
       <c r="B12" t="s">
         <v>1482</v>
       </c>
-      <c r="D12" s="457" t="s">
+      <c r="D12" s="464" t="s">
         <v>1488</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -23263,7 +23299,7 @@
       <c r="B13" t="s">
         <v>1483</v>
       </c>
-      <c r="D13" s="457"/>
+      <c r="D13" s="464"/>
       <c r="J13" t="s">
         <v>451</v>
       </c>
@@ -23272,7 +23308,7 @@
       <c r="B14" t="s">
         <v>1484</v>
       </c>
-      <c r="D14" s="457"/>
+      <c r="D14" s="464"/>
       <c r="I14" t="s">
         <v>127</v>
       </c>
@@ -23281,7 +23317,7 @@
       <c r="B15" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="D15" s="457"/>
+      <c r="D15" s="464"/>
       <c r="J15" t="s">
         <v>440</v>
       </c>
@@ -23290,7 +23326,7 @@
       <c r="B16" t="s">
         <v>1486</v>
       </c>
-      <c r="D16" s="457"/>
+      <c r="D16" s="464"/>
       <c r="J16" t="s">
         <v>463</v>
       </c>
@@ -23333,7 +23369,7 @@
       <c r="B20" t="s">
         <v>1482</v>
       </c>
-      <c r="D20" s="457" t="s">
+      <c r="D20" s="464" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -23341,13 +23377,13 @@
       <c r="B21" t="s">
         <v>1483</v>
       </c>
-      <c r="D21" s="457"/>
+      <c r="D21" s="464"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="D22" s="457"/>
+      <c r="D22" s="464"/>
       <c r="I22" t="s">
         <v>1498</v>
       </c>
@@ -23356,13 +23392,13 @@
       <c r="B23" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="D23" s="457"/>
+      <c r="D23" s="464"/>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>1496</v>
       </c>
-      <c r="D24" s="457"/>
+      <c r="D24" s="464"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" t="s">
@@ -23470,32 +23506,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="429" t="s">
+      <c r="C2" s="446" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="429"/>
-      <c r="E2" s="429"/>
-      <c r="F2" s="429"/>
-      <c r="G2" s="429"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="429"/>
-      <c r="J2" s="429"/>
-      <c r="K2" s="429"/>
-      <c r="L2" s="429"/>
+      <c r="D2" s="446"/>
+      <c r="E2" s="446"/>
+      <c r="F2" s="446"/>
+      <c r="G2" s="446"/>
+      <c r="H2" s="446"/>
+      <c r="I2" s="446"/>
+      <c r="J2" s="446"/>
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="399" t="s">
+      <c r="E3" s="397" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="359"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
+      <c r="J3" s="363"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="364"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -23526,11 +23562,11 @@
         <v>476</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="430" t="s">
+      <c r="N5" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="430"/>
-      <c r="P5" s="430"/>
+      <c r="O5" s="447"/>
+      <c r="P5" s="447"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23581,20 +23617,20 @@
         <v>81</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="425" t="s">
+      <c r="E8" s="451" t="s">
         <v>458</v>
       </c>
-      <c r="F8" s="427"/>
-      <c r="G8" s="425" t="s">
+      <c r="F8" s="453"/>
+      <c r="G8" s="451" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="426"/>
-      <c r="I8" s="427"/>
-      <c r="J8" s="425" t="s">
+      <c r="H8" s="452"/>
+      <c r="I8" s="453"/>
+      <c r="J8" s="451" t="s">
         <v>460</v>
       </c>
-      <c r="K8" s="426"/>
-      <c r="L8" s="427"/>
+      <c r="K8" s="452"/>
+      <c r="L8" s="453"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23617,14 +23653,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="425"/>
-      <c r="F9" s="427"/>
-      <c r="G9" s="425"/>
-      <c r="H9" s="426"/>
-      <c r="I9" s="427"/>
-      <c r="J9" s="425"/>
-      <c r="K9" s="426"/>
-      <c r="L9" s="427"/>
+      <c r="E9" s="451"/>
+      <c r="F9" s="453"/>
+      <c r="G9" s="451"/>
+      <c r="H9" s="452"/>
+      <c r="I9" s="453"/>
+      <c r="J9" s="451"/>
+      <c r="K9" s="452"/>
+      <c r="L9" s="453"/>
       <c r="M9" s="5" t="s">
         <v>78</v>
       </c>
@@ -23644,14 +23680,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="427"/>
-      <c r="G10" s="425"/>
-      <c r="H10" s="426"/>
-      <c r="I10" s="427"/>
-      <c r="J10" s="425"/>
-      <c r="K10" s="426"/>
-      <c r="L10" s="427"/>
+      <c r="E10" s="451"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="451"/>
+      <c r="H10" s="452"/>
+      <c r="I10" s="453"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="452"/>
+      <c r="L10" s="453"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23665,14 +23701,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="425"/>
-      <c r="F11" s="427"/>
-      <c r="G11" s="425"/>
-      <c r="H11" s="426"/>
-      <c r="I11" s="427"/>
-      <c r="J11" s="425"/>
-      <c r="K11" s="426"/>
-      <c r="L11" s="427"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="453"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="452"/>
+      <c r="I11" s="453"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="453"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23775,16 +23811,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="418" t="s">
+      <c r="E17" s="455" t="s">
         <v>461</v>
       </c>
-      <c r="F17" s="419"/>
-      <c r="G17" s="419"/>
-      <c r="H17" s="419"/>
-      <c r="I17" s="419"/>
-      <c r="J17" s="419"/>
-      <c r="K17" s="419"/>
-      <c r="L17" s="420"/>
+      <c r="F17" s="456"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="456"/>
+      <c r="I17" s="456"/>
+      <c r="J17" s="456"/>
+      <c r="K17" s="456"/>
+      <c r="L17" s="457"/>
       <c r="M17" s="34" t="s">
         <v>462</v>
       </c>
@@ -23802,40 +23838,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="370" t="s">
+      <c r="C19" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="371"/>
-      <c r="E19" s="370" t="s">
+      <c r="D19" s="376"/>
+      <c r="E19" s="375" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="371"/>
-      <c r="G19" s="370" t="s">
+      <c r="F19" s="376"/>
+      <c r="G19" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="372"/>
-      <c r="I19" s="372"/>
-      <c r="J19" s="372"/>
-      <c r="K19" s="372"/>
-      <c r="L19" s="371"/>
+      <c r="H19" s="377"/>
+      <c r="I19" s="377"/>
+      <c r="J19" s="377"/>
+      <c r="K19" s="377"/>
+      <c r="L19" s="376"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="458" t="s">
+      <c r="E21" s="465" t="s">
         <v>1238</v>
       </c>
-      <c r="F21" s="459"/>
+      <c r="F21" s="466"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="460"/>
-      <c r="F22" s="461"/>
+      <c r="E22" s="467"/>
+      <c r="F22" s="468"/>
       <c r="J22" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="460"/>
-      <c r="F23" s="461"/>
+      <c r="E23" s="467"/>
+      <c r="F23" s="468"/>
       <c r="H23" t="s">
         <v>1250</v>
       </c>
@@ -23847,8 +23883,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="462"/>
-      <c r="F24" s="463"/>
+      <c r="E24" s="469"/>
+      <c r="F24" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26021,22 +26057,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="431" t="s">
+      <c r="E3" s="424" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431" t="s">
+      <c r="F3" s="424"/>
+      <c r="G3" s="424" t="s">
         <v>409</v>
       </c>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="431"/>
-      <c r="M3" s="431" t="s">
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="424" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="431"/>
+      <c r="N3" s="424"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26047,7 +26083,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="123"/>
       <c r="D4" s="124"/>
-      <c r="E4" s="436" t="s">
+      <c r="E4" s="425" t="s">
         <v>411</v>
       </c>
       <c r="F4" s="119"/>
@@ -26075,22 +26111,22 @@
         <v>72</v>
       </c>
       <c r="D5" s="126"/>
-      <c r="E5" s="437"/>
-      <c r="F5" s="377" t="s">
+      <c r="E5" s="426"/>
+      <c r="F5" s="382" t="s">
         <v>504</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="464" t="s">
+      <c r="G5" s="383"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="500" t="s">
         <v>505</v>
       </c>
-      <c r="J5" s="465"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="444"/>
-      <c r="M5" s="464" t="s">
+      <c r="J5" s="501"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="434"/>
+      <c r="M5" s="500" t="s">
         <v>506</v>
       </c>
-      <c r="N5" s="444"/>
+      <c r="N5" s="434"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26101,16 +26137,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="127"/>
       <c r="D6" s="128"/>
-      <c r="E6" s="437"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="382"/>
-      <c r="I6" s="445"/>
-      <c r="J6" s="353"/>
-      <c r="K6" s="353"/>
-      <c r="L6" s="446"/>
-      <c r="M6" s="445"/>
-      <c r="N6" s="446"/>
+      <c r="E6" s="426"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="386"/>
+      <c r="H6" s="387"/>
+      <c r="I6" s="435"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="358"/>
+      <c r="L6" s="436"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="436"/>
       <c r="O6" s="5"/>
       <c r="P6" s="32" t="s">
         <v>73</v>
@@ -26127,16 +26163,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="437"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="445"/>
-      <c r="J7" s="353"/>
-      <c r="K7" s="353"/>
-      <c r="L7" s="446"/>
-      <c r="M7" s="445"/>
-      <c r="N7" s="446"/>
+      <c r="E7" s="426"/>
+      <c r="F7" s="385"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="387"/>
+      <c r="I7" s="435"/>
+      <c r="J7" s="358"/>
+      <c r="K7" s="358"/>
+      <c r="L7" s="436"/>
+      <c r="M7" s="435"/>
+      <c r="N7" s="436"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26155,16 +26191,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="437"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="445"/>
-      <c r="J8" s="353"/>
-      <c r="K8" s="353"/>
-      <c r="L8" s="446"/>
-      <c r="M8" s="445"/>
-      <c r="N8" s="446"/>
+      <c r="E8" s="426"/>
+      <c r="F8" s="385"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="387"/>
+      <c r="I8" s="435"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="436"/>
+      <c r="M8" s="435"/>
+      <c r="N8" s="436"/>
       <c r="O8" s="5" t="s">
         <v>78</v>
       </c>
@@ -26185,16 +26221,16 @@
         <v>81</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="437"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="445"/>
-      <c r="J9" s="353"/>
-      <c r="K9" s="353"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="445"/>
-      <c r="N9" s="446"/>
+      <c r="E9" s="426"/>
+      <c r="F9" s="385"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="387"/>
+      <c r="I9" s="435"/>
+      <c r="J9" s="358"/>
+      <c r="K9" s="358"/>
+      <c r="L9" s="436"/>
+      <c r="M9" s="435"/>
+      <c r="N9" s="436"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26211,16 +26247,16 @@
         <v>427</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="437"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="382"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="353"/>
-      <c r="K10" s="353"/>
-      <c r="L10" s="446"/>
-      <c r="M10" s="445"/>
-      <c r="N10" s="446"/>
+      <c r="E10" s="426"/>
+      <c r="F10" s="385"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="387"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="436"/>
+      <c r="M10" s="435"/>
+      <c r="N10" s="436"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26233,16 +26269,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="437"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="382"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="445"/>
-      <c r="N11" s="446"/>
+      <c r="E11" s="426"/>
+      <c r="F11" s="385"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="435"/>
+      <c r="J11" s="358"/>
+      <c r="K11" s="358"/>
+      <c r="L11" s="436"/>
+      <c r="M11" s="435"/>
+      <c r="N11" s="436"/>
       <c r="O11" s="5"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
@@ -26253,16 +26289,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="437"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="353"/>
-      <c r="K12" s="353"/>
-      <c r="L12" s="446"/>
-      <c r="M12" s="445"/>
-      <c r="N12" s="446"/>
+      <c r="E12" s="426"/>
+      <c r="F12" s="385"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="435"/>
+      <c r="J12" s="358"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="436"/>
+      <c r="M12" s="435"/>
+      <c r="N12" s="436"/>
       <c r="O12" s="5"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -26275,16 +26311,16 @@
         <v>83</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="437"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="381"/>
-      <c r="H13" s="382"/>
-      <c r="I13" s="445"/>
-      <c r="J13" s="353"/>
-      <c r="K13" s="353"/>
-      <c r="L13" s="446"/>
-      <c r="M13" s="445"/>
-      <c r="N13" s="446"/>
+      <c r="E13" s="426"/>
+      <c r="F13" s="385"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="435"/>
+      <c r="J13" s="358"/>
+      <c r="K13" s="358"/>
+      <c r="L13" s="436"/>
+      <c r="M13" s="435"/>
+      <c r="N13" s="436"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26295,16 +26331,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="445"/>
-      <c r="J14" s="353"/>
-      <c r="K14" s="353"/>
-      <c r="L14" s="446"/>
-      <c r="M14" s="445"/>
-      <c r="N14" s="446"/>
+      <c r="E14" s="426"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="387"/>
+      <c r="I14" s="435"/>
+      <c r="J14" s="358"/>
+      <c r="K14" s="358"/>
+      <c r="L14" s="436"/>
+      <c r="M14" s="435"/>
+      <c r="N14" s="436"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26315,16 +26351,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="437"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="381"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="445"/>
-      <c r="J15" s="353"/>
-      <c r="K15" s="353"/>
-      <c r="L15" s="446"/>
-      <c r="M15" s="445"/>
-      <c r="N15" s="446"/>
+      <c r="E15" s="426"/>
+      <c r="F15" s="385"/>
+      <c r="G15" s="386"/>
+      <c r="H15" s="387"/>
+      <c r="I15" s="435"/>
+      <c r="J15" s="358"/>
+      <c r="K15" s="358"/>
+      <c r="L15" s="436"/>
+      <c r="M15" s="435"/>
+      <c r="N15" s="436"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26335,16 +26371,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="437"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="381"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="445"/>
-      <c r="J16" s="353"/>
-      <c r="K16" s="353"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="445"/>
-      <c r="N16" s="446"/>
+      <c r="E16" s="426"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="435"/>
+      <c r="J16" s="358"/>
+      <c r="K16" s="358"/>
+      <c r="L16" s="436"/>
+      <c r="M16" s="435"/>
+      <c r="N16" s="436"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26357,16 +26393,16 @@
         <v>84</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="381"/>
-      <c r="H17" s="382"/>
-      <c r="I17" s="445"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="446"/>
-      <c r="M17" s="445"/>
-      <c r="N17" s="446"/>
+      <c r="E17" s="426"/>
+      <c r="F17" s="385"/>
+      <c r="G17" s="386"/>
+      <c r="H17" s="387"/>
+      <c r="I17" s="435"/>
+      <c r="J17" s="358"/>
+      <c r="K17" s="358"/>
+      <c r="L17" s="436"/>
+      <c r="M17" s="435"/>
+      <c r="N17" s="436"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26377,16 +26413,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="438"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="385"/>
-      <c r="I18" s="447"/>
-      <c r="J18" s="466"/>
-      <c r="K18" s="466"/>
-      <c r="L18" s="448"/>
-      <c r="M18" s="447"/>
-      <c r="N18" s="448"/>
+      <c r="E18" s="427"/>
+      <c r="F18" s="388"/>
+      <c r="G18" s="389"/>
+      <c r="H18" s="390"/>
+      <c r="I18" s="437"/>
+      <c r="J18" s="502"/>
+      <c r="K18" s="502"/>
+      <c r="L18" s="438"/>
+      <c r="M18" s="437"/>
+      <c r="N18" s="438"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26415,26 +26451,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="370" t="s">
+      <c r="C20" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="371"/>
+      <c r="D20" s="376"/>
       <c r="E20" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="370" t="s">
+      <c r="F20" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="372"/>
-      <c r="H20" s="372"/>
-      <c r="I20" s="372"/>
-      <c r="J20" s="372"/>
-      <c r="K20" s="372"/>
-      <c r="L20" s="371"/>
-      <c r="M20" s="370" t="s">
+      <c r="G20" s="377"/>
+      <c r="H20" s="377"/>
+      <c r="I20" s="377"/>
+      <c r="J20" s="377"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="376"/>
+      <c r="M20" s="375" t="s">
         <v>418</v>
       </c>
-      <c r="N20" s="371"/>
+      <c r="N20" s="376"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26462,39 +26498,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="430" t="s">
+      <c r="B24" s="447" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="430"/>
-      <c r="D24" s="429"/>
-      <c r="E24" s="429"/>
-      <c r="F24" s="429"/>
-      <c r="G24" s="429"/>
-      <c r="H24" s="429"/>
-      <c r="I24" s="429"/>
-      <c r="J24" s="429"/>
-      <c r="K24" s="429"/>
-      <c r="M24" s="484" t="s">
+      <c r="C24" s="447"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
+      <c r="F24" s="446"/>
+      <c r="G24" s="446"/>
+      <c r="H24" s="446"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="446"/>
+      <c r="K24" s="446"/>
+      <c r="M24" s="471" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="484"/>
-      <c r="O24" s="484"/>
+      <c r="N24" s="471"/>
+      <c r="O24" s="471"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="485" t="s">
+      <c r="B25" s="472" t="s">
         <v>782</v>
       </c>
-      <c r="C25" s="407"/>
-      <c r="D25" s="358" t="s">
+      <c r="C25" s="411"/>
+      <c r="D25" s="363" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="358"/>
-      <c r="F25" s="358"/>
-      <c r="G25" s="358"/>
-      <c r="H25" s="358"/>
-      <c r="I25" s="358"/>
-      <c r="J25" s="358"/>
-      <c r="K25" s="359"/>
+      <c r="E25" s="363"/>
+      <c r="F25" s="363"/>
+      <c r="G25" s="363"/>
+      <c r="H25" s="363"/>
+      <c r="I25" s="363"/>
+      <c r="J25" s="363"/>
+      <c r="K25" s="364"/>
       <c r="M25" s="32" t="s">
         <v>73</v>
       </c>
@@ -26506,22 +26542,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="408"/>
-      <c r="C26" s="409"/>
-      <c r="D26" s="406" t="s">
+      <c r="B26" s="412"/>
+      <c r="C26" s="413"/>
+      <c r="D26" s="410" t="s">
         <v>775</v>
       </c>
-      <c r="E26" s="407"/>
-      <c r="F26" s="479" t="s">
+      <c r="E26" s="411"/>
+      <c r="F26" s="498" t="s">
         <v>775</v>
       </c>
-      <c r="G26" s="358"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="357" t="s">
+      <c r="G26" s="363"/>
+      <c r="H26" s="364"/>
+      <c r="I26" s="362" t="s">
         <v>779</v>
       </c>
-      <c r="J26" s="358"/>
-      <c r="K26" s="359"/>
+      <c r="J26" s="363"/>
+      <c r="K26" s="364"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26536,22 +26572,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="408"/>
-      <c r="C27" s="409"/>
-      <c r="D27" s="398" t="s">
+      <c r="B27" s="412"/>
+      <c r="C27" s="413"/>
+      <c r="D27" s="407" t="s">
         <v>780</v>
       </c>
-      <c r="E27" s="409"/>
-      <c r="F27" s="408" t="s">
+      <c r="E27" s="413"/>
+      <c r="F27" s="412" t="s">
         <v>776</v>
       </c>
-      <c r="G27" s="398"/>
-      <c r="H27" s="480"/>
-      <c r="I27" s="483" t="s">
+      <c r="G27" s="407"/>
+      <c r="H27" s="483"/>
+      <c r="I27" s="482" t="s">
         <v>780</v>
       </c>
-      <c r="J27" s="398"/>
-      <c r="K27" s="480"/>
+      <c r="J27" s="407"/>
+      <c r="K27" s="483"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26566,22 +26602,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="408"/>
-      <c r="C28" s="409"/>
-      <c r="D28" s="398" t="s">
+      <c r="B28" s="412"/>
+      <c r="C28" s="413"/>
+      <c r="D28" s="407" t="s">
         <v>777</v>
       </c>
-      <c r="E28" s="409"/>
-      <c r="F28" s="408" t="s">
+      <c r="E28" s="413"/>
+      <c r="F28" s="412" t="s">
         <v>777</v>
       </c>
-      <c r="G28" s="398"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="483" t="s">
+      <c r="G28" s="407"/>
+      <c r="H28" s="483"/>
+      <c r="I28" s="482" t="s">
         <v>777</v>
       </c>
-      <c r="J28" s="398"/>
-      <c r="K28" s="480"/>
+      <c r="J28" s="407"/>
+      <c r="K28" s="483"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26590,22 +26626,22 @@
       <c r="O28" s="32"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="410"/>
-      <c r="C29" s="411"/>
-      <c r="D29" s="398" t="s">
+      <c r="B29" s="414"/>
+      <c r="C29" s="415"/>
+      <c r="D29" s="407" t="s">
         <v>778</v>
       </c>
-      <c r="E29" s="409"/>
-      <c r="F29" s="481" t="s">
+      <c r="E29" s="413"/>
+      <c r="F29" s="499" t="s">
         <v>778</v>
       </c>
-      <c r="G29" s="355"/>
-      <c r="H29" s="482"/>
-      <c r="I29" s="495" t="s">
+      <c r="G29" s="360"/>
+      <c r="H29" s="485"/>
+      <c r="I29" s="484" t="s">
         <v>778</v>
       </c>
-      <c r="J29" s="355"/>
-      <c r="K29" s="482"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="485"/>
       <c r="L29" s="22" t="s">
         <v>2</v>
       </c>
@@ -26614,149 +26650,149 @@
       <c r="O29" s="32"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="360" t="s">
+      <c r="B30" s="365" t="s">
         <v>781</v>
       </c>
-      <c r="C30" s="362"/>
-      <c r="D30" s="467" t="s">
+      <c r="C30" s="367"/>
+      <c r="D30" s="486" t="s">
         <v>458</v>
       </c>
-      <c r="E30" s="468"/>
-      <c r="F30" s="472" t="s">
+      <c r="E30" s="487"/>
+      <c r="F30" s="491" t="s">
         <v>459</v>
       </c>
-      <c r="G30" s="473"/>
-      <c r="H30" s="468"/>
-      <c r="I30" s="472" t="s">
+      <c r="G30" s="492"/>
+      <c r="H30" s="487"/>
+      <c r="I30" s="491" t="s">
         <v>460</v>
       </c>
-      <c r="J30" s="473"/>
-      <c r="K30" s="476"/>
+      <c r="J30" s="492"/>
+      <c r="K30" s="495"/>
       <c r="L30" s="5"/>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="364"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="469"/>
-      <c r="E31" s="427"/>
-      <c r="F31" s="425"/>
-      <c r="G31" s="426"/>
-      <c r="H31" s="427"/>
-      <c r="I31" s="425"/>
-      <c r="J31" s="426"/>
-      <c r="K31" s="477"/>
+      <c r="B31" s="369"/>
+      <c r="C31" s="370"/>
+      <c r="D31" s="488"/>
+      <c r="E31" s="453"/>
+      <c r="F31" s="451"/>
+      <c r="G31" s="452"/>
+      <c r="H31" s="453"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="452"/>
+      <c r="K31" s="496"/>
       <c r="L31" s="5"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="364"/>
-      <c r="C32" s="365"/>
-      <c r="D32" s="469"/>
-      <c r="E32" s="427"/>
-      <c r="F32" s="425"/>
-      <c r="G32" s="426"/>
-      <c r="H32" s="427"/>
-      <c r="I32" s="425"/>
-      <c r="J32" s="426"/>
-      <c r="K32" s="477"/>
+      <c r="B32" s="369"/>
+      <c r="C32" s="370"/>
+      <c r="D32" s="488"/>
+      <c r="E32" s="453"/>
+      <c r="F32" s="451"/>
+      <c r="G32" s="452"/>
+      <c r="H32" s="453"/>
+      <c r="I32" s="451"/>
+      <c r="J32" s="452"/>
+      <c r="K32" s="496"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="364"/>
-      <c r="C33" s="365"/>
-      <c r="D33" s="470"/>
-      <c r="E33" s="471"/>
-      <c r="F33" s="474"/>
-      <c r="G33" s="475"/>
-      <c r="H33" s="471"/>
-      <c r="I33" s="474"/>
-      <c r="J33" s="475"/>
-      <c r="K33" s="478"/>
+      <c r="B33" s="369"/>
+      <c r="C33" s="370"/>
+      <c r="D33" s="489"/>
+      <c r="E33" s="490"/>
+      <c r="F33" s="493"/>
+      <c r="G33" s="494"/>
+      <c r="H33" s="490"/>
+      <c r="I33" s="493"/>
+      <c r="J33" s="494"/>
+      <c r="K33" s="497"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="364"/>
-      <c r="C34" s="366"/>
-      <c r="D34" s="486" t="s">
+      <c r="B34" s="369"/>
+      <c r="C34" s="371"/>
+      <c r="D34" s="473" t="s">
         <v>768</v>
       </c>
-      <c r="E34" s="487"/>
-      <c r="F34" s="486" t="s">
+      <c r="E34" s="474"/>
+      <c r="F34" s="473" t="s">
         <v>480</v>
       </c>
-      <c r="G34" s="492"/>
-      <c r="H34" s="487"/>
-      <c r="I34" s="486" t="s">
+      <c r="G34" s="479"/>
+      <c r="H34" s="474"/>
+      <c r="I34" s="473" t="s">
         <v>783</v>
       </c>
-      <c r="J34" s="492"/>
-      <c r="K34" s="487"/>
+      <c r="J34" s="479"/>
+      <c r="K34" s="474"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="364"/>
-      <c r="C35" s="366"/>
-      <c r="D35" s="488"/>
-      <c r="E35" s="489"/>
-      <c r="F35" s="488"/>
-      <c r="G35" s="493"/>
-      <c r="H35" s="489"/>
-      <c r="I35" s="488"/>
-      <c r="J35" s="493"/>
-      <c r="K35" s="489"/>
+      <c r="B35" s="369"/>
+      <c r="C35" s="371"/>
+      <c r="D35" s="475"/>
+      <c r="E35" s="476"/>
+      <c r="F35" s="475"/>
+      <c r="G35" s="480"/>
+      <c r="H35" s="476"/>
+      <c r="I35" s="475"/>
+      <c r="J35" s="480"/>
+      <c r="K35" s="476"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="364"/>
-      <c r="C36" s="366"/>
-      <c r="D36" s="488"/>
-      <c r="E36" s="489"/>
-      <c r="F36" s="488"/>
-      <c r="G36" s="493"/>
-      <c r="H36" s="489"/>
-      <c r="I36" s="488"/>
-      <c r="J36" s="493"/>
-      <c r="K36" s="489"/>
+      <c r="B36" s="369"/>
+      <c r="C36" s="371"/>
+      <c r="D36" s="475"/>
+      <c r="E36" s="476"/>
+      <c r="F36" s="475"/>
+      <c r="G36" s="480"/>
+      <c r="H36" s="476"/>
+      <c r="I36" s="475"/>
+      <c r="J36" s="480"/>
+      <c r="K36" s="476"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="364"/>
-      <c r="C37" s="366"/>
-      <c r="D37" s="488"/>
-      <c r="E37" s="489"/>
-      <c r="F37" s="488"/>
-      <c r="G37" s="493"/>
-      <c r="H37" s="489"/>
-      <c r="I37" s="488"/>
-      <c r="J37" s="493"/>
-      <c r="K37" s="489"/>
+      <c r="B37" s="369"/>
+      <c r="C37" s="371"/>
+      <c r="D37" s="475"/>
+      <c r="E37" s="476"/>
+      <c r="F37" s="475"/>
+      <c r="G37" s="480"/>
+      <c r="H37" s="476"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="480"/>
+      <c r="K37" s="476"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="364"/>
-      <c r="C38" s="366"/>
-      <c r="D38" s="490"/>
-      <c r="E38" s="491"/>
-      <c r="F38" s="490"/>
-      <c r="G38" s="494"/>
-      <c r="H38" s="491"/>
-      <c r="I38" s="490"/>
-      <c r="J38" s="494"/>
-      <c r="K38" s="491"/>
+      <c r="B38" s="369"/>
+      <c r="C38" s="371"/>
+      <c r="D38" s="477"/>
+      <c r="E38" s="478"/>
+      <c r="F38" s="477"/>
+      <c r="G38" s="481"/>
+      <c r="H38" s="478"/>
+      <c r="I38" s="477"/>
+      <c r="J38" s="481"/>
+      <c r="K38" s="478"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="367"/>
-      <c r="C39" s="369"/>
-      <c r="D39" s="418" t="s">
+      <c r="B39" s="372"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="455" t="s">
         <v>461</v>
       </c>
-      <c r="E39" s="419"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="419"/>
-      <c r="H39" s="419"/>
-      <c r="I39" s="419"/>
-      <c r="J39" s="419"/>
-      <c r="K39" s="420"/>
+      <c r="E39" s="456"/>
+      <c r="F39" s="456"/>
+      <c r="G39" s="456"/>
+      <c r="H39" s="456"/>
+      <c r="I39" s="456"/>
+      <c r="J39" s="456"/>
+      <c r="K39" s="457"/>
       <c r="L39" s="34" t="s">
         <v>462</v>
       </c>
@@ -26774,36 +26810,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="370" t="s">
+      <c r="B41" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="371"/>
-      <c r="D41" s="370" t="s">
+      <c r="C41" s="376"/>
+      <c r="D41" s="375" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="371"/>
-      <c r="F41" s="370" t="s">
+      <c r="E41" s="376"/>
+      <c r="F41" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="372"/>
-      <c r="H41" s="372"/>
-      <c r="I41" s="372"/>
-      <c r="J41" s="372"/>
-      <c r="K41" s="371"/>
+      <c r="G41" s="377"/>
+      <c r="H41" s="377"/>
+      <c r="I41" s="377"/>
+      <c r="J41" s="377"/>
+      <c r="K41" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26820,16 +26855,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27372,13 +27408,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="350" t="s">
+      <c r="A5" s="355" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="352"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="357"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>46</v>
@@ -28164,7 +28200,7 @@
       <c r="L3" s="349"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="358" t="s">
         <v>1608</v>
       </c>
       <c r="B4" s="338">
@@ -28185,7 +28221,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="353"/>
+      <c r="A5" s="358"/>
       <c r="B5" s="338">
         <v>0.2</v>
       </c>
@@ -28199,12 +28235,12 @@
       <c r="J5" s="344"/>
       <c r="K5" s="344"/>
       <c r="L5" s="346"/>
-      <c r="M5" s="353" t="s">
+      <c r="M5" s="358" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="353"/>
+      <c r="A6" s="358"/>
       <c r="B6" s="338">
         <v>0.3</v>
       </c>
@@ -28218,10 +28254,10 @@
       <c r="J6" s="344"/>
       <c r="K6" s="344"/>
       <c r="L6" s="346"/>
-      <c r="M6" s="353"/>
+      <c r="M6" s="358"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="353"/>
+      <c r="A7" s="358"/>
       <c r="B7" s="338">
         <v>0.4</v>
       </c>
@@ -28239,10 +28275,10 @@
       <c r="J7" s="344"/>
       <c r="K7" s="344"/>
       <c r="L7" s="346"/>
-      <c r="M7" s="353"/>
+      <c r="M7" s="358"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="353"/>
+      <c r="A8" s="358"/>
       <c r="B8" s="338">
         <v>0.5</v>
       </c>
@@ -28256,10 +28292,10 @@
       <c r="J8" s="344"/>
       <c r="K8" s="344"/>
       <c r="L8" s="346"/>
-      <c r="M8" s="353"/>
+      <c r="M8" s="358"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="353"/>
+      <c r="A9" s="358"/>
       <c r="B9" s="338">
         <v>0.6</v>
       </c>
@@ -28273,10 +28309,10 @@
       <c r="J9" s="344"/>
       <c r="K9" s="344"/>
       <c r="L9" s="346"/>
-      <c r="M9" s="353"/>
+      <c r="M9" s="358"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="353"/>
+      <c r="A10" s="358"/>
       <c r="B10" s="338">
         <v>0.7</v>
       </c>
@@ -28290,10 +28326,10 @@
       <c r="J10" s="344"/>
       <c r="K10" s="344"/>
       <c r="L10" s="346"/>
-      <c r="M10" s="353"/>
+      <c r="M10" s="358"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="353"/>
+      <c r="A11" s="358"/>
       <c r="B11" s="338">
         <v>0.8</v>
       </c>
@@ -28307,10 +28343,10 @@
       <c r="J11" s="344"/>
       <c r="K11" s="344"/>
       <c r="L11" s="346"/>
-      <c r="M11" s="353"/>
+      <c r="M11" s="358"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A12" s="353"/>
+      <c r="A12" s="358"/>
       <c r="B12" s="338">
         <v>0.9</v>
       </c>
@@ -28324,10 +28360,10 @@
       <c r="J12" s="345"/>
       <c r="K12" s="345"/>
       <c r="L12" s="347"/>
-      <c r="M12" s="353"/>
+      <c r="M12" s="358"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A13" s="353"/>
+      <c r="A13" s="358"/>
       <c r="B13" s="338">
         <v>1</v>
       </c>
@@ -28475,85 +28511,85 @@
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="353"/>
+      <c r="B154" s="358"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="353"/>
+      <c r="B155" s="358"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="353"/>
+      <c r="B156" s="358"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="353"/>
+      <c r="B157" s="358"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="353"/>
+      <c r="B158" s="358"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="353"/>
+      <c r="B159" s="358"/>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="353"/>
+      <c r="B160" s="358"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="353"/>
+      <c r="B161" s="358"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="353"/>
+      <c r="B162" s="358"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="C167" s="356"/>
+      <c r="C167" s="361"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="C168" s="353"/>
+      <c r="C168" s="358"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="C169" s="353"/>
+      <c r="C169" s="358"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="C170" s="353"/>
+      <c r="C170" s="358"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="C171" s="353"/>
+      <c r="C171" s="358"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="C172" s="353"/>
+      <c r="C172" s="358"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="C173" s="353"/>
+      <c r="C173" s="358"/>
     </row>
     <row r="202" spans="13:13">
-      <c r="M202" s="353"/>
+      <c r="M202" s="358"/>
     </row>
     <row r="203" spans="13:13">
-      <c r="M203" s="353"/>
+      <c r="M203" s="358"/>
     </row>
     <row r="204" spans="13:13">
-      <c r="M204" s="353"/>
+      <c r="M204" s="358"/>
     </row>
     <row r="205" spans="13:13">
-      <c r="M205" s="353"/>
+      <c r="M205" s="358"/>
     </row>
     <row r="206" spans="13:13">
-      <c r="M206" s="353"/>
+      <c r="M206" s="358"/>
     </row>
     <row r="207" spans="13:13">
-      <c r="M207" s="353"/>
+      <c r="M207" s="358"/>
     </row>
     <row r="208" spans="13:13">
-      <c r="M208" s="353"/>
+      <c r="M208" s="358"/>
     </row>
     <row r="209" spans="2:13">
-      <c r="M209" s="353"/>
+      <c r="M209" s="358"/>
     </row>
     <row r="210" spans="2:13">
-      <c r="M210" s="353"/>
+      <c r="M210" s="358"/>
     </row>
     <row r="219" spans="2:13">
-      <c r="B219" s="354"/>
+      <c r="B219" s="359"/>
     </row>
     <row r="220" spans="2:13">
-      <c r="B220" s="355"/>
+      <c r="B220" s="360"/>
     </row>
     <row r="231" spans="3:12">
       <c r="C231" s="323"/>
@@ -28659,7 +28695,7 @@
   <dimension ref="A1:U255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28712,14 +28748,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="357" t="s">
+      <c r="K4" s="362" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="358"/>
-      <c r="M4" s="358"/>
-      <c r="N4" s="358"/>
-      <c r="O4" s="358"/>
-      <c r="P4" s="359"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="364"/>
       <c r="Q4" s="103" t="s">
         <v>172</v>
       </c>
@@ -28848,10 +28884,10 @@
       <c r="L8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="373" t="s">
+      <c r="M8" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="374"/>
+      <c r="N8" s="379"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -28893,8 +28929,8 @@
       <c r="L9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
       <c r="O9" s="5" t="s">
         <v>78</v>
       </c>
@@ -28930,8 +28966,8 @@
       <c r="L10" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="M10" s="374"/>
-      <c r="N10" s="374"/>
+      <c r="M10" s="379"/>
+      <c r="N10" s="379"/>
       <c r="O10" s="5"/>
       <c r="P10" s="198" t="s">
         <v>289</v>
@@ -28945,13 +28981,13 @@
       <c r="T10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="360" t="s">
+      <c r="A11" s="365" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="361"/>
-      <c r="C11" s="362"/>
-      <c r="D11" s="362"/>
-      <c r="E11" s="363"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="367"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="368"/>
       <c r="F11" t="s">
         <v>1299</v>
       </c>
@@ -28960,8 +28996,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
+      <c r="M11" s="379"/>
+      <c r="N11" s="379"/>
       <c r="O11" s="5"/>
       <c r="P11" s="198" t="s">
         <v>290</v>
@@ -28972,11 +29008,11 @@
       <c r="T11" s="32"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="364"/>
-      <c r="B12" s="365"/>
-      <c r="C12" s="365"/>
-      <c r="D12" s="365"/>
-      <c r="E12" s="366"/>
+      <c r="A12" s="369"/>
+      <c r="B12" s="370"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="371"/>
       <c r="F12" t="s">
         <v>794</v>
       </c>
@@ -28985,8 +29021,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
+      <c r="M12" s="379"/>
+      <c r="N12" s="379"/>
       <c r="O12" s="5"/>
       <c r="P12" s="198" t="s">
         <v>1150</v>
@@ -28996,11 +29032,11 @@
       <c r="T12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="364"/>
-      <c r="B13" s="365"/>
-      <c r="C13" s="365"/>
-      <c r="D13" s="365"/>
-      <c r="E13" s="366"/>
+      <c r="A13" s="369"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="371"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>83</v>
@@ -29008,8 +29044,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
+      <c r="M13" s="379"/>
+      <c r="N13" s="379"/>
       <c r="O13" s="24"/>
       <c r="P13" s="199"/>
       <c r="Q13">
@@ -29020,11 +29056,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="367"/>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="369"/>
+      <c r="A14" s="372"/>
+      <c r="B14" s="373"/>
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="374"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -29162,20 +29198,20 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="370" t="s">
+      <c r="I20" s="375" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="371"/>
-      <c r="K20" s="370" t="s">
+      <c r="J20" s="376"/>
+      <c r="K20" s="375" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="371"/>
-      <c r="M20" s="370" t="s">
+      <c r="L20" s="376"/>
+      <c r="M20" s="375" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="372"/>
-      <c r="O20" s="372"/>
-      <c r="P20" s="371"/>
+      <c r="N20" s="377"/>
+      <c r="O20" s="377"/>
+      <c r="P20" s="376"/>
       <c r="S20" t="s">
         <v>172</v>
       </c>
@@ -29253,7 +29289,7 @@
     <row r="27" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:21" ht="24" thickBot="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="500" t="s">
+      <c r="B28" s="352" t="s">
         <v>1625</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -29285,7 +29321,7 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1">
       <c r="A29" s="22"/>
       <c r="B29" s="135"/>
-      <c r="C29" s="499" t="s">
+      <c r="C29" s="351" t="s">
         <v>1340</v>
       </c>
       <c r="D29" s="150"/>
@@ -29329,7 +29365,9 @@
         <v>72</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="N30" s="22" t="s">
+        <v>1657</v>
+      </c>
       <c r="O30" s="22"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="22"/>
@@ -29344,7 +29382,7 @@
       <c r="C31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="501" t="s">
+      <c r="D31" s="353" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="22"/>
@@ -29364,7 +29402,9 @@
         <v>81</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+      <c r="N31" s="22" t="s">
+        <v>1658</v>
+      </c>
       <c r="O31" s="22"/>
       <c r="P31" s="72"/>
       <c r="Q31" s="22"/>
@@ -29379,11 +29419,9 @@
       <c r="C32" s="22" t="s">
         <v>1640</v>
       </c>
-      <c r="D32" s="501" t="s">
-        <v>1641</v>
-      </c>
+      <c r="D32" s="353"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="502" t="s">
+      <c r="F32" s="354" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="22"/>
@@ -29397,8 +29435,8 @@
         <v>1617</v>
       </c>
       <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
       <c r="P32" s="72"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
@@ -29413,10 +29451,10 @@
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="24" t="s">
-        <v>192</v>
+        <v>1655</v>
       </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="502" t="s">
+      <c r="F33" s="354" t="s">
         <v>81</v>
       </c>
       <c r="G33" s="22"/>
@@ -29430,8 +29468,8 @@
         <v>1618</v>
       </c>
       <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
       <c r="P33" s="72"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
@@ -29459,8 +29497,8 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
       <c r="P34" s="72"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
@@ -29473,7 +29511,7 @@
       <c r="B35" s="137"/>
       <c r="C35" s="61"/>
       <c r="D35" s="61" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E35" s="61"/>
       <c r="F35" s="326"/>
@@ -29532,14 +29570,16 @@
       <c r="C37" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>1659</v>
+      </c>
       <c r="E37" s="22"/>
       <c r="F37" s="72"/>
       <c r="G37" s="22" t="s">
         <v>1021</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
@@ -29570,14 +29610,16 @@
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="326"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>1656</v>
+      </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="137"/>
       <c r="L38" s="61"/>
       <c r="M38" s="61" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="N38" s="61"/>
       <c r="O38" s="61"/>
@@ -29602,7 +29644,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -29631,7 +29673,7 @@
       </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -29697,11 +29739,9 @@
       <c r="U42" s="22"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="66" t="s">
+        <v>1654</v>
+      </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -29720,7 +29760,9 @@
       <c r="U43" s="22"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="22"/>
+      <c r="A44" s="22" t="s">
+        <v>1653</v>
+      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -29728,12 +29770,14 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="L44" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -29746,10 +29790,16 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="22" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>1649</v>
+      </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>1650</v>
+      </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -29769,8 +29819,12 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="22" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>1651</v>
+      </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -29792,7 +29846,9 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="22" t="s">
+        <v>1652</v>
+      </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -31570,11 +31626,11 @@
       <c r="F124" s="22"/>
       <c r="G124" s="157"/>
       <c r="H124" s="22"/>
-      <c r="I124" s="353"/>
-      <c r="J124" s="355"/>
-      <c r="K124" s="355"/>
-      <c r="L124" s="355"/>
-      <c r="M124" s="355"/>
+      <c r="I124" s="358"/>
+      <c r="J124" s="360"/>
+      <c r="K124" s="360"/>
+      <c r="L124" s="360"/>
+      <c r="M124" s="360"/>
       <c r="N124" s="22"/>
       <c r="O124" s="22"/>
       <c r="P124" s="22"/>
@@ -31593,11 +31649,11 @@
       <c r="F125" s="22"/>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
-      <c r="I125" s="353"/>
-      <c r="J125" s="355"/>
-      <c r="K125" s="355"/>
-      <c r="L125" s="355"/>
-      <c r="M125" s="355"/>
+      <c r="I125" s="358"/>
+      <c r="J125" s="360"/>
+      <c r="K125" s="360"/>
+      <c r="L125" s="360"/>
+      <c r="M125" s="360"/>
       <c r="N125" s="22"/>
       <c r="O125" s="22"/>
       <c r="P125" s="22"/>
@@ -31616,11 +31672,11 @@
       <c r="F126" s="22"/>
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
-      <c r="I126" s="353"/>
-      <c r="J126" s="355"/>
-      <c r="K126" s="355"/>
-      <c r="L126" s="355"/>
-      <c r="M126" s="355"/>
+      <c r="I126" s="358"/>
+      <c r="J126" s="360"/>
+      <c r="K126" s="360"/>
+      <c r="L126" s="360"/>
+      <c r="M126" s="360"/>
       <c r="N126" s="22"/>
       <c r="O126" s="22"/>
       <c r="P126" s="22"/>
@@ -31639,11 +31695,11 @@
       <c r="F127" s="22"/>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
-      <c r="I127" s="353"/>
-      <c r="J127" s="355"/>
-      <c r="K127" s="355"/>
-      <c r="L127" s="355"/>
-      <c r="M127" s="355"/>
+      <c r="I127" s="358"/>
+      <c r="J127" s="360"/>
+      <c r="K127" s="360"/>
+      <c r="L127" s="360"/>
+      <c r="M127" s="360"/>
       <c r="N127" s="22"/>
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
@@ -31662,11 +31718,11 @@
       <c r="F128" s="22"/>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
-      <c r="I128" s="353"/>
-      <c r="J128" s="355"/>
-      <c r="K128" s="355"/>
-      <c r="L128" s="355"/>
-      <c r="M128" s="355"/>
+      <c r="I128" s="358"/>
+      <c r="J128" s="360"/>
+      <c r="K128" s="360"/>
+      <c r="L128" s="360"/>
+      <c r="M128" s="360"/>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
@@ -31685,11 +31741,11 @@
       <c r="F129" s="22"/>
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
-      <c r="I129" s="353"/>
-      <c r="J129" s="355"/>
-      <c r="K129" s="355"/>
-      <c r="L129" s="355"/>
-      <c r="M129" s="355"/>
+      <c r="I129" s="358"/>
+      <c r="J129" s="360"/>
+      <c r="K129" s="360"/>
+      <c r="L129" s="360"/>
+      <c r="M129" s="360"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -31708,11 +31764,11 @@
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
-      <c r="I130" s="353"/>
-      <c r="J130" s="355"/>
-      <c r="K130" s="355"/>
-      <c r="L130" s="355"/>
-      <c r="M130" s="355"/>
+      <c r="I130" s="358"/>
+      <c r="J130" s="360"/>
+      <c r="K130" s="360"/>
+      <c r="L130" s="360"/>
+      <c r="M130" s="360"/>
       <c r="N130" s="22"/>
       <c r="O130" s="22"/>
       <c r="P130" s="22"/>
@@ -31731,11 +31787,11 @@
       <c r="F131" s="22"/>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
-      <c r="I131" s="353"/>
-      <c r="J131" s="355"/>
-      <c r="K131" s="355"/>
-      <c r="L131" s="355"/>
-      <c r="M131" s="355"/>
+      <c r="I131" s="358"/>
+      <c r="J131" s="360"/>
+      <c r="K131" s="360"/>
+      <c r="L131" s="360"/>
+      <c r="M131" s="360"/>
       <c r="N131" s="22"/>
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
@@ -31754,11 +31810,11 @@
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
-      <c r="I132" s="353"/>
-      <c r="J132" s="355"/>
-      <c r="K132" s="355"/>
-      <c r="L132" s="355"/>
-      <c r="M132" s="355"/>
+      <c r="I132" s="358"/>
+      <c r="J132" s="360"/>
+      <c r="K132" s="360"/>
+      <c r="L132" s="360"/>
+      <c r="M132" s="360"/>
       <c r="N132" s="22"/>
       <c r="O132" s="22"/>
       <c r="P132" s="22"/>
@@ -31777,11 +31833,11 @@
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
-      <c r="I133" s="353"/>
-      <c r="J133" s="496"/>
-      <c r="K133" s="497"/>
-      <c r="L133" s="497"/>
-      <c r="M133" s="497"/>
+      <c r="I133" s="358"/>
+      <c r="J133" s="380"/>
+      <c r="K133" s="381"/>
+      <c r="L133" s="381"/>
+      <c r="M133" s="381"/>
       <c r="N133" s="22"/>
       <c r="O133" s="22"/>
       <c r="P133" s="22"/>
@@ -31800,11 +31856,11 @@
       <c r="F134" s="22"/>
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
-      <c r="I134" s="353"/>
-      <c r="J134" s="497"/>
-      <c r="K134" s="497"/>
-      <c r="L134" s="497"/>
-      <c r="M134" s="497"/>
+      <c r="I134" s="358"/>
+      <c r="J134" s="381"/>
+      <c r="K134" s="381"/>
+      <c r="L134" s="381"/>
+      <c r="M134" s="381"/>
       <c r="N134" s="22"/>
       <c r="O134" s="22"/>
       <c r="P134" s="22"/>
@@ -31823,11 +31879,11 @@
       <c r="F135" s="22"/>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
-      <c r="I135" s="353"/>
-      <c r="J135" s="497"/>
-      <c r="K135" s="497"/>
-      <c r="L135" s="497"/>
-      <c r="M135" s="497"/>
+      <c r="I135" s="358"/>
+      <c r="J135" s="381"/>
+      <c r="K135" s="381"/>
+      <c r="L135" s="381"/>
+      <c r="M135" s="381"/>
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
       <c r="P135" s="22"/>
@@ -31846,11 +31902,11 @@
       <c r="F136" s="22"/>
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
-      <c r="I136" s="353"/>
-      <c r="J136" s="497"/>
-      <c r="K136" s="497"/>
-      <c r="L136" s="497"/>
-      <c r="M136" s="497"/>
+      <c r="I136" s="358"/>
+      <c r="J136" s="381"/>
+      <c r="K136" s="381"/>
+      <c r="L136" s="381"/>
+      <c r="M136" s="381"/>
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
       <c r="P136" s="22"/>
@@ -31869,11 +31925,11 @@
       <c r="F137" s="22"/>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
-      <c r="I137" s="353"/>
-      <c r="J137" s="497"/>
-      <c r="K137" s="497"/>
-      <c r="L137" s="497"/>
-      <c r="M137" s="497"/>
+      <c r="I137" s="358"/>
+      <c r="J137" s="381"/>
+      <c r="K137" s="381"/>
+      <c r="L137" s="381"/>
+      <c r="M137" s="381"/>
       <c r="N137" s="22"/>
       <c r="O137" s="22"/>
       <c r="P137" s="22"/>
@@ -31892,11 +31948,11 @@
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
-      <c r="I138" s="353"/>
-      <c r="J138" s="497"/>
-      <c r="K138" s="497"/>
-      <c r="L138" s="497"/>
-      <c r="M138" s="497"/>
+      <c r="I138" s="358"/>
+      <c r="J138" s="381"/>
+      <c r="K138" s="381"/>
+      <c r="L138" s="381"/>
+      <c r="M138" s="381"/>
       <c r="N138" s="22"/>
       <c r="O138" s="22"/>
       <c r="P138" s="22"/>
@@ -33851,8 +33907,8 @@
       <c r="J223" s="22"/>
       <c r="K223" s="22"/>
       <c r="L223" s="22"/>
-      <c r="M223" s="498"/>
-      <c r="N223" s="498"/>
+      <c r="M223" s="350"/>
+      <c r="N223" s="350"/>
       <c r="O223" s="22"/>
       <c r="P223" s="22"/>
       <c r="Q223" s="22"/>
@@ -33874,7 +33930,7 @@
       <c r="J224" s="22"/>
       <c r="K224" s="22"/>
       <c r="L224" s="22"/>
-      <c r="M224" s="353"/>
+      <c r="M224" s="358"/>
       <c r="N224" s="348"/>
       <c r="O224" s="22"/>
       <c r="P224" s="22"/>
@@ -33897,7 +33953,7 @@
       <c r="J225" s="22"/>
       <c r="K225" s="22"/>
       <c r="L225" s="22"/>
-      <c r="M225" s="353"/>
+      <c r="M225" s="358"/>
       <c r="N225" s="348"/>
       <c r="O225" s="22"/>
       <c r="P225" s="22"/>
@@ -33920,7 +33976,7 @@
       <c r="J226" s="22"/>
       <c r="K226" s="22"/>
       <c r="L226" s="22"/>
-      <c r="M226" s="353"/>
+      <c r="M226" s="358"/>
       <c r="N226" s="348"/>
       <c r="O226" s="22"/>
       <c r="P226" s="22"/>
@@ -33943,7 +33999,7 @@
       <c r="J227" s="22"/>
       <c r="K227" s="22"/>
       <c r="L227" s="22"/>
-      <c r="M227" s="353"/>
+      <c r="M227" s="358"/>
       <c r="N227" s="348"/>
       <c r="O227" s="22"/>
       <c r="P227" s="22"/>
@@ -34311,8 +34367,8 @@
       <c r="J243" s="22"/>
       <c r="K243" s="22"/>
       <c r="L243" s="22"/>
-      <c r="M243" s="498"/>
-      <c r="N243" s="498"/>
+      <c r="M243" s="350"/>
+      <c r="N243" s="350"/>
       <c r="O243" s="22"/>
       <c r="P243" s="22"/>
       <c r="Q243" s="22"/>
@@ -34334,7 +34390,7 @@
       <c r="J244" s="22"/>
       <c r="K244" s="22"/>
       <c r="L244" s="22"/>
-      <c r="M244" s="353"/>
+      <c r="M244" s="358"/>
       <c r="N244" s="348"/>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
@@ -34357,7 +34413,7 @@
       <c r="J245" s="22"/>
       <c r="K245" s="22"/>
       <c r="L245" s="22"/>
-      <c r="M245" s="353"/>
+      <c r="M245" s="358"/>
       <c r="N245" s="348"/>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
@@ -34380,7 +34436,7 @@
       <c r="J246" s="22"/>
       <c r="K246" s="22"/>
       <c r="L246" s="22"/>
-      <c r="M246" s="353"/>
+      <c r="M246" s="358"/>
       <c r="N246" s="348"/>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
@@ -34403,7 +34459,7 @@
       <c r="J247" s="22"/>
       <c r="K247" s="22"/>
       <c r="L247" s="22"/>
-      <c r="M247" s="353"/>
+      <c r="M247" s="358"/>
       <c r="N247" s="348"/>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
@@ -35050,13 +35106,13 @@
         <v>72</v>
       </c>
       <c r="J3" s="136"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="387"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="391"/>
+      <c r="O3" s="391"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="392"/>
       <c r="T3" s="34" t="s">
         <v>70</v>
       </c>
@@ -35324,13 +35380,13 @@
       <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="377" t="s">
+      <c r="A12" s="382" t="s">
         <v>535</v>
       </c>
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="379"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="384"/>
       <c r="F12" t="s">
         <v>548</v>
       </c>
@@ -35353,11 +35409,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="380"/>
-      <c r="B13" s="381"/>
-      <c r="C13" s="381"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="382"/>
+      <c r="A13" s="385"/>
+      <c r="B13" s="386"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="387"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -35378,11 +35434,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="380"/>
-      <c r="B14" s="381"/>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="382"/>
+      <c r="A14" s="385"/>
+      <c r="B14" s="386"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="387"/>
       <c r="F14" t="s">
         <v>545</v>
       </c>
@@ -35405,11 +35461,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="383"/>
-      <c r="B15" s="384"/>
-      <c r="C15" s="384"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="385"/>
+      <c r="A15" s="388"/>
+      <c r="B15" s="389"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="390"/>
       <c r="F15" s="22"/>
       <c r="H15" s="159"/>
       <c r="I15" s="4" t="s">
@@ -35467,17 +35523,17 @@
       <c r="F17" s="156"/>
       <c r="G17" s="117"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="358" t="s">
+      <c r="I17" s="363" t="s">
         <v>1023</v>
       </c>
-      <c r="J17" s="358"/>
-      <c r="K17" s="358"/>
-      <c r="L17" s="358"/>
-      <c r="M17" s="358"/>
-      <c r="N17" s="358"/>
-      <c r="O17" s="358"/>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="358"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="363"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="363"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="363"/>
       <c r="S17" t="s">
         <v>249</v>
       </c>

--- a/jee_latest_st1.xlsx
+++ b/jee_latest_st1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1677">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5470,9 +5470,6 @@
     <t>HTML - JAVASCRIPT interaction</t>
   </si>
   <si>
-    <t>register</t>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; AJAX &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
@@ -5483,6 +5480,61 @@
   </si>
   <si>
     <t>return false</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; welcome/ error &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>www.amazon.com</t>
+  </si>
+  <si>
+    <t>shoes.jpg</t>
+  </si>
+  <si>
+    <t>cellohne.jpg</t>
+  </si>
+  <si>
+    <t>shirt.jpg</t>
+  </si>
+  <si>
+    <t>cache - browser memory</t>
+  </si>
+  <si>
+    <t>cellhone.jpg</t>
+  </si>
+  <si>
+    <t>5 seconds</t>
+  </si>
+  <si>
+    <t>2 seconds</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;             hi john &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;  hi / images/ video/ audio &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>HTTP TRANSACTION</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>content type of request</t>
+  </si>
+  <si>
+    <t>content type of response</t>
+  </si>
+  <si>
+    <t>action="abcd"</t>
+  </si>
+  <si>
+    <t>SERVER
+Java program</t>
   </si>
 </sst>
 </file>
@@ -6372,7 +6424,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7044,18 +7096,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7077,8 +7117,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7110,9 +7168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7122,11 +7177,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7188,57 +7291,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7266,50 +7318,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7350,18 +7366,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16598,7 +16651,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="397" t="s">
+      <c r="E6" s="404" t="s">
         <v>296</v>
       </c>
       <c r="F6" s="357"/>
@@ -16622,7 +16675,7 @@
       <c r="A7" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="D7" s="405">
+      <c r="D7" s="401">
         <v>80</v>
       </c>
       <c r="E7" s="189"/>
@@ -16640,7 +16693,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="405"/>
+      <c r="D8" s="401"/>
       <c r="E8" s="42" t="s">
         <v>298</v>
       </c>
@@ -16675,7 +16728,7 @@
       <c r="B9" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="405"/>
+      <c r="D9" s="401"/>
       <c r="E9" s="190"/>
       <c r="F9" s="193"/>
       <c r="G9" s="127"/>
@@ -16699,7 +16752,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="D10" s="405"/>
+      <c r="D10" s="401"/>
       <c r="E10" s="189"/>
       <c r="F10" s="192"/>
       <c r="G10" s="300"/>
@@ -16723,7 +16776,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="405"/>
+      <c r="D11" s="401"/>
       <c r="E11" s="42" t="s">
         <v>302</v>
       </c>
@@ -16752,7 +16805,7 @@
       <c r="B12" s="173" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="405"/>
+      <c r="D12" s="401"/>
       <c r="E12" s="190"/>
       <c r="F12" s="193"/>
       <c r="G12" s="304"/>
@@ -16773,7 +16826,7 @@
       <c r="B13" t="s">
         <v>1341</v>
       </c>
-      <c r="D13" s="405"/>
+      <c r="D13" s="401"/>
       <c r="E13" s="189"/>
       <c r="F13" s="192"/>
       <c r="G13" s="306"/>
@@ -16789,7 +16842,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="D14" s="405"/>
+      <c r="D14" s="401"/>
       <c r="E14" s="42" t="s">
         <v>307</v>
       </c>
@@ -16816,7 +16869,7 @@
       <c r="B15" t="s">
         <v>1342</v>
       </c>
-      <c r="D15" s="405"/>
+      <c r="D15" s="401"/>
       <c r="E15" s="190"/>
       <c r="F15" s="193"/>
       <c r="G15" s="310"/>
@@ -16835,7 +16888,7 @@
       <c r="B16" t="s">
         <v>1223</v>
       </c>
-      <c r="D16" s="405"/>
+      <c r="D16" s="401"/>
       <c r="E16" s="189"/>
       <c r="F16" s="192"/>
       <c r="G16" s="312"/>
@@ -16855,7 +16908,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="405"/>
+      <c r="D17" s="401"/>
       <c r="E17" s="42" t="s">
         <v>311</v>
       </c>
@@ -16883,7 +16936,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="405"/>
+      <c r="D18" s="401"/>
       <c r="E18" s="190"/>
       <c r="F18" s="193"/>
       <c r="G18" s="315"/>
@@ -16902,20 +16955,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="398" t="s">
+      <c r="E19" s="405" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="399"/>
-      <c r="G19" s="398" t="s">
+      <c r="F19" s="406"/>
+      <c r="G19" s="405" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="399"/>
-      <c r="I19" s="398" t="s">
+      <c r="H19" s="406"/>
+      <c r="I19" s="405" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="400"/>
-      <c r="K19" s="400"/>
-      <c r="L19" s="399"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="407"/>
+      <c r="L19" s="406"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16980,12 +17033,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="407"/>
-      <c r="H24" s="407"/>
-      <c r="I24" s="407"/>
-      <c r="J24" s="407"/>
-      <c r="K24" s="407"/>
-      <c r="L24" s="407"/>
+      <c r="G24" s="403"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="403"/>
+      <c r="J24" s="403"/>
+      <c r="K24" s="403"/>
+      <c r="L24" s="403"/>
       <c r="O24" s="34" t="s">
         <v>70</v>
       </c>
@@ -17404,7 +17457,7 @@
       <c r="H47" s="393" t="s">
         <v>1199</v>
       </c>
-      <c r="I47" s="406"/>
+      <c r="I47" s="402"/>
       <c r="J47" s="394"/>
     </row>
     <row r="48" spans="1:17">
@@ -18011,16 +18064,16 @@
         <v>898</v>
       </c>
       <c r="F131" s="32"/>
-      <c r="G131" s="403" t="s">
+      <c r="G131" s="399" t="s">
         <v>891</v>
       </c>
-      <c r="H131" s="403"/>
-      <c r="I131" s="403"/>
-      <c r="J131" s="403"/>
-      <c r="K131" s="403"/>
-      <c r="L131" s="403"/>
-      <c r="M131" s="403"/>
-      <c r="N131" s="403"/>
+      <c r="H131" s="399"/>
+      <c r="I131" s="399"/>
+      <c r="J131" s="399"/>
+      <c r="K131" s="399"/>
+      <c r="L131" s="399"/>
+      <c r="M131" s="399"/>
+      <c r="N131" s="399"/>
       <c r="O131" s="32"/>
     </row>
     <row r="132" spans="2:15">
@@ -18157,29 +18210,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="32"/>
-      <c r="G141" s="404"/>
-      <c r="H141" s="404"/>
-      <c r="I141" s="404"/>
-      <c r="J141" s="404"/>
-      <c r="K141" s="404"/>
-      <c r="L141" s="404"/>
-      <c r="M141" s="404"/>
-      <c r="N141" s="404"/>
-      <c r="O141" s="404"/>
+      <c r="G141" s="400"/>
+      <c r="H141" s="400"/>
+      <c r="I141" s="400"/>
+      <c r="J141" s="400"/>
+      <c r="K141" s="400"/>
+      <c r="L141" s="400"/>
+      <c r="M141" s="400"/>
+      <c r="N141" s="400"/>
+      <c r="O141" s="400"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="404"/>
-      <c r="H142" s="404"/>
-      <c r="I142" s="404"/>
-      <c r="J142" s="404"/>
-      <c r="K142" s="404"/>
-      <c r="L142" s="404"/>
-      <c r="M142" s="404"/>
-      <c r="N142" s="404"/>
-      <c r="O142" s="404"/>
+      <c r="G142" s="400"/>
+      <c r="H142" s="400"/>
+      <c r="I142" s="400"/>
+      <c r="J142" s="400"/>
+      <c r="K142" s="400"/>
+      <c r="L142" s="400"/>
+      <c r="M142" s="400"/>
+      <c r="N142" s="400"/>
+      <c r="O142" s="400"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18223,7 +18276,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="401" t="s">
+      <c r="D158" s="397" t="s">
         <v>1165</v>
       </c>
       <c r="E158" s="58"/>
@@ -18236,7 +18289,7 @@
       <c r="L158" s="194"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="402"/>
+      <c r="D159" s="398"/>
       <c r="E159" s="258" t="s">
         <v>1163</v>
       </c>
@@ -18258,7 +18311,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="402"/>
+      <c r="D160" s="398"/>
       <c r="E160" s="191"/>
       <c r="F160" s="195"/>
       <c r="G160" s="191"/>
@@ -18269,7 +18322,7 @@
       <c r="L160" s="195"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="402"/>
+      <c r="D161" s="398"/>
       <c r="E161" s="260"/>
       <c r="F161" s="261"/>
       <c r="G161" s="260"/>
@@ -18280,7 +18333,7 @@
       <c r="L161" s="261"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="402"/>
+      <c r="D162" s="398"/>
       <c r="E162" s="262"/>
       <c r="F162" s="263"/>
       <c r="G162" s="262"/>
@@ -18294,7 +18347,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="402"/>
+      <c r="D163" s="398"/>
       <c r="E163" s="264"/>
       <c r="F163" s="265"/>
       <c r="G163" s="264"/>
@@ -18305,7 +18358,7 @@
       <c r="L163" s="265"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="402"/>
+      <c r="D164" s="398"/>
       <c r="E164" s="58"/>
       <c r="F164" s="194"/>
       <c r="G164" s="58"/>
@@ -18316,7 +18369,7 @@
       <c r="L164" s="194"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="402"/>
+      <c r="D165" s="398"/>
       <c r="E165" s="51"/>
       <c r="F165" s="257"/>
       <c r="G165" s="51"/>
@@ -18330,7 +18383,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="402"/>
+      <c r="D166" s="398"/>
       <c r="E166" s="191"/>
       <c r="F166" s="195"/>
       <c r="G166" s="191"/>
@@ -18341,7 +18394,7 @@
       <c r="L166" s="195"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="402"/>
+      <c r="D167" s="398"/>
       <c r="E167" s="58"/>
       <c r="F167" s="194"/>
       <c r="G167" s="52"/>
@@ -18352,7 +18405,7 @@
       <c r="L167" s="257"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="402"/>
+      <c r="D168" s="398"/>
       <c r="E168" s="51"/>
       <c r="F168" s="257"/>
       <c r="G168" s="52"/>
@@ -18366,7 +18419,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="402"/>
+      <c r="D169" s="398"/>
       <c r="E169" s="191"/>
       <c r="F169" s="195"/>
       <c r="G169" s="266"/>
@@ -18832,17 +18885,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19105,7 +19158,7 @@
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="419">
+      <c r="C21" s="410">
         <v>43909</v>
       </c>
       <c r="D21" s="408"/>
@@ -19125,13 +19178,13 @@
       <c r="N21" s="408"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="419"/>
+      <c r="C22" s="410"/>
       <c r="D22" s="408"/>
       <c r="E22" s="408"/>
       <c r="F22" s="408"/>
       <c r="G22" s="408"/>
       <c r="H22" s="408"/>
-      <c r="I22" s="423" t="s">
+      <c r="I22" s="409" t="s">
         <v>350</v>
       </c>
       <c r="J22" s="408"/>
@@ -19143,13 +19196,13 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="419"/>
+      <c r="C23" s="410"/>
       <c r="D23" s="408"/>
       <c r="E23" s="408"/>
       <c r="F23" s="408"/>
       <c r="G23" s="408"/>
       <c r="H23" s="408"/>
-      <c r="I23" s="423"/>
+      <c r="I23" s="409"/>
       <c r="J23" s="408"/>
       <c r="K23" s="408"/>
       <c r="L23" s="408" t="s">
@@ -19159,13 +19212,13 @@
       <c r="N23" s="408"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="419"/>
+      <c r="C24" s="410"/>
       <c r="D24" s="408"/>
       <c r="E24" s="408"/>
       <c r="F24" s="408"/>
       <c r="G24" s="408"/>
       <c r="H24" s="408"/>
-      <c r="I24" s="423"/>
+      <c r="I24" s="409"/>
       <c r="J24" s="408"/>
       <c r="K24" s="408"/>
       <c r="L24" s="106" t="s">
@@ -19198,16 +19251,16 @@
       <c r="C26" s="104">
         <v>43911</v>
       </c>
-      <c r="D26" s="409"/>
-      <c r="E26" s="410"/>
-      <c r="F26" s="410"/>
-      <c r="G26" s="410"/>
-      <c r="H26" s="411"/>
-      <c r="I26" s="416" t="s">
+      <c r="D26" s="411"/>
+      <c r="E26" s="412"/>
+      <c r="F26" s="412"/>
+      <c r="G26" s="412"/>
+      <c r="H26" s="413"/>
+      <c r="I26" s="418" t="s">
         <v>350</v>
       </c>
-      <c r="J26" s="409"/>
-      <c r="K26" s="411"/>
+      <c r="J26" s="411"/>
+      <c r="K26" s="413"/>
       <c r="L26" s="105" t="s">
         <v>351</v>
       </c>
@@ -19216,14 +19269,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="32"/>
-      <c r="D27" s="412"/>
-      <c r="E27" s="407"/>
-      <c r="F27" s="407"/>
-      <c r="G27" s="407"/>
-      <c r="H27" s="413"/>
-      <c r="I27" s="417"/>
-      <c r="J27" s="412"/>
-      <c r="K27" s="413"/>
+      <c r="D27" s="414"/>
+      <c r="E27" s="403"/>
+      <c r="F27" s="403"/>
+      <c r="G27" s="403"/>
+      <c r="H27" s="415"/>
+      <c r="I27" s="419"/>
+      <c r="J27" s="414"/>
+      <c r="K27" s="415"/>
       <c r="L27" s="408" t="s">
         <v>355</v>
       </c>
@@ -19232,14 +19285,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="32"/>
-      <c r="D28" s="412"/>
-      <c r="E28" s="407"/>
-      <c r="F28" s="407"/>
-      <c r="G28" s="407"/>
-      <c r="H28" s="413"/>
-      <c r="I28" s="417"/>
-      <c r="J28" s="412"/>
-      <c r="K28" s="413"/>
+      <c r="D28" s="414"/>
+      <c r="E28" s="403"/>
+      <c r="F28" s="403"/>
+      <c r="G28" s="403"/>
+      <c r="H28" s="415"/>
+      <c r="I28" s="419"/>
+      <c r="J28" s="414"/>
+      <c r="K28" s="415"/>
       <c r="L28" s="106" t="s">
         <v>350</v>
       </c>
@@ -19248,14 +19301,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="32"/>
-      <c r="D29" s="414"/>
+      <c r="D29" s="416"/>
       <c r="E29" s="395"/>
       <c r="F29" s="395"/>
       <c r="G29" s="395"/>
-      <c r="H29" s="415"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="414"/>
-      <c r="K29" s="415"/>
+      <c r="H29" s="417"/>
+      <c r="I29" s="420"/>
+      <c r="J29" s="416"/>
+      <c r="K29" s="417"/>
       <c r="L29" s="107" t="s">
         <v>356</v>
       </c>
@@ -19320,7 +19373,7 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="419">
+      <c r="C34" s="410">
         <v>43909</v>
       </c>
       <c r="D34" s="408"/>
@@ -19328,7 +19381,7 @@
       <c r="F34" s="408"/>
       <c r="G34" s="408"/>
       <c r="H34" s="408"/>
-      <c r="I34" s="420"/>
+      <c r="I34" s="421"/>
       <c r="J34" s="408"/>
       <c r="K34" s="408"/>
       <c r="L34" s="408" t="s">
@@ -19338,13 +19391,13 @@
       <c r="N34" s="408"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="419"/>
+      <c r="C35" s="410"/>
       <c r="D35" s="408"/>
       <c r="E35" s="408"/>
       <c r="F35" s="408"/>
       <c r="G35" s="408"/>
       <c r="H35" s="408"/>
-      <c r="I35" s="421"/>
+      <c r="I35" s="422"/>
       <c r="J35" s="408"/>
       <c r="K35" s="408"/>
       <c r="L35" s="105" t="s">
@@ -19354,13 +19407,13 @@
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="419"/>
+      <c r="C36" s="410"/>
       <c r="D36" s="408"/>
       <c r="E36" s="408"/>
       <c r="F36" s="408"/>
       <c r="G36" s="408"/>
       <c r="H36" s="408"/>
-      <c r="I36" s="421"/>
+      <c r="I36" s="422"/>
       <c r="J36" s="408"/>
       <c r="K36" s="408"/>
       <c r="L36" s="408" t="s">
@@ -19370,13 +19423,13 @@
       <c r="N36" s="408"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="419"/>
+      <c r="C37" s="410"/>
       <c r="D37" s="408"/>
       <c r="E37" s="408"/>
       <c r="F37" s="408"/>
       <c r="G37" s="408"/>
       <c r="H37" s="408"/>
-      <c r="I37" s="422"/>
+      <c r="I37" s="423"/>
       <c r="J37" s="408"/>
       <c r="K37" s="408"/>
       <c r="L37" s="106" t="s">
@@ -19409,14 +19462,14 @@
       <c r="C39" s="104">
         <v>43911</v>
       </c>
-      <c r="D39" s="409"/>
-      <c r="E39" s="410"/>
-      <c r="F39" s="410"/>
-      <c r="G39" s="410"/>
-      <c r="H39" s="411"/>
-      <c r="I39" s="416"/>
-      <c r="J39" s="409"/>
-      <c r="K39" s="411"/>
+      <c r="D39" s="411"/>
+      <c r="E39" s="412"/>
+      <c r="F39" s="412"/>
+      <c r="G39" s="412"/>
+      <c r="H39" s="413"/>
+      <c r="I39" s="418"/>
+      <c r="J39" s="411"/>
+      <c r="K39" s="413"/>
       <c r="L39" s="105" t="s">
         <v>351</v>
       </c>
@@ -19425,14 +19478,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="32"/>
-      <c r="D40" s="412"/>
-      <c r="E40" s="407"/>
-      <c r="F40" s="407"/>
-      <c r="G40" s="407"/>
-      <c r="H40" s="413"/>
-      <c r="I40" s="417"/>
-      <c r="J40" s="412"/>
-      <c r="K40" s="413"/>
+      <c r="D40" s="414"/>
+      <c r="E40" s="403"/>
+      <c r="F40" s="403"/>
+      <c r="G40" s="403"/>
+      <c r="H40" s="415"/>
+      <c r="I40" s="419"/>
+      <c r="J40" s="414"/>
+      <c r="K40" s="415"/>
       <c r="L40" s="408" t="s">
         <v>355</v>
       </c>
@@ -19441,14 +19494,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="32"/>
-      <c r="D41" s="412"/>
-      <c r="E41" s="407"/>
-      <c r="F41" s="407"/>
-      <c r="G41" s="407"/>
-      <c r="H41" s="413"/>
-      <c r="I41" s="418"/>
-      <c r="J41" s="412"/>
-      <c r="K41" s="413"/>
+      <c r="D41" s="414"/>
+      <c r="E41" s="403"/>
+      <c r="F41" s="403"/>
+      <c r="G41" s="403"/>
+      <c r="H41" s="415"/>
+      <c r="I41" s="420"/>
+      <c r="J41" s="414"/>
+      <c r="K41" s="415"/>
       <c r="L41" s="106" t="s">
         <v>357</v>
       </c>
@@ -19457,16 +19510,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="32"/>
-      <c r="D42" s="414"/>
+      <c r="D42" s="416"/>
       <c r="E42" s="395"/>
       <c r="F42" s="395"/>
       <c r="G42" s="395"/>
-      <c r="H42" s="415"/>
+      <c r="H42" s="417"/>
       <c r="I42" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="J42" s="414"/>
-      <c r="K42" s="415"/>
+      <c r="J42" s="416"/>
+      <c r="K42" s="417"/>
       <c r="L42" s="107" t="s">
         <v>356</v>
       </c>
@@ -19778,12 +19831,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -19791,17 +19849,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19823,29 +19876,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="445" t="s">
+      <c r="B2" s="434" t="s">
         <v>926</v>
       </c>
-      <c r="C2" s="445"/>
-      <c r="D2" s="445"/>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-      <c r="L2" s="445"/>
-      <c r="M2" s="445"/>
-      <c r="N2" s="445"/>
-      <c r="O2" s="445"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
-      <c r="R2" s="445"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
-      <c r="U2" s="445"/>
-      <c r="V2" s="445"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="434"/>
+      <c r="M2" s="434"/>
+      <c r="N2" s="434"/>
+      <c r="O2" s="434"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
+      <c r="R2" s="434"/>
+      <c r="S2" s="434"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="434"/>
+      <c r="V2" s="434"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -19878,22 +19931,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="424" t="s">
+      <c r="G5" s="437" t="s">
         <v>408</v>
       </c>
-      <c r="H5" s="424"/>
-      <c r="I5" s="424" t="s">
+      <c r="H5" s="437"/>
+      <c r="I5" s="437" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="424"/>
-      <c r="K5" s="424"/>
-      <c r="L5" s="424"/>
-      <c r="M5" s="424"/>
-      <c r="N5" s="424"/>
-      <c r="O5" s="424" t="s">
+      <c r="J5" s="437"/>
+      <c r="K5" s="437"/>
+      <c r="L5" s="437"/>
+      <c r="M5" s="437"/>
+      <c r="N5" s="437"/>
+      <c r="O5" s="437" t="s">
         <v>410</v>
       </c>
-      <c r="P5" s="424"/>
+      <c r="P5" s="437"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19905,7 +19958,7 @@
       <c r="D6" s="123"/>
       <c r="E6" s="124"/>
       <c r="F6" s="126"/>
-      <c r="G6" s="425" t="s">
+      <c r="G6" s="442" t="s">
         <v>411</v>
       </c>
       <c r="H6" s="99"/>
@@ -19934,26 +19987,26 @@
       </c>
       <c r="E7" s="126"/>
       <c r="F7" s="126"/>
-      <c r="G7" s="426"/>
-      <c r="H7" s="428" t="s">
+      <c r="G7" s="443"/>
+      <c r="H7" s="445" t="s">
         <v>413</v>
       </c>
-      <c r="I7" s="431" t="s">
+      <c r="I7" s="448" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="432"/>
-      <c r="K7" s="433" t="s">
+      <c r="J7" s="449"/>
+      <c r="K7" s="450" t="s">
         <v>415</v>
       </c>
-      <c r="L7" s="434"/>
-      <c r="M7" s="431" t="s">
+      <c r="L7" s="451"/>
+      <c r="M7" s="448" t="s">
         <v>416</v>
       </c>
-      <c r="N7" s="432"/>
-      <c r="O7" s="439" t="s">
+      <c r="N7" s="449"/>
+      <c r="O7" s="456" t="s">
         <v>417</v>
       </c>
-      <c r="P7" s="440"/>
+      <c r="P7" s="457"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19965,16 +20018,16 @@
       <c r="D8" s="127"/>
       <c r="E8" s="128"/>
       <c r="F8" s="126"/>
-      <c r="G8" s="426"/>
-      <c r="H8" s="429"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="446"/>
       <c r="I8" s="369"/>
       <c r="J8" s="371"/>
-      <c r="K8" s="435"/>
-      <c r="L8" s="436"/>
+      <c r="K8" s="452"/>
+      <c r="L8" s="453"/>
       <c r="M8" s="369"/>
       <c r="N8" s="371"/>
-      <c r="O8" s="441"/>
-      <c r="P8" s="442"/>
+      <c r="O8" s="458"/>
+      <c r="P8" s="459"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="32" t="s">
         <v>73</v>
@@ -19992,16 +20045,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="426"/>
-      <c r="H9" s="429"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="446"/>
       <c r="I9" s="369"/>
       <c r="J9" s="371"/>
-      <c r="K9" s="435"/>
-      <c r="L9" s="436"/>
+      <c r="K9" s="452"/>
+      <c r="L9" s="453"/>
       <c r="M9" s="369"/>
       <c r="N9" s="371"/>
-      <c r="O9" s="441"/>
-      <c r="P9" s="442"/>
+      <c r="O9" s="458"/>
+      <c r="P9" s="459"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20021,16 +20074,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="426"/>
-      <c r="H10" s="429"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="446"/>
       <c r="I10" s="369"/>
       <c r="J10" s="371"/>
-      <c r="K10" s="435"/>
-      <c r="L10" s="436"/>
+      <c r="K10" s="452"/>
+      <c r="L10" s="453"/>
       <c r="M10" s="369"/>
       <c r="N10" s="371"/>
-      <c r="O10" s="441"/>
-      <c r="P10" s="442"/>
+      <c r="O10" s="458"/>
+      <c r="P10" s="459"/>
       <c r="Q10" s="5" t="s">
         <v>78</v>
       </c>
@@ -20046,16 +20099,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="426"/>
-      <c r="H11" s="429"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="446"/>
       <c r="I11" s="369"/>
       <c r="J11" s="371"/>
-      <c r="K11" s="435"/>
-      <c r="L11" s="436"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="453"/>
       <c r="M11" s="369"/>
       <c r="N11" s="371"/>
-      <c r="O11" s="441"/>
-      <c r="P11" s="442"/>
+      <c r="O11" s="458"/>
+      <c r="P11" s="459"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20073,16 +20126,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="426"/>
-      <c r="H12" s="429"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="446"/>
       <c r="I12" s="369"/>
       <c r="J12" s="371"/>
-      <c r="K12" s="435"/>
-      <c r="L12" s="436"/>
+      <c r="K12" s="452"/>
+      <c r="L12" s="453"/>
       <c r="M12" s="369"/>
       <c r="N12" s="371"/>
-      <c r="O12" s="441"/>
-      <c r="P12" s="442"/>
+      <c r="O12" s="458"/>
+      <c r="P12" s="459"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20096,16 +20149,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="429"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="446"/>
       <c r="I13" s="369"/>
       <c r="J13" s="371"/>
-      <c r="K13" s="435"/>
-      <c r="L13" s="436"/>
+      <c r="K13" s="452"/>
+      <c r="L13" s="453"/>
       <c r="M13" s="369"/>
       <c r="N13" s="371"/>
-      <c r="O13" s="441"/>
-      <c r="P13" s="442"/>
+      <c r="O13" s="458"/>
+      <c r="P13" s="459"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -20117,16 +20170,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="426"/>
-      <c r="H14" s="429"/>
+      <c r="G14" s="443"/>
+      <c r="H14" s="446"/>
       <c r="I14" s="369"/>
       <c r="J14" s="371"/>
-      <c r="K14" s="435"/>
-      <c r="L14" s="436"/>
+      <c r="K14" s="452"/>
+      <c r="L14" s="453"/>
       <c r="M14" s="369"/>
       <c r="N14" s="371"/>
-      <c r="O14" s="441"/>
-      <c r="P14" s="442"/>
+      <c r="O14" s="458"/>
+      <c r="P14" s="459"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
@@ -20140,16 +20193,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="426"/>
-      <c r="H15" s="429"/>
+      <c r="G15" s="443"/>
+      <c r="H15" s="446"/>
       <c r="I15" s="369"/>
       <c r="J15" s="371"/>
-      <c r="K15" s="435"/>
-      <c r="L15" s="436"/>
+      <c r="K15" s="452"/>
+      <c r="L15" s="453"/>
       <c r="M15" s="369"/>
       <c r="N15" s="371"/>
-      <c r="O15" s="441"/>
-      <c r="P15" s="442"/>
+      <c r="O15" s="458"/>
+      <c r="P15" s="459"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20161,16 +20214,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="426"/>
-      <c r="H16" s="429"/>
+      <c r="G16" s="443"/>
+      <c r="H16" s="446"/>
       <c r="I16" s="369"/>
       <c r="J16" s="371"/>
-      <c r="K16" s="435"/>
-      <c r="L16" s="436"/>
+      <c r="K16" s="452"/>
+      <c r="L16" s="453"/>
       <c r="M16" s="369"/>
       <c r="N16" s="371"/>
-      <c r="O16" s="441"/>
-      <c r="P16" s="442"/>
+      <c r="O16" s="458"/>
+      <c r="P16" s="459"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20182,16 +20235,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="426"/>
-      <c r="H17" s="429"/>
+      <c r="G17" s="443"/>
+      <c r="H17" s="446"/>
       <c r="I17" s="369"/>
       <c r="J17" s="371"/>
-      <c r="K17" s="435"/>
-      <c r="L17" s="436"/>
+      <c r="K17" s="452"/>
+      <c r="L17" s="453"/>
       <c r="M17" s="369"/>
       <c r="N17" s="371"/>
-      <c r="O17" s="441"/>
-      <c r="P17" s="442"/>
+      <c r="O17" s="458"/>
+      <c r="P17" s="459"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20203,16 +20256,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="426"/>
-      <c r="H18" s="429"/>
+      <c r="G18" s="443"/>
+      <c r="H18" s="446"/>
       <c r="I18" s="369"/>
       <c r="J18" s="371"/>
-      <c r="K18" s="435"/>
-      <c r="L18" s="436"/>
+      <c r="K18" s="452"/>
+      <c r="L18" s="453"/>
       <c r="M18" s="369"/>
       <c r="N18" s="371"/>
-      <c r="O18" s="441"/>
-      <c r="P18" s="442"/>
+      <c r="O18" s="458"/>
+      <c r="P18" s="459"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20226,16 +20279,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="426"/>
-      <c r="H19" s="429"/>
+      <c r="G19" s="443"/>
+      <c r="H19" s="446"/>
       <c r="I19" s="369"/>
       <c r="J19" s="371"/>
-      <c r="K19" s="435"/>
-      <c r="L19" s="436"/>
+      <c r="K19" s="452"/>
+      <c r="L19" s="453"/>
       <c r="M19" s="369"/>
       <c r="N19" s="371"/>
-      <c r="O19" s="441"/>
-      <c r="P19" s="442"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="459"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20247,16 +20300,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="430"/>
+      <c r="G20" s="444"/>
+      <c r="H20" s="447"/>
       <c r="I20" s="372"/>
       <c r="J20" s="374"/>
-      <c r="K20" s="437"/>
-      <c r="L20" s="438"/>
+      <c r="K20" s="454"/>
+      <c r="L20" s="455"/>
       <c r="M20" s="372"/>
       <c r="N20" s="374"/>
-      <c r="O20" s="443"/>
-      <c r="P20" s="444"/>
+      <c r="O20" s="460"/>
+      <c r="P20" s="461"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20337,49 +20390,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="445" t="s">
+      <c r="B25" s="434" t="s">
         <v>925</v>
       </c>
-      <c r="C25" s="445"/>
-      <c r="D25" s="445"/>
-      <c r="E25" s="445"/>
-      <c r="F25" s="445"/>
-      <c r="G25" s="445"/>
-      <c r="H25" s="445"/>
-      <c r="I25" s="445"/>
-      <c r="J25" s="445"/>
-      <c r="K25" s="445"/>
-      <c r="L25" s="445"/>
-      <c r="M25" s="445"/>
-      <c r="N25" s="445"/>
-      <c r="O25" s="445"/>
-      <c r="P25" s="445"/>
-      <c r="Q25" s="445"/>
-      <c r="R25" s="445"/>
-      <c r="S25" s="445"/>
-      <c r="T25" s="445"/>
-      <c r="U25" s="445"/>
-      <c r="V25" s="445"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="434"/>
+      <c r="F25" s="434"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="434"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="434"/>
+      <c r="K25" s="434"/>
+      <c r="L25" s="434"/>
+      <c r="M25" s="434"/>
+      <c r="N25" s="434"/>
+      <c r="O25" s="434"/>
+      <c r="P25" s="434"/>
+      <c r="Q25" s="434"/>
+      <c r="R25" s="434"/>
+      <c r="S25" s="434"/>
+      <c r="T25" s="434"/>
+      <c r="U25" s="434"/>
+      <c r="V25" s="434"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="446" t="s">
+      <c r="C26" s="435" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="446"/>
-      <c r="E26" s="446"/>
-      <c r="F26" s="446"/>
-      <c r="G26" s="446"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="446"/>
-      <c r="K26" s="446"/>
-      <c r="L26" s="446"/>
-      <c r="M26" s="446"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="435"/>
+      <c r="F26" s="435"/>
+      <c r="G26" s="435"/>
+      <c r="H26" s="435"/>
+      <c r="I26" s="435"/>
+      <c r="J26" s="435"/>
+      <c r="K26" s="435"/>
+      <c r="L26" s="435"/>
+      <c r="M26" s="435"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="397" t="s">
+      <c r="E27" s="404" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="356"/>
@@ -20422,11 +20475,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="447" t="s">
+      <c r="O29" s="436" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="447"/>
-      <c r="Q29" s="447"/>
+      <c r="P29" s="436"/>
+      <c r="Q29" s="436"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20471,21 +20524,21 @@
         <v>81</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="451" t="s">
+      <c r="E32" s="431" t="s">
         <v>929</v>
       </c>
-      <c r="F32" s="452"/>
-      <c r="G32" s="453"/>
-      <c r="H32" s="451" t="s">
+      <c r="F32" s="432"/>
+      <c r="G32" s="433"/>
+      <c r="H32" s="431" t="s">
         <v>930</v>
       </c>
-      <c r="I32" s="452"/>
-      <c r="J32" s="453"/>
-      <c r="K32" s="451" t="s">
+      <c r="I32" s="432"/>
+      <c r="J32" s="433"/>
+      <c r="K32" s="431" t="s">
         <v>931</v>
       </c>
-      <c r="L32" s="452"/>
-      <c r="M32" s="453"/>
+      <c r="L32" s="432"/>
+      <c r="M32" s="433"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20502,15 +20555,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="451"/>
-      <c r="F33" s="452"/>
-      <c r="G33" s="453"/>
-      <c r="H33" s="451"/>
-      <c r="I33" s="452"/>
-      <c r="J33" s="453"/>
-      <c r="K33" s="451"/>
-      <c r="L33" s="452"/>
-      <c r="M33" s="453"/>
+      <c r="E33" s="431"/>
+      <c r="F33" s="432"/>
+      <c r="G33" s="433"/>
+      <c r="H33" s="431"/>
+      <c r="I33" s="432"/>
+      <c r="J33" s="433"/>
+      <c r="K33" s="431"/>
+      <c r="L33" s="432"/>
+      <c r="M33" s="433"/>
       <c r="N33" s="5" t="s">
         <v>78</v>
       </c>
@@ -20527,15 +20580,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="451"/>
-      <c r="F34" s="452"/>
-      <c r="G34" s="453"/>
-      <c r="H34" s="451"/>
-      <c r="I34" s="452"/>
-      <c r="J34" s="453"/>
-      <c r="K34" s="451"/>
-      <c r="L34" s="452"/>
-      <c r="M34" s="453"/>
+      <c r="E34" s="431"/>
+      <c r="F34" s="432"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="431"/>
+      <c r="I34" s="432"/>
+      <c r="J34" s="433"/>
+      <c r="K34" s="431"/>
+      <c r="L34" s="432"/>
+      <c r="M34" s="433"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20546,15 +20599,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="451"/>
-      <c r="F35" s="452"/>
-      <c r="G35" s="453"/>
-      <c r="H35" s="451"/>
-      <c r="I35" s="452"/>
-      <c r="J35" s="453"/>
-      <c r="K35" s="451"/>
-      <c r="L35" s="452"/>
-      <c r="M35" s="453"/>
+      <c r="E35" s="431"/>
+      <c r="F35" s="432"/>
+      <c r="G35" s="433"/>
+      <c r="H35" s="431"/>
+      <c r="I35" s="432"/>
+      <c r="J35" s="433"/>
+      <c r="K35" s="431"/>
+      <c r="L35" s="432"/>
+      <c r="M35" s="433"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -20685,15 +20738,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="455"/>
-      <c r="F42" s="456"/>
-      <c r="G42" s="456"/>
-      <c r="H42" s="456"/>
-      <c r="I42" s="456"/>
-      <c r="J42" s="456"/>
-      <c r="K42" s="456"/>
-      <c r="L42" s="456"/>
-      <c r="M42" s="457"/>
+      <c r="E42" s="424"/>
+      <c r="F42" s="425"/>
+      <c r="G42" s="425"/>
+      <c r="H42" s="425"/>
+      <c r="I42" s="425"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="425"/>
+      <c r="L42" s="425"/>
+      <c r="M42" s="426"/>
       <c r="N42" s="34" t="s">
         <v>462</v>
       </c>
@@ -20734,51 +20787,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="445" t="s">
+      <c r="B47" s="434" t="s">
         <v>927</v>
       </c>
-      <c r="C47" s="445"/>
-      <c r="D47" s="445"/>
-      <c r="E47" s="445"/>
-      <c r="F47" s="445"/>
-      <c r="G47" s="445"/>
-      <c r="H47" s="445"/>
-      <c r="I47" s="445"/>
-      <c r="J47" s="445"/>
-      <c r="K47" s="445"/>
-      <c r="L47" s="445"/>
-      <c r="M47" s="445"/>
-      <c r="N47" s="445"/>
-      <c r="O47" s="445"/>
-      <c r="P47" s="445"/>
-      <c r="Q47" s="445"/>
-      <c r="R47" s="445"/>
-      <c r="S47" s="445"/>
-      <c r="T47" s="445"/>
-      <c r="U47" s="445"/>
-      <c r="V47" s="445"/>
+      <c r="C47" s="434"/>
+      <c r="D47" s="434"/>
+      <c r="E47" s="434"/>
+      <c r="F47" s="434"/>
+      <c r="G47" s="434"/>
+      <c r="H47" s="434"/>
+      <c r="I47" s="434"/>
+      <c r="J47" s="434"/>
+      <c r="K47" s="434"/>
+      <c r="L47" s="434"/>
+      <c r="M47" s="434"/>
+      <c r="N47" s="434"/>
+      <c r="O47" s="434"/>
+      <c r="P47" s="434"/>
+      <c r="Q47" s="434"/>
+      <c r="R47" s="434"/>
+      <c r="S47" s="434"/>
+      <c r="T47" s="434"/>
+      <c r="U47" s="434"/>
+      <c r="V47" s="434"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="446" t="s">
+      <c r="C48" s="435" t="s">
         <v>457</v>
       </c>
-      <c r="D48" s="446"/>
-      <c r="E48" s="446"/>
-      <c r="F48" s="446"/>
-      <c r="G48" s="446"/>
-      <c r="H48" s="446"/>
-      <c r="I48" s="446"/>
-      <c r="J48" s="446"/>
-      <c r="K48" s="446"/>
-      <c r="L48" s="446"/>
-      <c r="M48" s="446"/>
+      <c r="D48" s="435"/>
+      <c r="E48" s="435"/>
+      <c r="F48" s="435"/>
+      <c r="G48" s="435"/>
+      <c r="H48" s="435"/>
+      <c r="I48" s="435"/>
+      <c r="J48" s="435"/>
+      <c r="K48" s="435"/>
+      <c r="L48" s="435"/>
+      <c r="M48" s="435"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="397" t="s">
+      <c r="E49" s="404" t="s">
         <v>69</v>
       </c>
       <c r="F49" s="356"/>
@@ -20806,16 +20859,16 @@
       </c>
       <c r="F50" s="110"/>
       <c r="G50" s="197"/>
-      <c r="H50" s="448" t="s">
+      <c r="H50" s="438" t="s">
         <v>930</v>
       </c>
-      <c r="I50" s="449"/>
-      <c r="J50" s="450"/>
-      <c r="K50" s="448" t="s">
+      <c r="I50" s="439"/>
+      <c r="J50" s="440"/>
+      <c r="K50" s="438" t="s">
         <v>931</v>
       </c>
-      <c r="L50" s="449"/>
-      <c r="M50" s="450"/>
+      <c r="L50" s="439"/>
+      <c r="M50" s="440"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="W50" t="s">
@@ -20829,20 +20882,20 @@
         <v>945</v>
       </c>
       <c r="F51" s="238"/>
-      <c r="G51" s="454" t="s">
+      <c r="G51" s="441" t="s">
         <v>953</v>
       </c>
-      <c r="H51" s="451"/>
-      <c r="I51" s="452"/>
-      <c r="J51" s="453"/>
-      <c r="K51" s="451"/>
-      <c r="L51" s="452"/>
-      <c r="M51" s="453"/>
-      <c r="O51" s="447" t="s">
+      <c r="H51" s="431"/>
+      <c r="I51" s="432"/>
+      <c r="J51" s="433"/>
+      <c r="K51" s="431"/>
+      <c r="L51" s="432"/>
+      <c r="M51" s="433"/>
+      <c r="O51" s="436" t="s">
         <v>70</v>
       </c>
-      <c r="P51" s="447"/>
-      <c r="Q51" s="447"/>
+      <c r="P51" s="436"/>
+      <c r="Q51" s="436"/>
       <c r="S51" s="225"/>
       <c r="T51" s="225"/>
       <c r="W51" s="34" t="s">
@@ -20856,13 +20909,13 @@
         <v>946</v>
       </c>
       <c r="F52" s="239"/>
-      <c r="G52" s="454"/>
-      <c r="H52" s="451"/>
-      <c r="I52" s="452"/>
-      <c r="J52" s="453"/>
-      <c r="K52" s="451"/>
-      <c r="L52" s="452"/>
-      <c r="M52" s="453"/>
+      <c r="G52" s="441"/>
+      <c r="H52" s="431"/>
+      <c r="I52" s="432"/>
+      <c r="J52" s="433"/>
+      <c r="K52" s="431"/>
+      <c r="L52" s="432"/>
+      <c r="M52" s="433"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
     </row>
@@ -20873,13 +20926,13 @@
         <v>947</v>
       </c>
       <c r="F53" s="240"/>
-      <c r="G53" s="454"/>
-      <c r="H53" s="451"/>
-      <c r="I53" s="452"/>
-      <c r="J53" s="453"/>
-      <c r="K53" s="451"/>
-      <c r="L53" s="452"/>
-      <c r="M53" s="453"/>
+      <c r="G53" s="441"/>
+      <c r="H53" s="431"/>
+      <c r="I53" s="432"/>
+      <c r="J53" s="433"/>
+      <c r="K53" s="431"/>
+      <c r="L53" s="432"/>
+      <c r="M53" s="433"/>
       <c r="N53" s="5"/>
       <c r="O53" s="32" t="s">
         <v>73</v>
@@ -20918,7 +20971,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="226"/>
       <c r="F54" s="241"/>
-      <c r="G54" s="460" t="s">
+      <c r="G54" s="429" t="s">
         <v>957</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20965,11 +21018,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="458" t="s">
+      <c r="E55" s="427" t="s">
         <v>958</v>
       </c>
-      <c r="F55" s="459"/>
-      <c r="G55" s="461"/>
+      <c r="F55" s="428"/>
+      <c r="G55" s="430"/>
       <c r="H55" s="129" t="s">
         <v>949</v>
       </c>
@@ -21013,9 +21066,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="458"/>
-      <c r="F56" s="459"/>
-      <c r="G56" s="461"/>
+      <c r="E56" s="427"/>
+      <c r="F56" s="428"/>
+      <c r="G56" s="430"/>
       <c r="H56" s="129" t="s">
         <v>950</v>
       </c>
@@ -21045,9 +21098,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="458"/>
-      <c r="F57" s="459"/>
-      <c r="G57" s="461"/>
+      <c r="E57" s="427"/>
+      <c r="F57" s="428"/>
+      <c r="G57" s="430"/>
       <c r="H57" s="4" t="s">
         <v>962</v>
       </c>
@@ -21077,9 +21130,9 @@
         <v>83</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="458"/>
-      <c r="F58" s="459"/>
-      <c r="G58" s="461"/>
+      <c r="E58" s="427"/>
+      <c r="F58" s="428"/>
+      <c r="G58" s="430"/>
       <c r="H58" s="230" t="s">
         <v>948</v>
       </c>
@@ -21104,9 +21157,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="458"/>
-      <c r="F59" s="459"/>
-      <c r="G59" s="461"/>
+      <c r="E59" s="427"/>
+      <c r="F59" s="428"/>
+      <c r="G59" s="430"/>
       <c r="H59" s="230" t="s">
         <v>439</v>
       </c>
@@ -21131,9 +21184,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="458"/>
-      <c r="F60" s="459"/>
-      <c r="G60" s="461"/>
+      <c r="E60" s="427"/>
+      <c r="F60" s="428"/>
+      <c r="G60" s="430"/>
       <c r="H60" s="232"/>
       <c r="I60" s="233" t="s">
         <v>964</v>
@@ -21153,9 +21206,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="458"/>
-      <c r="F61" s="459"/>
-      <c r="G61" s="461"/>
+      <c r="E61" s="427"/>
+      <c r="F61" s="428"/>
+      <c r="G61" s="430"/>
       <c r="H61" s="232"/>
       <c r="I61" s="233" t="s">
         <v>965</v>
@@ -21175,7 +21228,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="221"/>
       <c r="F62" s="237"/>
-      <c r="G62" s="461"/>
+      <c r="G62" s="430"/>
       <c r="H62" s="234"/>
       <c r="I62" s="236" t="s">
         <v>966</v>
@@ -21217,15 +21270,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="455"/>
-      <c r="F64" s="456"/>
-      <c r="G64" s="456"/>
-      <c r="H64" s="456"/>
-      <c r="I64" s="456"/>
-      <c r="J64" s="456"/>
-      <c r="K64" s="456"/>
-      <c r="L64" s="456"/>
-      <c r="M64" s="457"/>
+      <c r="E64" s="424"/>
+      <c r="F64" s="425"/>
+      <c r="G64" s="425"/>
+      <c r="H64" s="425"/>
+      <c r="I64" s="425"/>
+      <c r="J64" s="425"/>
+      <c r="K64" s="425"/>
+      <c r="L64" s="425"/>
+      <c r="M64" s="426"/>
       <c r="N64" s="34" t="s">
         <v>462</v>
       </c>
@@ -22104,30 +22157,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22144,6 +22173,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23506,23 +23559,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="446" t="s">
+      <c r="C2" s="435" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="446"/>
-      <c r="I2" s="446"/>
-      <c r="J2" s="446"/>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
+      <c r="K2" s="435"/>
+      <c r="L2" s="435"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="397" t="s">
+      <c r="E3" s="404" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="356"/>
@@ -23562,11 +23615,11 @@
         <v>476</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="447" t="s">
+      <c r="N5" s="436" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="447"/>
-      <c r="P5" s="447"/>
+      <c r="O5" s="436"/>
+      <c r="P5" s="436"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23617,20 +23670,20 @@
         <v>81</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="451" t="s">
+      <c r="E8" s="431" t="s">
         <v>458</v>
       </c>
-      <c r="F8" s="453"/>
-      <c r="G8" s="451" t="s">
+      <c r="F8" s="433"/>
+      <c r="G8" s="431" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="452"/>
-      <c r="I8" s="453"/>
-      <c r="J8" s="451" t="s">
+      <c r="H8" s="432"/>
+      <c r="I8" s="433"/>
+      <c r="J8" s="431" t="s">
         <v>460</v>
       </c>
-      <c r="K8" s="452"/>
-      <c r="L8" s="453"/>
+      <c r="K8" s="432"/>
+      <c r="L8" s="433"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23653,14 +23706,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="451"/>
-      <c r="H9" s="452"/>
-      <c r="I9" s="453"/>
-      <c r="J9" s="451"/>
-      <c r="K9" s="452"/>
-      <c r="L9" s="453"/>
+      <c r="E9" s="431"/>
+      <c r="F9" s="433"/>
+      <c r="G9" s="431"/>
+      <c r="H9" s="432"/>
+      <c r="I9" s="433"/>
+      <c r="J9" s="431"/>
+      <c r="K9" s="432"/>
+      <c r="L9" s="433"/>
       <c r="M9" s="5" t="s">
         <v>78</v>
       </c>
@@ -23680,14 +23733,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="451"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="451"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="453"/>
-      <c r="J10" s="451"/>
-      <c r="K10" s="452"/>
-      <c r="L10" s="453"/>
+      <c r="E10" s="431"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="431"/>
+      <c r="H10" s="432"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="431"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="433"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23701,14 +23754,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="451"/>
-      <c r="F11" s="453"/>
-      <c r="G11" s="451"/>
-      <c r="H11" s="452"/>
-      <c r="I11" s="453"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="453"/>
+      <c r="E11" s="431"/>
+      <c r="F11" s="433"/>
+      <c r="G11" s="431"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="433"/>
+      <c r="J11" s="431"/>
+      <c r="K11" s="432"/>
+      <c r="L11" s="433"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23811,16 +23864,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="455" t="s">
+      <c r="E17" s="424" t="s">
         <v>461</v>
       </c>
-      <c r="F17" s="456"/>
-      <c r="G17" s="456"/>
-      <c r="H17" s="456"/>
-      <c r="I17" s="456"/>
-      <c r="J17" s="456"/>
-      <c r="K17" s="456"/>
-      <c r="L17" s="457"/>
+      <c r="F17" s="425"/>
+      <c r="G17" s="425"/>
+      <c r="H17" s="425"/>
+      <c r="I17" s="425"/>
+      <c r="J17" s="425"/>
+      <c r="K17" s="425"/>
+      <c r="L17" s="426"/>
       <c r="M17" s="34" t="s">
         <v>462</v>
       </c>
@@ -26057,22 +26110,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="424" t="s">
+      <c r="E3" s="437" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="424"/>
-      <c r="G3" s="424" t="s">
+      <c r="F3" s="437"/>
+      <c r="G3" s="437" t="s">
         <v>409</v>
       </c>
-      <c r="H3" s="424"/>
-      <c r="I3" s="424"/>
-      <c r="J3" s="424"/>
-      <c r="K3" s="424"/>
-      <c r="L3" s="424"/>
-      <c r="M3" s="424" t="s">
+      <c r="H3" s="437"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="437"/>
+      <c r="M3" s="437" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="424"/>
+      <c r="N3" s="437"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26083,7 +26136,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="123"/>
       <c r="D4" s="124"/>
-      <c r="E4" s="425" t="s">
+      <c r="E4" s="442" t="s">
         <v>411</v>
       </c>
       <c r="F4" s="119"/>
@@ -26111,22 +26164,22 @@
         <v>72</v>
       </c>
       <c r="D5" s="126"/>
-      <c r="E5" s="426"/>
+      <c r="E5" s="443"/>
       <c r="F5" s="382" t="s">
         <v>504</v>
       </c>
       <c r="G5" s="383"/>
       <c r="H5" s="384"/>
-      <c r="I5" s="500" t="s">
+      <c r="I5" s="471" t="s">
         <v>505</v>
       </c>
-      <c r="J5" s="501"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="434"/>
-      <c r="M5" s="500" t="s">
+      <c r="J5" s="472"/>
+      <c r="K5" s="472"/>
+      <c r="L5" s="451"/>
+      <c r="M5" s="471" t="s">
         <v>506</v>
       </c>
-      <c r="N5" s="434"/>
+      <c r="N5" s="451"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26137,16 +26190,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="127"/>
       <c r="D6" s="128"/>
-      <c r="E6" s="426"/>
+      <c r="E6" s="443"/>
       <c r="F6" s="385"/>
       <c r="G6" s="386"/>
       <c r="H6" s="387"/>
-      <c r="I6" s="435"/>
+      <c r="I6" s="452"/>
       <c r="J6" s="358"/>
       <c r="K6" s="358"/>
-      <c r="L6" s="436"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="436"/>
+      <c r="L6" s="453"/>
+      <c r="M6" s="452"/>
+      <c r="N6" s="453"/>
       <c r="O6" s="5"/>
       <c r="P6" s="32" t="s">
         <v>73</v>
@@ -26163,16 +26216,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="426"/>
+      <c r="E7" s="443"/>
       <c r="F7" s="385"/>
       <c r="G7" s="386"/>
       <c r="H7" s="387"/>
-      <c r="I7" s="435"/>
+      <c r="I7" s="452"/>
       <c r="J7" s="358"/>
       <c r="K7" s="358"/>
-      <c r="L7" s="436"/>
-      <c r="M7" s="435"/>
-      <c r="N7" s="436"/>
+      <c r="L7" s="453"/>
+      <c r="M7" s="452"/>
+      <c r="N7" s="453"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26191,16 +26244,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="426"/>
+      <c r="E8" s="443"/>
       <c r="F8" s="385"/>
       <c r="G8" s="386"/>
       <c r="H8" s="387"/>
-      <c r="I8" s="435"/>
+      <c r="I8" s="452"/>
       <c r="J8" s="358"/>
       <c r="K8" s="358"/>
-      <c r="L8" s="436"/>
-      <c r="M8" s="435"/>
-      <c r="N8" s="436"/>
+      <c r="L8" s="453"/>
+      <c r="M8" s="452"/>
+      <c r="N8" s="453"/>
       <c r="O8" s="5" t="s">
         <v>78</v>
       </c>
@@ -26221,16 +26274,16 @@
         <v>81</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="426"/>
+      <c r="E9" s="443"/>
       <c r="F9" s="385"/>
       <c r="G9" s="386"/>
       <c r="H9" s="387"/>
-      <c r="I9" s="435"/>
+      <c r="I9" s="452"/>
       <c r="J9" s="358"/>
       <c r="K9" s="358"/>
-      <c r="L9" s="436"/>
-      <c r="M9" s="435"/>
-      <c r="N9" s="436"/>
+      <c r="L9" s="453"/>
+      <c r="M9" s="452"/>
+      <c r="N9" s="453"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26247,16 +26300,16 @@
         <v>427</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="426"/>
+      <c r="E10" s="443"/>
       <c r="F10" s="385"/>
       <c r="G10" s="386"/>
       <c r="H10" s="387"/>
-      <c r="I10" s="435"/>
+      <c r="I10" s="452"/>
       <c r="J10" s="358"/>
       <c r="K10" s="358"/>
-      <c r="L10" s="436"/>
-      <c r="M10" s="435"/>
-      <c r="N10" s="436"/>
+      <c r="L10" s="453"/>
+      <c r="M10" s="452"/>
+      <c r="N10" s="453"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26269,16 +26322,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="426"/>
+      <c r="E11" s="443"/>
       <c r="F11" s="385"/>
       <c r="G11" s="386"/>
       <c r="H11" s="387"/>
-      <c r="I11" s="435"/>
+      <c r="I11" s="452"/>
       <c r="J11" s="358"/>
       <c r="K11" s="358"/>
-      <c r="L11" s="436"/>
-      <c r="M11" s="435"/>
-      <c r="N11" s="436"/>
+      <c r="L11" s="453"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="453"/>
       <c r="O11" s="5"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
@@ -26289,16 +26342,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="426"/>
+      <c r="E12" s="443"/>
       <c r="F12" s="385"/>
       <c r="G12" s="386"/>
       <c r="H12" s="387"/>
-      <c r="I12" s="435"/>
+      <c r="I12" s="452"/>
       <c r="J12" s="358"/>
       <c r="K12" s="358"/>
-      <c r="L12" s="436"/>
-      <c r="M12" s="435"/>
-      <c r="N12" s="436"/>
+      <c r="L12" s="453"/>
+      <c r="M12" s="452"/>
+      <c r="N12" s="453"/>
       <c r="O12" s="5"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
@@ -26311,16 +26364,16 @@
         <v>83</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="426"/>
+      <c r="E13" s="443"/>
       <c r="F13" s="385"/>
       <c r="G13" s="386"/>
       <c r="H13" s="387"/>
-      <c r="I13" s="435"/>
+      <c r="I13" s="452"/>
       <c r="J13" s="358"/>
       <c r="K13" s="358"/>
-      <c r="L13" s="436"/>
-      <c r="M13" s="435"/>
-      <c r="N13" s="436"/>
+      <c r="L13" s="453"/>
+      <c r="M13" s="452"/>
+      <c r="N13" s="453"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26331,16 +26384,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="426"/>
+      <c r="E14" s="443"/>
       <c r="F14" s="385"/>
       <c r="G14" s="386"/>
       <c r="H14" s="387"/>
-      <c r="I14" s="435"/>
+      <c r="I14" s="452"/>
       <c r="J14" s="358"/>
       <c r="K14" s="358"/>
-      <c r="L14" s="436"/>
-      <c r="M14" s="435"/>
-      <c r="N14" s="436"/>
+      <c r="L14" s="453"/>
+      <c r="M14" s="452"/>
+      <c r="N14" s="453"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26351,16 +26404,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="426"/>
+      <c r="E15" s="443"/>
       <c r="F15" s="385"/>
       <c r="G15" s="386"/>
       <c r="H15" s="387"/>
-      <c r="I15" s="435"/>
+      <c r="I15" s="452"/>
       <c r="J15" s="358"/>
       <c r="K15" s="358"/>
-      <c r="L15" s="436"/>
-      <c r="M15" s="435"/>
-      <c r="N15" s="436"/>
+      <c r="L15" s="453"/>
+      <c r="M15" s="452"/>
+      <c r="N15" s="453"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26371,16 +26424,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="426"/>
+      <c r="E16" s="443"/>
       <c r="F16" s="385"/>
       <c r="G16" s="386"/>
       <c r="H16" s="387"/>
-      <c r="I16" s="435"/>
+      <c r="I16" s="452"/>
       <c r="J16" s="358"/>
       <c r="K16" s="358"/>
-      <c r="L16" s="436"/>
-      <c r="M16" s="435"/>
-      <c r="N16" s="436"/>
+      <c r="L16" s="453"/>
+      <c r="M16" s="452"/>
+      <c r="N16" s="453"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26393,16 +26446,16 @@
         <v>84</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="426"/>
+      <c r="E17" s="443"/>
       <c r="F17" s="385"/>
       <c r="G17" s="386"/>
       <c r="H17" s="387"/>
-      <c r="I17" s="435"/>
+      <c r="I17" s="452"/>
       <c r="J17" s="358"/>
       <c r="K17" s="358"/>
-      <c r="L17" s="436"/>
-      <c r="M17" s="435"/>
-      <c r="N17" s="436"/>
+      <c r="L17" s="453"/>
+      <c r="M17" s="452"/>
+      <c r="N17" s="453"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26413,16 +26466,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="427"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="388"/>
       <c r="G18" s="389"/>
       <c r="H18" s="390"/>
-      <c r="I18" s="437"/>
-      <c r="J18" s="502"/>
-      <c r="K18" s="502"/>
-      <c r="L18" s="438"/>
-      <c r="M18" s="437"/>
-      <c r="N18" s="438"/>
+      <c r="I18" s="454"/>
+      <c r="J18" s="473"/>
+      <c r="K18" s="473"/>
+      <c r="L18" s="455"/>
+      <c r="M18" s="454"/>
+      <c r="N18" s="455"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26498,29 +26551,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="447" t="s">
+      <c r="B24" s="436" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="447"/>
-      <c r="D24" s="446"/>
-      <c r="E24" s="446"/>
-      <c r="F24" s="446"/>
-      <c r="G24" s="446"/>
-      <c r="H24" s="446"/>
-      <c r="I24" s="446"/>
-      <c r="J24" s="446"/>
-      <c r="K24" s="446"/>
-      <c r="M24" s="471" t="s">
+      <c r="C24" s="436"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="435"/>
+      <c r="F24" s="435"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="435"/>
+      <c r="I24" s="435"/>
+      <c r="J24" s="435"/>
+      <c r="K24" s="435"/>
+      <c r="M24" s="491" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="471"/>
-      <c r="O24" s="471"/>
+      <c r="N24" s="491"/>
+      <c r="O24" s="491"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="472" t="s">
+      <c r="B25" s="492" t="s">
         <v>782</v>
       </c>
-      <c r="C25" s="411"/>
+      <c r="C25" s="413"/>
       <c r="D25" s="363" t="s">
         <v>69</v>
       </c>
@@ -26542,13 +26595,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="412"/>
-      <c r="C26" s="413"/>
-      <c r="D26" s="410" t="s">
+      <c r="B26" s="414"/>
+      <c r="C26" s="415"/>
+      <c r="D26" s="412" t="s">
         <v>775</v>
       </c>
-      <c r="E26" s="411"/>
-      <c r="F26" s="498" t="s">
+      <c r="E26" s="413"/>
+      <c r="F26" s="486" t="s">
         <v>775</v>
       </c>
       <c r="G26" s="363"/>
@@ -26572,22 +26625,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="412"/>
-      <c r="C27" s="413"/>
-      <c r="D27" s="407" t="s">
+      <c r="B27" s="414"/>
+      <c r="C27" s="415"/>
+      <c r="D27" s="403" t="s">
         <v>780</v>
       </c>
-      <c r="E27" s="413"/>
-      <c r="F27" s="412" t="s">
+      <c r="E27" s="415"/>
+      <c r="F27" s="414" t="s">
         <v>776</v>
       </c>
-      <c r="G27" s="407"/>
-      <c r="H27" s="483"/>
-      <c r="I27" s="482" t="s">
+      <c r="G27" s="403"/>
+      <c r="H27" s="487"/>
+      <c r="I27" s="490" t="s">
         <v>780</v>
       </c>
-      <c r="J27" s="407"/>
-      <c r="K27" s="483"/>
+      <c r="J27" s="403"/>
+      <c r="K27" s="487"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26602,22 +26655,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="412"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="407" t="s">
+      <c r="B28" s="414"/>
+      <c r="C28" s="415"/>
+      <c r="D28" s="403" t="s">
         <v>777</v>
       </c>
-      <c r="E28" s="413"/>
-      <c r="F28" s="412" t="s">
+      <c r="E28" s="415"/>
+      <c r="F28" s="414" t="s">
         <v>777</v>
       </c>
-      <c r="G28" s="407"/>
-      <c r="H28" s="483"/>
-      <c r="I28" s="482" t="s">
+      <c r="G28" s="403"/>
+      <c r="H28" s="487"/>
+      <c r="I28" s="490" t="s">
         <v>777</v>
       </c>
-      <c r="J28" s="407"/>
-      <c r="K28" s="483"/>
+      <c r="J28" s="403"/>
+      <c r="K28" s="487"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26626,22 +26679,22 @@
       <c r="O28" s="32"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="414"/>
-      <c r="C29" s="415"/>
-      <c r="D29" s="407" t="s">
+      <c r="B29" s="416"/>
+      <c r="C29" s="417"/>
+      <c r="D29" s="403" t="s">
         <v>778</v>
       </c>
-      <c r="E29" s="413"/>
-      <c r="F29" s="499" t="s">
+      <c r="E29" s="415"/>
+      <c r="F29" s="488" t="s">
         <v>778</v>
       </c>
       <c r="G29" s="360"/>
-      <c r="H29" s="485"/>
-      <c r="I29" s="484" t="s">
+      <c r="H29" s="489"/>
+      <c r="I29" s="502" t="s">
         <v>778</v>
       </c>
       <c r="J29" s="360"/>
-      <c r="K29" s="485"/>
+      <c r="K29" s="489"/>
       <c r="L29" s="22" t="s">
         <v>2</v>
       </c>
@@ -26654,20 +26707,20 @@
         <v>781</v>
       </c>
       <c r="C30" s="367"/>
-      <c r="D30" s="486" t="s">
+      <c r="D30" s="474" t="s">
         <v>458</v>
       </c>
-      <c r="E30" s="487"/>
-      <c r="F30" s="491" t="s">
+      <c r="E30" s="475"/>
+      <c r="F30" s="479" t="s">
         <v>459</v>
       </c>
-      <c r="G30" s="492"/>
-      <c r="H30" s="487"/>
-      <c r="I30" s="491" t="s">
+      <c r="G30" s="480"/>
+      <c r="H30" s="475"/>
+      <c r="I30" s="479" t="s">
         <v>460</v>
       </c>
-      <c r="J30" s="492"/>
-      <c r="K30" s="495"/>
+      <c r="J30" s="480"/>
+      <c r="K30" s="483"/>
       <c r="L30" s="5"/>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -26676,14 +26729,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="369"/>
       <c r="C31" s="370"/>
-      <c r="D31" s="488"/>
-      <c r="E31" s="453"/>
-      <c r="F31" s="451"/>
-      <c r="G31" s="452"/>
-      <c r="H31" s="453"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="452"/>
-      <c r="K31" s="496"/>
+      <c r="D31" s="476"/>
+      <c r="E31" s="433"/>
+      <c r="F31" s="431"/>
+      <c r="G31" s="432"/>
+      <c r="H31" s="433"/>
+      <c r="I31" s="431"/>
+      <c r="J31" s="432"/>
+      <c r="K31" s="484"/>
       <c r="L31" s="5"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
@@ -26692,107 +26745,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="369"/>
       <c r="C32" s="370"/>
-      <c r="D32" s="488"/>
-      <c r="E32" s="453"/>
-      <c r="F32" s="451"/>
-      <c r="G32" s="452"/>
-      <c r="H32" s="453"/>
-      <c r="I32" s="451"/>
-      <c r="J32" s="452"/>
-      <c r="K32" s="496"/>
+      <c r="D32" s="476"/>
+      <c r="E32" s="433"/>
+      <c r="F32" s="431"/>
+      <c r="G32" s="432"/>
+      <c r="H32" s="433"/>
+      <c r="I32" s="431"/>
+      <c r="J32" s="432"/>
+      <c r="K32" s="484"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="369"/>
       <c r="C33" s="370"/>
-      <c r="D33" s="489"/>
-      <c r="E33" s="490"/>
-      <c r="F33" s="493"/>
-      <c r="G33" s="494"/>
-      <c r="H33" s="490"/>
-      <c r="I33" s="493"/>
-      <c r="J33" s="494"/>
-      <c r="K33" s="497"/>
+      <c r="D33" s="477"/>
+      <c r="E33" s="478"/>
+      <c r="F33" s="481"/>
+      <c r="G33" s="482"/>
+      <c r="H33" s="478"/>
+      <c r="I33" s="481"/>
+      <c r="J33" s="482"/>
+      <c r="K33" s="485"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="369"/>
       <c r="C34" s="371"/>
-      <c r="D34" s="473" t="s">
+      <c r="D34" s="493" t="s">
         <v>768</v>
       </c>
-      <c r="E34" s="474"/>
-      <c r="F34" s="473" t="s">
+      <c r="E34" s="494"/>
+      <c r="F34" s="493" t="s">
         <v>480</v>
       </c>
-      <c r="G34" s="479"/>
-      <c r="H34" s="474"/>
-      <c r="I34" s="473" t="s">
+      <c r="G34" s="499"/>
+      <c r="H34" s="494"/>
+      <c r="I34" s="493" t="s">
         <v>783</v>
       </c>
-      <c r="J34" s="479"/>
-      <c r="K34" s="474"/>
+      <c r="J34" s="499"/>
+      <c r="K34" s="494"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="369"/>
       <c r="C35" s="371"/>
-      <c r="D35" s="475"/>
-      <c r="E35" s="476"/>
-      <c r="F35" s="475"/>
-      <c r="G35" s="480"/>
-      <c r="H35" s="476"/>
-      <c r="I35" s="475"/>
-      <c r="J35" s="480"/>
-      <c r="K35" s="476"/>
+      <c r="D35" s="495"/>
+      <c r="E35" s="496"/>
+      <c r="F35" s="495"/>
+      <c r="G35" s="500"/>
+      <c r="H35" s="496"/>
+      <c r="I35" s="495"/>
+      <c r="J35" s="500"/>
+      <c r="K35" s="496"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="369"/>
       <c r="C36" s="371"/>
-      <c r="D36" s="475"/>
-      <c r="E36" s="476"/>
-      <c r="F36" s="475"/>
-      <c r="G36" s="480"/>
-      <c r="H36" s="476"/>
-      <c r="I36" s="475"/>
-      <c r="J36" s="480"/>
-      <c r="K36" s="476"/>
+      <c r="D36" s="495"/>
+      <c r="E36" s="496"/>
+      <c r="F36" s="495"/>
+      <c r="G36" s="500"/>
+      <c r="H36" s="496"/>
+      <c r="I36" s="495"/>
+      <c r="J36" s="500"/>
+      <c r="K36" s="496"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="369"/>
       <c r="C37" s="371"/>
-      <c r="D37" s="475"/>
-      <c r="E37" s="476"/>
-      <c r="F37" s="475"/>
-      <c r="G37" s="480"/>
-      <c r="H37" s="476"/>
-      <c r="I37" s="475"/>
-      <c r="J37" s="480"/>
-      <c r="K37" s="476"/>
+      <c r="D37" s="495"/>
+      <c r="E37" s="496"/>
+      <c r="F37" s="495"/>
+      <c r="G37" s="500"/>
+      <c r="H37" s="496"/>
+      <c r="I37" s="495"/>
+      <c r="J37" s="500"/>
+      <c r="K37" s="496"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="369"/>
       <c r="C38" s="371"/>
-      <c r="D38" s="477"/>
-      <c r="E38" s="478"/>
-      <c r="F38" s="477"/>
-      <c r="G38" s="481"/>
-      <c r="H38" s="478"/>
-      <c r="I38" s="477"/>
-      <c r="J38" s="481"/>
-      <c r="K38" s="478"/>
+      <c r="D38" s="497"/>
+      <c r="E38" s="498"/>
+      <c r="F38" s="497"/>
+      <c r="G38" s="501"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="497"/>
+      <c r="J38" s="501"/>
+      <c r="K38" s="498"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="372"/>
       <c r="C39" s="374"/>
-      <c r="D39" s="455" t="s">
+      <c r="D39" s="424" t="s">
         <v>461</v>
       </c>
-      <c r="E39" s="456"/>
-      <c r="F39" s="456"/>
-      <c r="G39" s="456"/>
-      <c r="H39" s="456"/>
-      <c r="I39" s="456"/>
-      <c r="J39" s="456"/>
-      <c r="K39" s="457"/>
+      <c r="E39" s="425"/>
+      <c r="F39" s="425"/>
+      <c r="G39" s="425"/>
+      <c r="H39" s="425"/>
+      <c r="I39" s="425"/>
+      <c r="J39" s="425"/>
+      <c r="K39" s="426"/>
       <c r="L39" s="34" t="s">
         <v>462</v>
       </c>
@@ -26829,16 +26882,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26855,17 +26909,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -28694,8 +28747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28792,7 +28845,9 @@
     <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>1675</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" t="s">
@@ -28804,7 +28859,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>1011</v>
+        <v>1216</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -29366,7 +29421,7 @@
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="O30" s="22"/>
       <c r="P30" s="72"/>
@@ -29403,7 +29458,7 @@
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="O31" s="22"/>
       <c r="P31" s="72"/>
@@ -29419,7 +29474,9 @@
       <c r="C32" s="22" t="s">
         <v>1640</v>
       </c>
-      <c r="D32" s="353"/>
+      <c r="D32" s="353" t="s">
+        <v>99</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="354" t="s">
         <v>72</v>
@@ -29451,7 +29508,7 @@
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="24" t="s">
-        <v>1655</v>
+        <v>192</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="354" t="s">
@@ -29537,12 +29594,12 @@
       <c r="A36" s="22"/>
       <c r="B36" s="122"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>1659</v>
+      </c>
       <c r="E36" s="22"/>
       <c r="F36" s="72"/>
-      <c r="G36" s="22" t="s">
-        <v>645</v>
-      </c>
+      <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -29571,7 +29628,7 @@
         <v>83</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="72"/>
@@ -29611,7 +29668,7 @@
       <c r="E38" s="61"/>
       <c r="F38" s="326"/>
       <c r="G38" s="22" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -29892,7 +29949,7 @@
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -29918,18 +29975,22 @@
     <row r="50" spans="1:21">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="135" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="136"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
+      <c r="K50" s="135" t="s">
+        <v>762</v>
+      </c>
+      <c r="L50" s="150"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="136"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -29941,18 +30002,22 @@
     <row r="51" spans="1:21">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="C51" s="503" t="s">
+        <v>1660</v>
+      </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+      <c r="K51" s="122"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
+      <c r="N51" s="72"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -29964,18 +30029,22 @@
     <row r="52" spans="1:21">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="22" t="s">
+        <v>1010</v>
+      </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
+      <c r="K52" s="122" t="s">
+        <v>1585</v>
+      </c>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
+      <c r="N52" s="72"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -29987,18 +30056,22 @@
     <row r="53" spans="1:21">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="G53" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>547</v>
+      </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="K53" s="122"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
+      <c r="N53" s="72"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -30010,18 +30083,22 @@
     <row r="54" spans="1:21">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="22" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>1661</v>
+      </c>
       <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
+      <c r="K54" s="122"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
+      <c r="N54" s="72"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -30033,18 +30110,22 @@
     <row r="55" spans="1:21">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>1662</v>
+      </c>
       <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="K55" s="122"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
+      <c r="N55" s="72"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
@@ -30053,21 +30134,25 @@
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" ht="15.75" thickBot="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>1663</v>
+      </c>
       <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
+      <c r="K56" s="122"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
+      <c r="N56" s="72"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
@@ -30079,18 +30164,20 @@
     <row r="57" spans="1:21">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="135" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="136"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
+      <c r="K57" s="122"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
+      <c r="N57" s="72"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="22"/>
@@ -30102,18 +30189,24 @@
     <row r="58" spans="1:21">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="22" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>1665</v>
+      </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="G58" s="72" t="s">
+        <v>1663</v>
+      </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
+      <c r="K58" s="122"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
+      <c r="N58" s="72"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -30122,21 +30215,21 @@
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="15.75" thickBot="1">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="326"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="326"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -30168,7 +30261,7 @@
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" ht="15.75" thickBot="1">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -30194,18 +30287,22 @@
     <row r="62" spans="1:21">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="C62" s="135" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="136"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
+      <c r="K62" s="135" t="s">
+        <v>762</v>
+      </c>
+      <c r="L62" s="150"/>
+      <c r="M62" s="150"/>
+      <c r="N62" s="136"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
@@ -30217,18 +30314,22 @@
     <row r="63" spans="1:21">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="C63" s="503" t="s">
+        <v>1660</v>
+      </c>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="K63" s="122"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
+      <c r="N63" s="72"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
       <c r="Q63" s="22"/>
@@ -30240,18 +30341,20 @@
     <row r="64" spans="1:21">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="22" t="s">
+        <v>1010</v>
+      </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
+      <c r="K64" s="122"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
+      <c r="N64" s="72"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
@@ -30263,18 +30366,20 @@
     <row r="65" spans="1:21">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="C65" s="122"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="22" t="s">
+        <v>547</v>
+      </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
+      <c r="K65" s="122"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
+      <c r="N65" s="72"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
@@ -30286,18 +30391,18 @@
     <row r="66" spans="1:21">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
+      <c r="C66" s="122"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
+      <c r="K66" s="122"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
+      <c r="N66" s="72"/>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
@@ -30309,18 +30414,18 @@
     <row r="67" spans="1:21">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
+      <c r="C67" s="122"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="G67" s="72"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="K67" s="122"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
+      <c r="N67" s="72"/>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -30329,21 +30434,21 @@
       <c r="T67" s="22"/>
       <c r="U67" s="22"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="15.75" thickBot="1">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
+      <c r="C68" s="122"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="72"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="K68" s="122"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
+      <c r="N68" s="72"/>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -30355,18 +30460,20 @@
     <row r="69" spans="1:21">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
+      <c r="C69" s="135" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D69" s="150"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="150"/>
+      <c r="G69" s="136"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
+      <c r="K69" s="122"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
+      <c r="N69" s="72"/>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
@@ -30378,18 +30485,24 @@
     <row r="70" spans="1:21">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="22" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>1665</v>
+      </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="72" t="s">
+        <v>1663</v>
+      </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
+      <c r="K70" s="122"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
@@ -30398,21 +30511,21 @@
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" ht="15.75" thickBot="1">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="326"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="326"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -30536,7 +30649,7 @@
       <c r="T76" s="22"/>
       <c r="U76" s="22"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" ht="15.75" thickBot="1">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -30560,45 +30673,59 @@
       <c r="U77" s="22"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
+      <c r="A78" s="450" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B78" s="451"/>
+      <c r="C78" s="135" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D78" s="150"/>
+      <c r="E78" s="150"/>
+      <c r="F78" s="150" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G78" s="150" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H78" s="150"/>
+      <c r="I78" s="150"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="150"/>
+      <c r="L78" s="150"/>
+      <c r="M78" s="136"/>
+      <c r="N78" s="471" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O78" s="472"/>
+      <c r="P78" s="451"/>
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
       <c r="U78" s="22"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A79" s="452"/>
+      <c r="B79" s="453"/>
+      <c r="C79" s="122"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
+      <c r="F79" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>1674</v>
+      </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="452"/>
+      <c r="O79" s="358"/>
+      <c r="P79" s="453"/>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
@@ -30606,55 +30733,59 @@
       <c r="U79" s="22"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
+      <c r="A80" s="452"/>
+      <c r="B80" s="453"/>
+      <c r="C80" s="122" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D80" s="135" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E80" s="150"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="136"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="452"/>
+      <c r="O80" s="358"/>
+      <c r="P80" s="453"/>
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
       <c r="U80" s="22"/>
     </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
+    <row r="81" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A81" s="452"/>
+      <c r="B81" s="453"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="326"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="452"/>
+      <c r="O81" s="358"/>
+      <c r="P81" s="453"/>
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
       <c r="T81" s="22"/>
       <c r="U81" s="22"/>
     </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+    <row r="82" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A82" s="452"/>
+      <c r="B82" s="453"/>
+      <c r="C82" s="122"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -30664,10 +30795,10 @@
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="452"/>
+      <c r="O82" s="358"/>
+      <c r="P82" s="453"/>
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
@@ -30675,45 +30806,49 @@
       <c r="U82" s="22"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
+      <c r="A83" s="452"/>
+      <c r="B83" s="453"/>
+      <c r="C83" s="122" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D83" s="135" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E83" s="150"/>
+      <c r="F83" s="150"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="150"/>
+      <c r="I83" s="150"/>
+      <c r="J83" s="150"/>
+      <c r="K83" s="150"/>
+      <c r="L83" s="136"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="452"/>
+      <c r="O83" s="358"/>
+      <c r="P83" s="453"/>
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
       <c r="U83" s="22"/>
     </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
+    <row r="84" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A84" s="452"/>
+      <c r="B84" s="453"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="326"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="452"/>
+      <c r="O84" s="358"/>
+      <c r="P84" s="453"/>
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
@@ -30721,9 +30856,9 @@
       <c r="U84" s="22"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="452"/>
+      <c r="B85" s="453"/>
+      <c r="C85" s="122"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -30733,33 +30868,33 @@
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="452"/>
+      <c r="O85" s="358"/>
+      <c r="P85" s="453"/>
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="22"/>
       <c r="T85" s="22"/>
       <c r="U85" s="22"/>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
+    <row r="86" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A86" s="454"/>
+      <c r="B86" s="455"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="326"/>
+      <c r="N86" s="454"/>
+      <c r="O86" s="473"/>
+      <c r="P86" s="455"/>
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
@@ -34654,7 +34789,7 @@
       <c r="U255" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="M224:M227"/>
     <mergeCell ref="M244:M247"/>
     <mergeCell ref="K4:P4"/>
@@ -34668,6 +34803,8 @@
     <mergeCell ref="J127:M129"/>
     <mergeCell ref="J130:M132"/>
     <mergeCell ref="J133:M138"/>
+    <mergeCell ref="A78:B86"/>
+    <mergeCell ref="N78:P86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -34678,9 +34815,11 @@
     <hyperlink ref="S9" r:id="rId6"/>
     <hyperlink ref="K28" r:id="rId7"/>
     <hyperlink ref="C29" r:id="rId8"/>
+    <hyperlink ref="C51" r:id="rId9"/>
+    <hyperlink ref="C63" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
